--- a/Dsa questions.xlsx
+++ b/Dsa questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{725D2E6B-FCF3-4D57-AFB4-FB9DF2C0DBC2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708008A9-56CB-42D2-B15F-E1B295422642}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="633">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1921,6 +1921,9 @@
   </si>
   <si>
     <t>Codenation Google</t>
+  </si>
+  <si>
+    <t>]|</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2044,6 +2047,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,7 +2228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2266,6 +2275,27 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2308,26 +2338,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C487" sqref="C487"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2624,28 +2636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -2660,7 +2672,7 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
@@ -2669,7 +2681,7 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2680,7 +2692,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
@@ -2710,7 +2722,7 @@
       <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2732,7 +2744,7 @@
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2743,7 +2755,7 @@
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2754,7 +2766,7 @@
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2765,7 +2777,7 @@
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2776,7 +2788,7 @@
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2787,7 +2799,7 @@
       <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2798,7 +2810,7 @@
       <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2809,7 +2821,7 @@
       <c r="B21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2820,7 +2832,7 @@
       <c r="B22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2831,7 +2843,7 @@
       <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2842,7 +2854,7 @@
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2853,7 +2865,7 @@
       <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2864,7 +2876,7 @@
       <c r="B26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2875,7 +2887,7 @@
       <c r="B27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2886,7 +2898,7 @@
       <c r="B28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2897,7 +2909,7 @@
       <c r="B29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2908,7 +2920,7 @@
       <c r="B30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2919,7 +2931,7 @@
       <c r="B31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2930,7 +2942,7 @@
       <c r="B32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2941,7 +2953,7 @@
       <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2952,7 +2964,7 @@
       <c r="B34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2963,7 +2975,7 @@
       <c r="B35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2974,7 +2986,7 @@
       <c r="B36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2985,19 +2997,19 @@
       <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
@@ -3006,7 +3018,7 @@
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3017,7 +3029,7 @@
       <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3028,7 +3040,7 @@
       <c r="B42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3039,7 +3051,7 @@
       <c r="B43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3050,7 +3062,7 @@
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3061,7 +3073,7 @@
       <c r="B45" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3072,7 +3084,7 @@
       <c r="B46" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3083,7 +3095,7 @@
       <c r="B47" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3094,7 +3106,7 @@
       <c r="B48" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3105,7 +3117,7 @@
       <c r="B49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="17" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3116,7 +3128,7 @@
       <c r="B50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3127,7 +3139,7 @@
       <c r="B51" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="17" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3138,7 +3150,7 @@
       <c r="B52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="17" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3149,7 +3161,7 @@
       <c r="B53" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3160,7 +3172,7 @@
       <c r="B54" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3171,7 +3183,7 @@
       <c r="B55" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3182,7 +3194,7 @@
       <c r="B56" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3193,7 +3205,7 @@
       <c r="B57" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3204,7 +3216,7 @@
       <c r="B58" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3215,7 +3227,7 @@
       <c r="B59" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3226,7 +3238,7 @@
       <c r="B60" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="17" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3237,19 +3249,19 @@
       <c r="B61" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
@@ -3258,7 +3270,7 @@
       <c r="B64" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3269,7 +3281,7 @@
       <c r="B65" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3280,7 +3292,7 @@
       <c r="B66" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3291,7 +3303,7 @@
       <c r="B67" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="17" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3302,7 +3314,7 @@
       <c r="B68" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3313,7 +3325,7 @@
       <c r="B69" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3324,7 +3336,7 @@
       <c r="B70" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3335,7 +3347,7 @@
       <c r="B71" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3346,7 +3358,7 @@
       <c r="B72" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3357,19 +3369,19 @@
       <c r="B73" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
@@ -3378,7 +3390,7 @@
       <c r="B76" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3389,7 +3401,7 @@
       <c r="B77" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="17" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3400,7 +3412,7 @@
       <c r="B78" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3411,7 +3423,7 @@
       <c r="B79" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3422,7 +3434,7 @@
       <c r="B80" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="17" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3433,7 +3445,7 @@
       <c r="B81" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="17" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3444,7 +3456,7 @@
       <c r="B82" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3455,7 +3467,7 @@
       <c r="B83" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3466,7 +3478,7 @@
       <c r="B84" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3477,7 +3489,7 @@
       <c r="B85" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="17" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3488,7 +3500,7 @@
       <c r="B86" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3499,7 +3511,7 @@
       <c r="B87" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3510,7 +3522,7 @@
       <c r="B88" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="17" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3521,7 +3533,7 @@
       <c r="B89" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="17" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3532,7 +3544,7 @@
       <c r="B90" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3543,7 +3555,7 @@
       <c r="B91" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C91" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3554,7 +3566,7 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="17" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3565,7 +3577,7 @@
       <c r="B93" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="17" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3576,7 +3588,7 @@
       <c r="B94" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="17" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3587,7 +3599,7 @@
       <c r="B95" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="17" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3598,7 +3610,7 @@
       <c r="B96" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3609,7 +3621,7 @@
       <c r="B97" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3620,19 +3632,19 @@
       <c r="B98" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
     </row>
     <row r="101" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="13" t="s">
@@ -3641,7 +3653,7 @@
       <c r="B101" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="31" t="s">
+      <c r="C101" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3652,7 +3664,7 @@
       <c r="B102" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C102" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3663,7 +3675,7 @@
       <c r="B103" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3674,7 +3686,7 @@
       <c r="B104" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3685,7 +3697,7 @@
       <c r="B105" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="31" t="s">
+      <c r="C105" s="17" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3696,7 +3708,7 @@
       <c r="B106" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3707,7 +3719,7 @@
       <c r="B107" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3718,7 +3730,7 @@
       <c r="B108" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3729,7 +3741,7 @@
       <c r="B109" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="17" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3740,7 +3752,7 @@
       <c r="B110" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3751,7 +3763,7 @@
       <c r="B111" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="17" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3762,7 +3774,7 @@
       <c r="B112" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C112" s="31"/>
+      <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
@@ -3771,7 +3783,7 @@
       <c r="B113" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3782,7 +3794,7 @@
       <c r="B114" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3793,7 +3805,7 @@
       <c r="B115" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C115" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3804,7 +3816,7 @@
       <c r="B116" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C116" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3815,7 +3827,7 @@
       <c r="B117" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C117" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3826,7 +3838,7 @@
       <c r="B118" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3837,7 +3849,7 @@
       <c r="B119" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3848,7 +3860,7 @@
       <c r="B120" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="17" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3859,39 +3871,39 @@
       <c r="B121" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C121" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
     </row>
     <row r="124" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3902,7 +3914,7 @@
       <c r="B126" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C126" s="17" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3913,7 +3925,7 @@
       <c r="B127" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="17" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3924,7 +3936,7 @@
       <c r="B128" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C128" s="32" t="s">
+      <c r="C128" s="18" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3935,7 +3947,7 @@
       <c r="B129" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="C129" s="19" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3946,7 +3958,7 @@
       <c r="B130" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C130" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3957,7 +3969,7 @@
       <c r="B131" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3968,7 +3980,7 @@
       <c r="B132" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="17" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3979,7 +3991,7 @@
       <c r="B133" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C133" s="17" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3990,7 +4002,7 @@
       <c r="B134" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="C134" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4001,7 +4013,7 @@
       <c r="B135" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4012,7 +4024,7 @@
       <c r="B136" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="17" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4023,7 +4035,7 @@
       <c r="B137" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4034,7 +4046,7 @@
       <c r="B138" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C138" s="31" t="s">
+      <c r="C138" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4045,7 +4057,7 @@
       <c r="B139" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="C139" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4056,7 +4068,7 @@
       <c r="B140" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C140" s="31" t="s">
+      <c r="C140" s="17" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4067,7 +4079,7 @@
       <c r="B141" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="C141" s="17" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4078,7 +4090,7 @@
       <c r="B142" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4089,7 +4101,7 @@
       <c r="B143" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="31" t="s">
+      <c r="C143" s="17" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4100,7 +4112,7 @@
       <c r="B144" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4111,7 +4123,7 @@
       <c r="B145" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="17" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4122,7 +4134,7 @@
       <c r="B146" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="31" t="s">
+      <c r="C146" s="17" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4133,7 +4145,7 @@
       <c r="B147" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="32" t="s">
+      <c r="C147" s="18" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4144,7 +4156,7 @@
       <c r="B148" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C148" s="17" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4155,19 +4167,19 @@
       <c r="B149" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="31" t="s">
+      <c r="C149" s="17" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="30"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
     </row>
     <row r="152" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="11" t="s">
@@ -4176,7 +4188,7 @@
       <c r="B152" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C152" s="31" t="s">
+      <c r="C152" s="17" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4187,7 +4199,7 @@
       <c r="B153" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C153" s="31" t="s">
+      <c r="C153" s="17" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4198,7 +4210,7 @@
       <c r="B154" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4209,7 +4221,7 @@
       <c r="B155" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C155" s="31" t="s">
+      <c r="C155" s="17" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4220,7 +4232,7 @@
       <c r="B156" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C156" s="31" t="s">
+      <c r="C156" s="17" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4231,7 +4243,7 @@
       <c r="B157" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C157" s="17" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4242,7 +4254,7 @@
       <c r="B158" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C158" s="31" t="s">
+      <c r="C158" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4253,7 +4265,7 @@
       <c r="B159" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="C159" s="17" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4264,7 +4276,7 @@
       <c r="B160" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C160" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4275,7 +4287,7 @@
       <c r="B161" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="31" t="s">
+      <c r="C161" s="17" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4286,7 +4298,7 @@
       <c r="B162" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C162" s="31" t="s">
+      <c r="C162" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4297,7 +4309,7 @@
       <c r="B163" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C163" s="31" t="s">
+      <c r="C163" s="17" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4308,7 +4320,7 @@
       <c r="B164" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C164" s="31" t="s">
+      <c r="C164" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4319,7 +4331,7 @@
       <c r="B165" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C165" s="31" t="s">
+      <c r="C165" s="17" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4330,7 +4342,7 @@
       <c r="B166" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="17" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4341,7 +4353,7 @@
       <c r="B167" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="17" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4352,7 +4364,7 @@
       <c r="B168" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C168" s="31" t="s">
+      <c r="C168" s="17" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4363,7 +4375,7 @@
       <c r="B169" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C169" s="31" t="s">
+      <c r="C169" s="17" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4374,7 +4386,7 @@
       <c r="B170" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C170" s="31" t="s">
+      <c r="C170" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4385,7 +4397,7 @@
       <c r="B171" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C171" s="31" t="s">
+      <c r="C171" s="17" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4396,7 +4408,7 @@
       <c r="B172" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C172" s="31" t="s">
+      <c r="C172" s="17" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4407,7 +4419,7 @@
       <c r="B173" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C173" s="31" t="s">
+      <c r="C173" s="17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4418,7 +4430,7 @@
       <c r="B174" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C174" s="31" t="s">
+      <c r="C174" s="17" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4429,7 +4441,7 @@
       <c r="B175" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C175" s="31" t="s">
+      <c r="C175" s="17" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4440,7 +4452,7 @@
       <c r="B176" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C176" s="31" t="s">
+      <c r="C176" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4451,7 +4463,7 @@
       <c r="B177" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C177" s="31" t="s">
+      <c r="C177" s="17" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4462,19 +4474,19 @@
       <c r="B178" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="31" t="s">
+      <c r="C178" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="30"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="30"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
     </row>
     <row r="181" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="11" t="s">
@@ -4483,7 +4495,7 @@
       <c r="B181" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="C181" s="20" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4494,7 +4506,7 @@
       <c r="B182" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="C182" s="20" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4505,7 +4517,7 @@
       <c r="B183" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C183" s="34" t="s">
+      <c r="C183" s="20" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4516,7 +4528,7 @@
       <c r="B184" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C184" s="34" t="s">
+      <c r="C184" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4527,7 +4539,7 @@
       <c r="B185" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="C185" s="34" t="s">
+      <c r="C185" s="20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4538,7 +4550,7 @@
       <c r="B186" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C186" s="34"/>
+      <c r="C186" s="20"/>
     </row>
     <row r="187" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="11" t="s">
@@ -4547,7 +4559,7 @@
       <c r="B187" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="34" t="s">
+      <c r="C187" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4558,7 +4570,7 @@
       <c r="B188" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C188" s="34" t="s">
+      <c r="C188" s="20" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4569,7 +4581,7 @@
       <c r="B189" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C189" s="34"/>
+      <c r="C189" s="20"/>
     </row>
     <row r="190" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="13" t="s">
@@ -4578,7 +4590,7 @@
       <c r="B190" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C190" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4589,7 +4601,7 @@
       <c r="B191" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C191" s="34" t="s">
+      <c r="C191" s="20" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4600,7 +4612,7 @@
       <c r="B192" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C192" s="34" t="s">
+      <c r="C192" s="20" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4611,7 +4623,7 @@
       <c r="B193" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C193" s="34" t="s">
+      <c r="C193" s="20" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4622,7 +4634,7 @@
       <c r="B194" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C194" s="31" t="s">
+      <c r="C194" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4633,7 +4645,7 @@
       <c r="B195" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="34" t="s">
+      <c r="C195" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4644,7 +4656,7 @@
       <c r="B196" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="31" t="s">
+      <c r="C196" s="17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4655,7 +4667,7 @@
       <c r="B197" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C197" s="31"/>
+      <c r="C197" s="17"/>
     </row>
     <row r="198" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="15" t="s">
@@ -4664,7 +4676,7 @@
       <c r="B198" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C198" s="31" t="s">
+      <c r="C198" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4675,7 +4687,7 @@
       <c r="B199" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C199" s="31" t="s">
+      <c r="C199" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4686,7 +4698,7 @@
       <c r="B200" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C200" s="31"/>
+      <c r="C200" s="17"/>
     </row>
     <row r="201" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="15" t="s">
@@ -4695,7 +4707,7 @@
       <c r="B201" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="31"/>
+      <c r="C201" s="17"/>
     </row>
     <row r="202" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="15" t="s">
@@ -4704,19 +4716,19 @@
       <c r="B202" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C202" s="31" t="s">
+      <c r="C202" s="17" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="30"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="30"/>
-      <c r="B204" s="30"/>
-      <c r="C204" s="30"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
     </row>
     <row r="205" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="11" t="s">
@@ -4725,7 +4737,7 @@
       <c r="B205" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C205" s="31" t="s">
+      <c r="C205" s="17" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4736,7 +4748,7 @@
       <c r="B206" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C206" s="31" t="s">
+      <c r="C206" s="17" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4747,7 +4759,7 @@
       <c r="B207" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C207" s="31" t="s">
+      <c r="C207" s="17" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4758,7 +4770,7 @@
       <c r="B208" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="17" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4769,7 +4781,7 @@
       <c r="B209" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C209" s="31" t="s">
+      <c r="C209" s="17" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4780,7 +4792,7 @@
       <c r="B210" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C210" s="31" t="s">
+      <c r="C210" s="17" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4791,7 +4803,7 @@
       <c r="B211" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C211" s="31" t="s">
+      <c r="C211" s="17" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4802,7 +4814,7 @@
       <c r="B212" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C212" s="31" t="s">
+      <c r="C212" s="17" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4813,7 +4825,7 @@
       <c r="B213" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C213" s="31" t="s">
+      <c r="C213" s="17" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4824,7 +4836,7 @@
       <c r="B214" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C214" s="31" t="s">
+      <c r="C214" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4835,7 +4847,7 @@
       <c r="B215" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C215" s="31" t="s">
+      <c r="C215" s="17" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4846,7 +4858,7 @@
       <c r="B216" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C216" s="31" t="s">
+      <c r="C216" s="17" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4857,7 +4869,7 @@
       <c r="B217" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C217" s="31" t="s">
+      <c r="C217" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4868,7 +4880,7 @@
       <c r="B218" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C218" s="31" t="s">
+      <c r="C218" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4879,7 +4891,7 @@
       <c r="B219" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C219" s="31" t="s">
+      <c r="C219" s="17" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4890,7 +4902,7 @@
       <c r="B220" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C220" s="31" t="s">
+      <c r="C220" s="17" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4901,7 +4913,7 @@
       <c r="B221" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C221" s="31" t="s">
+      <c r="C221" s="17" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4912,7 +4924,7 @@
       <c r="B222" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C222" s="31" t="s">
+      <c r="C222" s="17" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4923,7 +4935,7 @@
       <c r="B223" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C223" s="31" t="s">
+      <c r="C223" s="17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4934,7 +4946,7 @@
       <c r="B224" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C224" s="31" t="s">
+      <c r="C224" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4945,7 +4957,7 @@
       <c r="B225" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C225" s="31" t="s">
+      <c r="C225" s="17" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4956,7 +4968,7 @@
       <c r="B226" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C226" s="31" t="s">
+      <c r="C226" s="17" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4967,7 +4979,7 @@
       <c r="B227" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C227" s="31" t="s">
+      <c r="C227" s="17" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4978,7 +4990,7 @@
       <c r="B228" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C228" s="31" t="s">
+      <c r="C228" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4989,7 +5001,7 @@
       <c r="B229" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C229" s="31" t="s">
+      <c r="C229" s="17" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5000,7 +5012,7 @@
       <c r="B230" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C230" s="31" t="s">
+      <c r="C230" s="17" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5011,7 +5023,7 @@
       <c r="B231" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C231" s="31" t="s">
+      <c r="C231" s="17" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5022,7 +5034,7 @@
       <c r="B232" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C232" s="31" t="s">
+      <c r="C232" s="17" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5033,7 +5045,7 @@
       <c r="B233" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C233" s="31" t="s">
+      <c r="C233" s="17" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5044,7 +5056,7 @@
       <c r="B234" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C234" s="31" t="s">
+      <c r="C234" s="17" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5055,7 +5067,7 @@
       <c r="B235" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C235" s="31" t="s">
+      <c r="C235" s="17" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5066,7 +5078,7 @@
       <c r="B236" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C236" s="31" t="s">
+      <c r="C236" s="17" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5077,19 +5089,19 @@
       <c r="B237" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C237" s="31" t="s">
+      <c r="C237" s="17" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="30"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="30"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="30"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="30"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
     </row>
     <row r="240" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="11" t="s">
@@ -5098,7 +5110,7 @@
       <c r="B240" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C240" s="31" t="s">
+      <c r="C240" s="17" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5109,7 +5121,7 @@
       <c r="B241" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C241" s="31" t="s">
+      <c r="C241" s="17" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5120,7 +5132,7 @@
       <c r="B242" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C242" s="31" t="s">
+      <c r="C242" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5131,7 +5143,7 @@
       <c r="B243" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="C243" s="31" t="s">
+      <c r="C243" s="17" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5142,7 +5154,7 @@
       <c r="B244" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C244" s="31" t="s">
+      <c r="C244" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5153,7 +5165,7 @@
       <c r="B245" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C245" s="31" t="s">
+      <c r="C245" s="17" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5164,7 +5176,7 @@
       <c r="B246" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C246" s="31" t="s">
+      <c r="C246" s="17" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5175,7 +5187,7 @@
       <c r="B247" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C247" s="31" t="s">
+      <c r="C247" s="17" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5186,7 +5198,7 @@
       <c r="B248" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C248" s="31" t="s">
+      <c r="C248" s="17" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5197,7 +5209,7 @@
       <c r="B249" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C249" s="31" t="s">
+      <c r="C249" s="17" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5208,7 +5220,7 @@
       <c r="B250" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C250" s="31" t="s">
+      <c r="C250" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5219,7 +5231,7 @@
       <c r="B251" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C251" s="31" t="s">
+      <c r="C251" s="17" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5230,7 +5242,7 @@
       <c r="B252" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C252" s="31" t="s">
+      <c r="C252" s="17" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5241,7 +5253,7 @@
       <c r="B253" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="17" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5252,7 +5264,7 @@
       <c r="B254" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C254" s="31" t="s">
+      <c r="C254" s="17" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5263,7 +5275,7 @@
       <c r="B255" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C255" s="31" t="s">
+      <c r="C255" s="17" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5274,7 +5286,7 @@
       <c r="B256" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="C256" s="31" t="s">
+      <c r="C256" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5285,7 +5297,7 @@
       <c r="B257" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C257" s="31" t="s">
+      <c r="C257" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5296,7 +5308,7 @@
       <c r="B258" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C258" s="31" t="s">
+      <c r="C258" s="17" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5307,7 +5319,7 @@
       <c r="B259" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C259" s="31" t="s">
+      <c r="C259" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5318,19 +5330,19 @@
       <c r="B260" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C260" s="31" t="s">
+      <c r="C260" s="17" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="30"/>
-      <c r="B261" s="30"/>
-      <c r="C261" s="30"/>
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
     </row>
     <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="30"/>
-      <c r="B262" s="30"/>
-      <c r="C262" s="30"/>
+      <c r="A262" s="16"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
     </row>
     <row r="263" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="13" t="s">
@@ -5339,7 +5351,7 @@
       <c r="B263" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C263" s="31"/>
+      <c r="C263" s="17"/>
     </row>
     <row r="264" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="13" t="s">
@@ -5348,7 +5360,7 @@
       <c r="B264" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C264" s="31" t="s">
+      <c r="C264" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5359,7 +5371,7 @@
       <c r="B265" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5370,7 +5382,7 @@
       <c r="B266" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C266" s="31" t="s">
+      <c r="C266" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5381,7 +5393,7 @@
       <c r="B267" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C267" s="31" t="s">
+      <c r="C267" s="17" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5392,7 +5404,7 @@
       <c r="B268" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C268" s="31" t="s">
+      <c r="C268" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5403,7 +5415,7 @@
       <c r="B269" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C269" s="31" t="s">
+      <c r="C269" s="17" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5414,7 +5426,7 @@
       <c r="B270" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C270" s="31" t="s">
+      <c r="C270" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5425,7 +5437,7 @@
       <c r="B271" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="C271" s="31" t="s">
+      <c r="C271" s="17" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5436,7 +5448,7 @@
       <c r="B272" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="18" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5447,7 +5459,7 @@
       <c r="B273" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C273" s="31" t="s">
+      <c r="C273" s="17" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5458,7 +5470,7 @@
       <c r="B274" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C274" s="31" t="s">
+      <c r="C274" s="17" t="s">
         <v>429</v>
       </c>
     </row>
@@ -5469,7 +5481,7 @@
       <c r="B275" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C275" s="31" t="s">
+      <c r="C275" s="17" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5480,7 +5492,7 @@
       <c r="B276" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="C276" s="31" t="s">
+      <c r="C276" s="17" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5491,7 +5503,7 @@
       <c r="B277" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="C277" s="31" t="s">
+      <c r="C277" s="17" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5502,7 +5514,7 @@
       <c r="B278" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C278" s="31" t="s">
+      <c r="C278" s="17" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5513,7 +5525,7 @@
       <c r="B279" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C279" s="31" t="s">
+      <c r="C279" s="17" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5524,7 +5536,7 @@
       <c r="B280" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C280" s="31" t="s">
+      <c r="C280" s="17" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5535,7 +5547,7 @@
       <c r="B281" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C281" s="31" t="s">
+      <c r="C281" s="17" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5546,7 +5558,7 @@
       <c r="B282" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="C282" s="31" t="s">
+      <c r="C282" s="17" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5557,7 +5569,7 @@
       <c r="B283" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="17" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5568,7 +5580,7 @@
       <c r="B284" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="17" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5579,7 +5591,7 @@
       <c r="B285" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="C285" s="31" t="s">
+      <c r="C285" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5590,7 +5602,7 @@
       <c r="B286" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="C286" s="31" t="s">
+      <c r="C286" s="17" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5601,7 +5613,7 @@
       <c r="B287" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C287" s="31" t="s">
+      <c r="C287" s="17" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5612,7 +5624,7 @@
       <c r="B288" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="C288" s="31" t="s">
+      <c r="C288" s="17" t="s">
         <v>431</v>
       </c>
     </row>
@@ -5623,7 +5635,7 @@
       <c r="B289" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C289" s="31" t="s">
+      <c r="C289" s="17" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5634,19 +5646,19 @@
       <c r="B290" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C290" s="31" t="s">
+      <c r="C290" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="30"/>
-      <c r="B291" s="30"/>
-      <c r="C291" s="30"/>
+      <c r="A291" s="16"/>
+      <c r="B291" s="16"/>
+      <c r="C291" s="16"/>
     </row>
     <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="30"/>
-      <c r="B292" s="30"/>
-      <c r="C292" s="30"/>
+      <c r="A292" s="16"/>
+      <c r="B292" s="16"/>
+      <c r="C292" s="16"/>
     </row>
     <row r="293" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="11" t="s">
@@ -5655,7 +5667,7 @@
       <c r="B293" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C293" s="31" t="s">
+      <c r="C293" s="17" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5666,7 +5678,7 @@
       <c r="B294" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C294" s="31" t="s">
+      <c r="C294" s="17" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5677,7 +5689,7 @@
       <c r="B295" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C295" s="31" t="s">
+      <c r="C295" s="17" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5688,7 +5700,7 @@
       <c r="B296" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C296" s="31" t="s">
+      <c r="C296" s="17" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5699,7 +5711,7 @@
       <c r="B297" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="C297" s="31" t="s">
+      <c r="C297" s="17" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5710,7 +5722,7 @@
       <c r="B298" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="C298" s="31" t="s">
+      <c r="C298" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5721,7 +5733,7 @@
       <c r="B299" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C299" s="31" t="s">
+      <c r="C299" s="17" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5732,7 +5744,7 @@
       <c r="B300" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C300" s="31" t="s">
+      <c r="C300" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5743,7 +5755,7 @@
       <c r="B301" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C301" s="31" t="s">
+      <c r="C301" s="17" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5754,7 +5766,7 @@
       <c r="B302" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C302" s="31" t="s">
+      <c r="C302" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5765,7 +5777,7 @@
       <c r="B303" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C303" s="31" t="s">
+      <c r="C303" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5776,7 +5788,7 @@
       <c r="B304" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C304" s="31" t="s">
+      <c r="C304" s="17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5787,7 +5799,7 @@
       <c r="B305" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="17" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5798,7 +5810,7 @@
       <c r="B306" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C306" s="31" t="s">
+      <c r="C306" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5809,7 +5821,7 @@
       <c r="B307" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C307" s="31" t="s">
+      <c r="C307" s="17" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5820,7 +5832,7 @@
       <c r="B308" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="C308" s="31" t="s">
+      <c r="C308" s="17" t="s">
         <v>481</v>
       </c>
     </row>
@@ -5831,7 +5843,7 @@
       <c r="B309" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C309" s="31" t="s">
+      <c r="C309" s="17" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5842,7 +5854,7 @@
       <c r="B310" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="C310" s="31" t="s">
+      <c r="C310" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5853,7 +5865,7 @@
       <c r="B311" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C311" s="31" t="s">
+      <c r="C311" s="17" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5864,7 +5876,7 @@
       <c r="B312" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="C312" s="31" t="s">
+      <c r="C312" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5875,7 +5887,7 @@
       <c r="B313" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C313" s="31" t="s">
+      <c r="C313" s="17" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5886,7 +5898,7 @@
       <c r="B314" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="C314" s="31" t="s">
+      <c r="C314" s="17" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5897,7 +5909,7 @@
       <c r="B315" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C315" s="31" t="s">
+      <c r="C315" s="17" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5908,7 +5920,7 @@
       <c r="B316" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="C316" s="31" t="s">
+      <c r="C316" s="17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5919,7 +5931,7 @@
       <c r="B317" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C317" s="31" t="s">
+      <c r="C317" s="17" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5930,7 +5942,7 @@
       <c r="B318" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C318" s="31" t="s">
+      <c r="C318" s="17" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5941,7 +5953,7 @@
       <c r="B319" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C319" s="31" t="s">
+      <c r="C319" s="17" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5952,7 +5964,7 @@
       <c r="B320" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="C320" s="31" t="s">
+      <c r="C320" s="17" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5963,7 +5975,7 @@
       <c r="B321" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="C321" s="31" t="s">
+      <c r="C321" s="17" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5974,7 +5986,7 @@
       <c r="B322" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C322" s="31" t="s">
+      <c r="C322" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5985,7 +5997,7 @@
       <c r="B323" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="C323" s="31" t="s">
+      <c r="C323" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5996,7 +6008,7 @@
       <c r="B324" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C324" s="31" t="s">
+      <c r="C324" s="17" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6007,7 +6019,7 @@
       <c r="B325" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C325" s="31" t="s">
+      <c r="C325" s="17" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6018,7 +6030,7 @@
       <c r="B326" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C326" s="31" t="s">
+      <c r="C326" s="17" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6029,7 +6041,7 @@
       <c r="B327" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C327" s="31" t="s">
+      <c r="C327" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6040,7 +6052,7 @@
       <c r="B328" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="C328" s="31" t="s">
+      <c r="C328" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6051,7 +6063,7 @@
       <c r="B329" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C329" s="31" t="s">
+      <c r="C329" s="17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6062,7 +6074,7 @@
       <c r="B330" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="C330" s="17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6073,7 +6085,7 @@
       <c r="B331" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="C331" s="17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6084,28 +6096,28 @@
       <c r="B332" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C332" s="31" t="s">
+      <c r="C332" s="17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A333" s="30"/>
-      <c r="B333" s="30"/>
-      <c r="C333" s="30"/>
+      <c r="A333" s="16"/>
+      <c r="B333" s="16"/>
+      <c r="C333" s="16"/>
     </row>
     <row r="334" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A334" s="30"/>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
+      <c r="A334" s="16"/>
+      <c r="B334" s="16"/>
+      <c r="C334" s="16"/>
     </row>
     <row r="335" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B335" s="35" t="s">
+      <c r="B335" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C335" s="31" t="s">
+      <c r="C335" s="17" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6113,10 +6125,10 @@
       <c r="A336" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B336" s="35" t="s">
+      <c r="B336" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C336" s="31" t="s">
+      <c r="C336" s="17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6124,10 +6136,10 @@
       <c r="A337" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B337" s="35" t="s">
+      <c r="B337" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="C337" s="31" t="s">
+      <c r="C337" s="17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6135,10 +6147,10 @@
       <c r="A338" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B338" s="35" t="s">
+      <c r="B338" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C338" s="31" t="s">
+      <c r="C338" s="17" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6146,10 +6158,10 @@
       <c r="A339" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B339" s="35" t="s">
+      <c r="B339" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="C339" s="31" t="s">
+      <c r="C339" s="17" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6157,22 +6169,22 @@
       <c r="A340" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B340" s="35" t="s">
+      <c r="B340" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C340" s="31" t="s">
+      <c r="C340" s="17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="30"/>
-      <c r="B341" s="30"/>
-      <c r="C341" s="30"/>
+      <c r="A341" s="16"/>
+      <c r="B341" s="16"/>
+      <c r="C341" s="16"/>
     </row>
     <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A342" s="30"/>
-      <c r="B342" s="30"/>
-      <c r="C342" s="30"/>
+      <c r="A342" s="16"/>
+      <c r="B342" s="16"/>
+      <c r="C342" s="16"/>
     </row>
     <row r="343" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="11" t="s">
@@ -6181,7 +6193,7 @@
       <c r="B343" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C343" s="31" t="s">
+      <c r="C343" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6192,7 +6204,7 @@
       <c r="B344" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="C344" s="31" t="s">
+      <c r="C344" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6203,7 +6215,7 @@
       <c r="B345" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C345" s="31" t="s">
+      <c r="C345" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6214,7 +6226,7 @@
       <c r="B346" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C346" s="31" t="s">
+      <c r="C346" s="17" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6225,7 +6237,7 @@
       <c r="B347" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C347" s="31" t="s">
+      <c r="C347" s="17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6236,7 +6248,7 @@
       <c r="B348" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C348" s="31" t="s">
+      <c r="C348" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6247,7 +6259,7 @@
       <c r="B349" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="C349" s="31" t="s">
+      <c r="C349" s="17" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6258,7 +6270,7 @@
       <c r="B350" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C350" s="31" t="s">
+      <c r="C350" s="17" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6269,7 +6281,7 @@
       <c r="B351" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="C351" s="31" t="s">
+      <c r="C351" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6280,7 +6292,7 @@
       <c r="B352" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C352" s="31" t="s">
+      <c r="C352" s="17" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6291,7 +6303,7 @@
       <c r="B353" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C353" s="31" t="s">
+      <c r="C353" s="17" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6302,7 +6314,7 @@
       <c r="B354" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C354" s="31" t="s">
+      <c r="C354" s="17" t="s">
         <v>545</v>
       </c>
     </row>
@@ -6313,7 +6325,7 @@
       <c r="B355" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C355" s="31" t="s">
+      <c r="C355" s="17" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6324,7 +6336,7 @@
       <c r="B356" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C356" s="31" t="s">
+      <c r="C356" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6335,7 +6347,7 @@
       <c r="B357" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C357" s="31" t="s">
+      <c r="C357" s="17" t="s">
         <v>550</v>
       </c>
     </row>
@@ -6346,7 +6358,7 @@
       <c r="B358" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C358" s="31" t="s">
+      <c r="C358" s="17" t="s">
         <v>552</v>
       </c>
     </row>
@@ -6357,7 +6369,7 @@
       <c r="B359" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="C359" s="31" t="s">
+      <c r="C359" s="17" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6368,7 +6380,7 @@
       <c r="B360" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C360" s="31" t="s">
+      <c r="C360" s="17" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6379,7 +6391,7 @@
       <c r="B361" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C361" s="31" t="s">
+      <c r="C361" s="17" t="s">
         <v>558</v>
       </c>
     </row>
@@ -6390,7 +6402,7 @@
       <c r="B362" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C362" s="31" t="s">
+      <c r="C362" s="17" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6401,7 +6413,7 @@
       <c r="B363" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C363" s="31" t="s">
+      <c r="C363" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6412,7 +6424,7 @@
       <c r="B364" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C364" s="31" t="s">
+      <c r="C364" s="17" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6423,7 +6435,7 @@
       <c r="B365" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C365" s="31" t="s">
+      <c r="C365" s="17" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6434,7 +6446,7 @@
       <c r="B366" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C366" s="31" t="s">
+      <c r="C366" s="17" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6445,7 +6457,7 @@
       <c r="B367" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C367" s="31" t="s">
+      <c r="C367" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6456,7 +6468,7 @@
       <c r="B368" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="C368" s="31" t="s">
+      <c r="C368" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6467,7 +6479,7 @@
       <c r="B369" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C369" s="31" t="s">
+      <c r="C369" s="17" t="s">
         <v>569</v>
       </c>
     </row>
@@ -6478,7 +6490,7 @@
       <c r="B370" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C370" s="31" t="s">
+      <c r="C370" s="17" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6489,7 +6501,7 @@
       <c r="B371" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C371" s="31" t="s">
+      <c r="C371" s="17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6500,7 +6512,7 @@
       <c r="B372" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C372" s="31" t="s">
+      <c r="C372" s="17" t="s">
         <v>571</v>
       </c>
     </row>
@@ -6511,7 +6523,7 @@
       <c r="B373" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C373" s="31" t="s">
+      <c r="C373" s="17" t="s">
         <v>575</v>
       </c>
     </row>
@@ -6522,7 +6534,7 @@
       <c r="B374" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="C374" s="31" t="s">
+      <c r="C374" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6533,7 +6545,7 @@
       <c r="B375" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C375" s="31" t="s">
+      <c r="C375" s="17" t="s">
         <v>578</v>
       </c>
     </row>
@@ -6544,7 +6556,7 @@
       <c r="B376" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C376" s="31" t="s">
+      <c r="C376" s="17" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6555,7 +6567,7 @@
       <c r="B377" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C377" s="31" t="s">
+      <c r="C377" s="17" t="s">
         <v>582</v>
       </c>
     </row>
@@ -6566,7 +6578,7 @@
       <c r="B378" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C378" s="31" t="s">
+      <c r="C378" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6577,7 +6589,7 @@
       <c r="B379" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C379" s="31" t="s">
+      <c r="C379" s="17" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6588,7 +6600,7 @@
       <c r="B380" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C380" s="31" t="s">
+      <c r="C380" s="17" t="s">
         <v>586</v>
       </c>
     </row>
@@ -6599,7 +6611,7 @@
       <c r="B381" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C381" s="31" t="s">
+      <c r="C381" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6610,7 +6622,7 @@
       <c r="B382" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="C382" s="31" t="s">
+      <c r="C382" s="17" t="s">
         <v>589</v>
       </c>
     </row>
@@ -6621,7 +6633,7 @@
       <c r="B383" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C383" s="31" t="s">
+      <c r="C383" s="17" t="s">
         <v>590</v>
       </c>
     </row>
@@ -6632,7 +6644,7 @@
       <c r="B384" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="C384" s="31" t="s">
+      <c r="C384" s="17" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6643,7 +6655,7 @@
       <c r="B385" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C385" s="31" t="s">
+      <c r="C385" s="17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6654,7 +6666,7 @@
       <c r="B386" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C386" s="31" t="s">
+      <c r="C386" s="17" t="s">
         <v>594</v>
       </c>
     </row>
@@ -6665,7 +6677,7 @@
       <c r="B387" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C387" s="31" t="s">
+      <c r="C387" s="17" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6676,7 +6688,7 @@
       <c r="B388" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C388" s="31" t="s">
+      <c r="C388" s="17" t="s">
         <v>597</v>
       </c>
     </row>
@@ -6687,7 +6699,7 @@
       <c r="B389" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C389" s="31" t="s">
+      <c r="C389" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6698,7 +6710,7 @@
       <c r="B390" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="C390" s="31" t="s">
+      <c r="C390" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6709,7 +6721,7 @@
       <c r="B391" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C391" s="31" t="s">
+      <c r="C391" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6720,7 +6732,7 @@
       <c r="B392" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="C392" s="31" t="s">
+      <c r="C392" s="17" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6731,7 +6743,7 @@
       <c r="B393" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="C393" s="31" t="s">
+      <c r="C393" s="17" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6742,7 +6754,7 @@
       <c r="B394" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C394" s="31" t="s">
+      <c r="C394" s="17" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6753,7 +6765,7 @@
       <c r="B395" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="C395" s="31" t="s">
+      <c r="C395" s="17" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6764,28 +6776,28 @@
       <c r="B396" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C396" s="31" t="s">
+      <c r="C396" s="17" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A397" s="30"/>
-      <c r="B397" s="30"/>
-      <c r="C397" s="30"/>
+      <c r="A397" s="16"/>
+      <c r="B397" s="16"/>
+      <c r="C397" s="16"/>
     </row>
     <row r="398" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="30"/>
-      <c r="B398" s="30"/>
-      <c r="C398" s="30"/>
+      <c r="A398" s="16"/>
+      <c r="B398" s="16"/>
+      <c r="C398" s="16"/>
     </row>
     <row r="399" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B399" s="35" t="s">
+      <c r="B399" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C399" s="31" t="s">
+      <c r="C399" s="17" t="s">
         <v>609</v>
       </c>
     </row>
@@ -6793,10 +6805,10 @@
       <c r="A400" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B400" s="35" t="s">
+      <c r="B400" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C400" s="31" t="s">
+      <c r="C400" s="17" t="s">
         <v>611</v>
       </c>
     </row>
@@ -6804,10 +6816,10 @@
       <c r="A401" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B401" s="35" t="s">
+      <c r="B401" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="C401" s="31" t="s">
+      <c r="C401" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6815,10 +6827,10 @@
       <c r="A402" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B402" s="35" t="s">
+      <c r="B402" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="C402" s="31" t="s">
+      <c r="C402" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6826,10 +6838,10 @@
       <c r="A403" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B403" s="35" t="s">
+      <c r="B403" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C403" s="31" t="s">
+      <c r="C403" s="17" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6837,10 +6849,10 @@
       <c r="A404" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="B404" s="35" t="s">
+      <c r="B404" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="C404" s="31" t="s">
+      <c r="C404" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6848,10 +6860,10 @@
       <c r="A405" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="B405" s="35" t="s">
+      <c r="B405" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="C405" s="31" t="s">
+      <c r="C405" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6859,10 +6871,10 @@
       <c r="A406" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="B406" s="35" t="s">
+      <c r="B406" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="C406" s="31" t="s">
+      <c r="C406" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6870,10 +6882,10 @@
       <c r="A407" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="B407" s="35" t="s">
+      <c r="B407" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="C407" s="31" t="s">
+      <c r="C407" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6881,22 +6893,22 @@
       <c r="A408" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="B408" s="35" t="s">
+      <c r="B408" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="C408" s="31" t="s">
+      <c r="C408" s="17" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="30"/>
-      <c r="B409" s="30"/>
-      <c r="C409" s="30"/>
+      <c r="A409" s="16"/>
+      <c r="B409" s="16"/>
+      <c r="C409" s="16"/>
     </row>
     <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="30"/>
-      <c r="B410" s="30"/>
-      <c r="C410" s="30"/>
+      <c r="A410" s="16"/>
+      <c r="B410" s="16"/>
+      <c r="C410" s="16"/>
     </row>
     <row r="411" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="13" t="s">
@@ -6905,7 +6917,7 @@
       <c r="B411" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C411" s="31"/>
+      <c r="C411" s="17"/>
     </row>
     <row r="412" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="13" t="s">
@@ -6914,7 +6926,7 @@
       <c r="B412" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="C412" s="31" t="s">
+      <c r="C412" s="17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6925,7 +6937,7 @@
       <c r="B413" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="C413" s="31" t="s">
+      <c r="C413" s="17" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6936,7 +6948,7 @@
       <c r="B414" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="C414" s="31" t="s">
+      <c r="C414" s="17" t="s">
         <v>628</v>
       </c>
     </row>
@@ -6947,7 +6959,7 @@
       <c r="B415" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="C415" s="31" t="s">
+      <c r="C415" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6958,339 +6970,344 @@
       <c r="B416" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C416" s="31" t="s">
+      <c r="C416" s="17" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="30"/>
-      <c r="B417" s="30"/>
-      <c r="C417" s="30"/>
+      <c r="A417" s="16"/>
+      <c r="B417" s="16"/>
+      <c r="C417" s="16"/>
     </row>
     <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="30"/>
-      <c r="B418" s="30"/>
-      <c r="C418" s="30"/>
+      <c r="A418" s="16"/>
+      <c r="B418" s="16"/>
+      <c r="C418" s="16"/>
     </row>
     <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="30"/>
-      <c r="B419" s="30"/>
-      <c r="C419" s="30"/>
+      <c r="A419" s="16"/>
+      <c r="B419" s="16"/>
+      <c r="C419" s="16"/>
     </row>
     <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="30"/>
-      <c r="B420" s="30"/>
-      <c r="C420" s="30"/>
+      <c r="A420" s="16"/>
+      <c r="B420" s="16"/>
+      <c r="C420" s="16"/>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A421" s="36"/>
-      <c r="B421" s="36"/>
-      <c r="C421" s="36"/>
+      <c r="A421" s="22"/>
+      <c r="B421" s="22"/>
+      <c r="C421" s="22"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A422" s="36"/>
-      <c r="B422" s="36"/>
-      <c r="C422" s="36"/>
+      <c r="A422" s="22"/>
+      <c r="B422" s="22"/>
+      <c r="C422" s="22"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A423" s="36"/>
-      <c r="B423" s="36"/>
-      <c r="C423" s="36"/>
+      <c r="A423" s="22"/>
+      <c r="B423" s="22"/>
+      <c r="C423" s="22"/>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A424" s="36"/>
-      <c r="B424" s="36"/>
-      <c r="C424" s="36"/>
+      <c r="A424" s="22"/>
+      <c r="B424" s="22"/>
+      <c r="C424" s="22"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A425" s="36"/>
-      <c r="B425" s="36"/>
-      <c r="C425" s="36"/>
+      <c r="A425" s="22"/>
+      <c r="B425" s="22"/>
+      <c r="C425" s="22"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A426" s="36"/>
-      <c r="B426" s="36"/>
-      <c r="C426" s="36"/>
+      <c r="A426" s="22"/>
+      <c r="B426" s="22"/>
+      <c r="C426" s="22"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A427" s="36"/>
-      <c r="B427" s="36"/>
-      <c r="C427" s="36"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
+      <c r="C427" s="22"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A428" s="36"/>
-      <c r="B428" s="36"/>
-      <c r="C428" s="36"/>
+      <c r="A428" s="22"/>
+      <c r="B428" s="22"/>
+      <c r="C428" s="22"/>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A429" s="36"/>
-      <c r="B429" s="36"/>
-      <c r="C429" s="36"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A430" s="36"/>
-      <c r="B430" s="36"/>
-      <c r="C430" s="36"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A431" s="36"/>
-      <c r="B431" s="36"/>
-      <c r="C431" s="36"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
+      <c r="C431" s="22"/>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A432" s="36"/>
-      <c r="B432" s="36"/>
-      <c r="C432" s="36"/>
+      <c r="A432" s="22"/>
+      <c r="B432" s="22"/>
+      <c r="C432" s="22"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A433" s="36"/>
-      <c r="B433" s="36"/>
-      <c r="C433" s="36"/>
+      <c r="A433" s="22"/>
+      <c r="B433" s="22"/>
+      <c r="C433" s="22"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A434" s="36"/>
-      <c r="B434" s="36"/>
-      <c r="C434" s="36"/>
+      <c r="A434" s="22"/>
+      <c r="B434" s="22"/>
+      <c r="C434" s="22"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A435" s="36"/>
-      <c r="B435" s="36"/>
-      <c r="C435" s="36"/>
+      <c r="A435" s="22"/>
+      <c r="B435" s="22"/>
+      <c r="C435" s="22"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A436" s="36"/>
-      <c r="B436" s="36"/>
-      <c r="C436" s="36"/>
+      <c r="A436" s="22"/>
+      <c r="B436" s="22"/>
+      <c r="C436" s="22"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A437" s="36"/>
-      <c r="B437" s="36"/>
-      <c r="C437" s="36"/>
+      <c r="A437" s="22"/>
+      <c r="B437" s="22"/>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A438" s="36"/>
-      <c r="B438" s="36"/>
-      <c r="C438" s="36"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="22"/>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A439" s="36"/>
-      <c r="B439" s="36"/>
-      <c r="C439" s="36"/>
+      <c r="A439" s="22"/>
+      <c r="B439" s="22"/>
+      <c r="C439" s="22"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A440" s="36"/>
-      <c r="B440" s="36"/>
-      <c r="C440" s="36"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
+      <c r="C440" s="22"/>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A441" s="36"/>
-      <c r="B441" s="36"/>
-      <c r="C441" s="36"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A442" s="36"/>
-      <c r="B442" s="36"/>
-      <c r="C442" s="36"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A443" s="36"/>
-      <c r="B443" s="36"/>
-      <c r="C443" s="36"/>
+      <c r="A443" s="22"/>
+      <c r="B443" s="22"/>
+      <c r="C443" s="22"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A444" s="36"/>
-      <c r="B444" s="36"/>
-      <c r="C444" s="36"/>
+      <c r="A444" s="22"/>
+      <c r="B444" s="22"/>
+      <c r="C444" s="22"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A445" s="36"/>
-      <c r="B445" s="36"/>
-      <c r="C445" s="36"/>
+      <c r="A445" s="22"/>
+      <c r="B445" s="22"/>
+      <c r="C445" s="22"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A446" s="36"/>
-      <c r="B446" s="36"/>
-      <c r="C446" s="36"/>
+      <c r="A446" s="22"/>
+      <c r="B446" s="22"/>
+      <c r="C446" s="22"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A447" s="36"/>
-      <c r="B447" s="36"/>
-      <c r="C447" s="36"/>
+      <c r="A447" s="22"/>
+      <c r="B447" s="22"/>
+      <c r="C447" s="22"/>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A448" s="36"/>
-      <c r="B448" s="36"/>
-      <c r="C448" s="36"/>
+      <c r="A448" s="22"/>
+      <c r="B448" s="22"/>
+      <c r="C448" s="22"/>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A449" s="36"/>
-      <c r="B449" s="36"/>
-      <c r="C449" s="36"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="22"/>
+      <c r="C449" s="22"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A450" s="36"/>
-      <c r="B450" s="36"/>
-      <c r="C450" s="36"/>
+      <c r="A450" s="22"/>
+      <c r="B450" s="22"/>
+      <c r="C450" s="22"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A451" s="36"/>
-      <c r="B451" s="36"/>
-      <c r="C451" s="36"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
+      <c r="C451" s="22"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A452" s="36"/>
-      <c r="B452" s="36"/>
-      <c r="C452" s="36"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A453" s="36"/>
-      <c r="B453" s="36"/>
-      <c r="C453" s="36"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A454" s="36"/>
-      <c r="B454" s="36"/>
-      <c r="C454" s="36"/>
+      <c r="A454" s="22"/>
+      <c r="B454" s="22"/>
+      <c r="C454" s="22"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A455" s="36"/>
-      <c r="B455" s="36"/>
-      <c r="C455" s="36"/>
+      <c r="A455" s="22"/>
+      <c r="B455" s="22"/>
+      <c r="C455" s="22"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A456" s="36"/>
-      <c r="B456" s="36"/>
-      <c r="C456" s="36"/>
+      <c r="A456" s="22"/>
+      <c r="B456" s="22"/>
+      <c r="C456" s="22"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A457" s="36"/>
-      <c r="B457" s="36"/>
-      <c r="C457" s="36"/>
+      <c r="A457" s="22"/>
+      <c r="B457" s="22"/>
+      <c r="C457" s="22"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A458" s="36"/>
-      <c r="B458" s="36"/>
-      <c r="C458" s="36"/>
+      <c r="A458" s="22"/>
+      <c r="B458" s="22"/>
+      <c r="C458" s="22"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A459" s="36"/>
-      <c r="B459" s="36"/>
-      <c r="C459" s="36"/>
+      <c r="A459" s="22"/>
+      <c r="B459" s="22"/>
+      <c r="C459" s="22"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A460" s="36"/>
-      <c r="B460" s="36"/>
-      <c r="C460" s="36"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="22"/>
+      <c r="C460" s="22"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A461" s="36"/>
-      <c r="B461" s="36"/>
-      <c r="C461" s="36"/>
+      <c r="A461" s="22"/>
+      <c r="B461" s="22"/>
+      <c r="C461" s="22"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A462" s="36"/>
-      <c r="B462" s="36"/>
-      <c r="C462" s="36"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A463" s="36"/>
-      <c r="B463" s="36"/>
-      <c r="C463" s="36"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
+      <c r="C463" s="22"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A464" s="36"/>
-      <c r="B464" s="36"/>
-      <c r="C464" s="36"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
+      <c r="C464" s="22"/>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A465" s="36"/>
-      <c r="B465" s="36"/>
-      <c r="C465" s="36"/>
+      <c r="A465" s="22"/>
+      <c r="B465" s="22"/>
+      <c r="C465" s="22"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A466" s="36"/>
-      <c r="B466" s="36"/>
-      <c r="C466" s="36"/>
+      <c r="A466" s="22"/>
+      <c r="B466" s="22"/>
+      <c r="C466" s="22"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A467" s="36"/>
-      <c r="B467" s="36"/>
-      <c r="C467" s="36"/>
+      <c r="A467" s="22"/>
+      <c r="B467" s="22"/>
+      <c r="C467" s="22"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A468" s="36"/>
-      <c r="B468" s="36"/>
-      <c r="C468" s="36"/>
+      <c r="A468" s="22"/>
+      <c r="B468" s="22"/>
+      <c r="C468" s="22"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A469" s="36"/>
-      <c r="B469" s="36"/>
-      <c r="C469" s="36"/>
+      <c r="A469" s="22"/>
+      <c r="B469" s="22"/>
+      <c r="C469" s="22"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A470" s="36"/>
-      <c r="B470" s="36"/>
-      <c r="C470" s="36"/>
+      <c r="A470" s="22"/>
+      <c r="B470" s="22"/>
+      <c r="C470" s="22"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A471" s="36"/>
-      <c r="B471" s="36"/>
-      <c r="C471" s="36"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="22"/>
+      <c r="C471" s="22"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A472" s="36"/>
-      <c r="B472" s="36"/>
-      <c r="C472" s="36"/>
+      <c r="A472" s="22"/>
+      <c r="B472" s="22"/>
+      <c r="C472" s="22"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A473" s="36"/>
-      <c r="B473" s="36"/>
-      <c r="C473" s="36"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
+      <c r="C473" s="22"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A474" s="36"/>
-      <c r="B474" s="36"/>
-      <c r="C474" s="36"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
+      <c r="C474" s="22"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A475" s="36"/>
-      <c r="B475" s="36"/>
-      <c r="C475" s="36"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
+      <c r="C475" s="22"/>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A476" s="36"/>
-      <c r="B476" s="36"/>
-      <c r="C476" s="36"/>
+      <c r="A476" s="22"/>
+      <c r="B476" s="22"/>
+      <c r="C476" s="22"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A477" s="36"/>
-      <c r="B477" s="36"/>
-      <c r="C477" s="36"/>
+      <c r="A477" s="22"/>
+      <c r="B477" s="22"/>
+      <c r="C477" s="22"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A478" s="36"/>
-      <c r="B478" s="36"/>
-      <c r="C478" s="36"/>
+      <c r="A478" s="22"/>
+      <c r="B478" s="22"/>
+      <c r="C478" s="22"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A479" s="36"/>
-      <c r="B479" s="36"/>
-      <c r="C479" s="36"/>
+      <c r="A479" s="22"/>
+      <c r="B479" s="22"/>
+      <c r="C479" s="22"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A480" s="36"/>
-      <c r="B480" s="36"/>
-      <c r="C480" s="36"/>
+      <c r="A480" s="22"/>
+      <c r="B480" s="22"/>
+      <c r="C480" s="22"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A481" s="36"/>
-      <c r="B481" s="36"/>
-      <c r="C481" s="36"/>
+      <c r="A481" s="22"/>
+      <c r="B481" s="22"/>
+      <c r="C481" s="22"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A482" s="36"/>
-      <c r="B482" s="36"/>
-      <c r="C482" s="36"/>
+      <c r="A482" s="22"/>
+      <c r="B482" s="22"/>
+      <c r="C482" s="22"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C488" t="s">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Dsa questions.xlsx
+++ b/Dsa questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708008A9-56CB-42D2-B15F-E1B295422642}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7588AF-5FC0-482A-8288-B26989691F05}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,7 +2228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2296,6 +2296,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2336,9 +2342,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2624,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2636,28 +2639,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -2681,7 +2684,7 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2692,7 +2695,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2727,7 +2730,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2738,7 +2741,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2749,7 +2752,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -2760,7 +2763,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -2771,7 +2774,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2782,7 +2785,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2793,7 +2796,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2804,7 +2807,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2815,7 +2818,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2826,7 +2829,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -3886,7 +3889,7 @@
       <c r="C123" s="16"/>
     </row>
     <row r="124" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="37" t="s">
+      <c r="A124" s="23" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -3897,7 +3900,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="23" t="s">
         <v>193</v>
       </c>
       <c r="B125" s="12" t="s">

--- a/Dsa questions.xlsx
+++ b/Dsa questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7588AF-5FC0-482A-8288-B26989691F05}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6740D03-B48D-40BA-AB03-6857D2C478EA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="636">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1924,13 +1924,22 @@
   </si>
   <si>
     <t>]|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Easy After solve</t>
+  </si>
+  <si>
+    <t>Medium after solve</t>
+  </si>
+  <si>
+    <t>Hard after solve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,8 +2015,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF434343"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2053,6 +2076,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,7 +2269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2296,12 +2337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,6 +2379,30 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2351,6 +2410,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2625,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2639,28 +2703,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -2684,7 +2748,7 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2695,389 +2759,371 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="24" t="s">
+    <row r="16" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="24" t="s">
+    <row r="17" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+    <row r="18" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+    <row r="19" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
+    <row r="20" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
+    <row r="26" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C26" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
+    <row r="27" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+    <row r="28" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+    <row r="29" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+    <row r="30" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+    <row r="31" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
+    <row r="32" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
+    <row r="33" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
+    <row r="34" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
+    <row r="35" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="13" t="s">
+    <row r="36" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>65</v>
-      </c>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3085,65 +3131,65 @@
         <v>58</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3151,10 +3197,10 @@
         <v>58</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3162,21 +3208,21 @@
         <v>58</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3184,10 +3230,10 @@
         <v>58</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3195,10 +3241,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3206,10 +3252,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3217,108 +3263,108 @@
         <v>58</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+    <row r="62" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="13" t="s">
-        <v>99</v>
+      <c r="A64" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="13" t="s">
-        <v>99</v>
+      <c r="A65" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>106</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3326,119 +3372,119 @@
         <v>99</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="15" t="s">
+    <row r="77" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-    </row>
-    <row r="76" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3446,54 +3492,54 @@
         <v>118</v>
       </c>
       <c r="B81" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C85" s="17" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3501,10 +3547,10 @@
         <v>118</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3512,32 +3558,32 @@
         <v>118</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3545,10 +3591,10 @@
         <v>118</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3556,54 +3602,54 @@
         <v>118</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3611,97 +3657,97 @@
         <v>118</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>159</v>
+      <c r="B98" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-    </row>
-    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
+    <row r="99" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>161</v>
+      <c r="A101" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="13" t="s">
-        <v>160</v>
+      <c r="A102" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>57</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
     </row>
     <row r="105" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3709,10 +3755,10 @@
         <v>160</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3720,85 +3766,87 @@
         <v>160</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C112" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3806,10 +3854,10 @@
         <v>160</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3817,21 +3865,19 @@
         <v>160</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C116" s="17"/>
     </row>
     <row r="117" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3839,32 +3885,32 @@
         <v>160</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3872,152 +3918,152 @@
         <v>160</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C125" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-    </row>
-    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-    </row>
-    <row r="124" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="23" t="s">
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+    </row>
+    <row r="128" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B128" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C128" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="23" t="s">
+    <row r="129" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C129" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="11" t="s">
+    <row r="130" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B130" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C130" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="11" t="s">
+    <row r="131" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B131" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C131" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="11" t="s">
+    <row r="132" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B132" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C132" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="11" t="s">
+    <row r="133" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B133" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C133" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="11" t="s">
+    <row r="134" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B134" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="13" t="s">
+    <row r="135" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="37" t="s">
         <v>193</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4025,29 +4071,29 @@
         <v>193</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>218</v>
+      <c r="B138" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>49</v>
@@ -4057,186 +4103,186 @@
       <c r="A139" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>219</v>
+      <c r="B139" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>222</v>
+      <c r="B141" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C146" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B147" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B148" s="14" t="s">
-        <v>236</v>
+      <c r="B148" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C153" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-    </row>
-    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-    </row>
-    <row r="152" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>248</v>
-      </c>
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
     </row>
     <row r="156" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4244,87 +4290,87 @@
         <v>240</v>
       </c>
       <c r="B157" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A161" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C161" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>261</v>
+      <c r="B162" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4332,43 +4378,43 @@
         <v>240</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B166" s="12" t="s">
-        <v>268</v>
+      <c r="B166" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4376,98 +4422,98 @@
         <v>240</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>275</v>
+      <c r="B170" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B171" s="14" t="s">
-        <v>276</v>
+      <c r="B171" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A173" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A174" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C176" s="17" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>285</v>
+      <c r="B177" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4475,75 +4521,75 @@
         <v>240</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C182" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-    </row>
-    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="16"/>
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-    </row>
-    <row r="181" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+    </row>
+    <row r="185" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4551,164 +4597,168 @@
         <v>288</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C186" s="20"/>
+        <v>291</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" s="20"/>
+    </row>
+    <row r="191" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B191" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C191" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C189" s="20"/>
-    </row>
-    <row r="190" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B190" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B191" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>308</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C200" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C197" s="17"/>
-    </row>
-    <row r="198" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B198" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B199" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C200" s="17"/>
-    </row>
-    <row r="201" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="15" t="s">
         <v>288</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C201" s="17"/>
     </row>
@@ -4717,75 +4767,71 @@
         <v>288</v>
       </c>
       <c r="B202" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C204" s="17"/>
+    </row>
+    <row r="205" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C205" s="17"/>
+    </row>
+    <row r="206" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B206" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C206" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-    </row>
-    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="16"/>
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-    </row>
-    <row r="205" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>326</v>
-      </c>
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="11" t="s">
         <v>318</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4793,10 +4839,10 @@
         <v>318</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4804,10 +4850,10 @@
         <v>318</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4815,10 +4861,10 @@
         <v>318</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4826,10 +4872,10 @@
         <v>318</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4837,10 +4883,10 @@
         <v>318</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4848,10 +4894,10 @@
         <v>318</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>338</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4859,10 +4905,10 @@
         <v>318</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4870,10 +4916,10 @@
         <v>318</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4881,65 +4927,65 @@
         <v>318</v>
       </c>
       <c r="B218" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B222" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C222" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B219" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4947,10 +4993,10 @@
         <v>318</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4958,32 +5004,32 @@
         <v>318</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4991,10 +5037,10 @@
         <v>318</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5002,21 +5048,21 @@
         <v>318</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5024,10 +5070,10 @@
         <v>318</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5035,10 +5081,10 @@
         <v>318</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>366</v>
+        <v>112</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5046,130 +5092,130 @@
         <v>318</v>
       </c>
       <c r="B233" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B237" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C237" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="15" t="s">
+    <row r="238" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B238" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C238" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="15" t="s">
+    <row r="239" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B239" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C239" s="17" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="15" t="s">
+    <row r="240" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B240" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C240" s="17" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="15" t="s">
+    <row r="241" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B241" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C241" s="17" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="16"/>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-    </row>
-    <row r="239" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="16"/>
-      <c r="B239" s="16"/>
-      <c r="C239" s="16"/>
-    </row>
-    <row r="240" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C243" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="16"/>
+    </row>
+    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+    </row>
+    <row r="244" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="11" t="s">
         <v>377</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="11" t="s">
         <v>377</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5177,54 +5223,54 @@
         <v>377</v>
       </c>
       <c r="B246" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B250" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C250" s="17" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5232,10 +5278,10 @@
         <v>377</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5243,10 +5289,10 @@
         <v>377</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5254,10 +5300,10 @@
         <v>377</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5265,10 +5311,10 @@
         <v>377</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5276,161 +5322,161 @@
         <v>377</v>
       </c>
       <c r="B255" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C259" s="17" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="C256" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C257" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C258" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C259" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="15" t="s">
         <v>377</v>
       </c>
       <c r="B260" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A261" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A262" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A263" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B264" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C264" s="17" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="16"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-    </row>
-    <row r="262" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="16"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="16"/>
-    </row>
-    <row r="263" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C263" s="17"/>
-    </row>
-    <row r="264" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C265" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C266" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+    </row>
+    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A266" s="16"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="16"/>
+    </row>
+    <row r="267" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="C267" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+      <c r="C267" s="17"/>
+    </row>
+    <row r="268" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5438,43 +5484,43 @@
         <v>411</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5482,10 +5528,10 @@
         <v>411</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5493,21 +5539,21 @@
         <v>411</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+      <c r="C276" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5515,54 +5561,54 @@
         <v>411</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C279" s="17" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="15" t="s">
+    <row r="280" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A280" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5570,21 +5616,21 @@
         <v>411</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5592,21 +5638,21 @@
         <v>411</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5614,7 +5660,7 @@
         <v>411</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>445</v>
@@ -5625,10 +5671,10 @@
         <v>411</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5636,10 +5682,10 @@
         <v>411</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>454</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5647,108 +5693,108 @@
         <v>411</v>
       </c>
       <c r="B290" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A291" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A292" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A293" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A294" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B294" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="C294" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="16"/>
-      <c r="B291" s="16"/>
-      <c r="C291" s="16"/>
-    </row>
-    <row r="292" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="16"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="16"/>
-    </row>
-    <row r="293" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="11" t="s">
+    <row r="295" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A295" s="16"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+    </row>
+    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A296" s="16"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+    </row>
+    <row r="297" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A297" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="B297" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C297" s="17" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="11" t="s">
+    <row r="298" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A298" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B294" s="12" t="s">
+      <c r="B298" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C294" s="17" t="s">
+      <c r="C298" s="17" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="11" t="s">
+    <row r="299" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A299" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="B299" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C299" s="17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="11" t="s">
+    <row r="300" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A300" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B300" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C296" s="17" t="s">
+      <c r="C300" s="17" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C298" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C300" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5756,18 +5802,18 @@
         <v>456</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C302" s="17" t="s">
         <v>120</v>
@@ -5778,10 +5824,10 @@
         <v>456</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>49</v>
+        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5789,10 +5835,10 @@
         <v>456</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>475</v>
+        <v>120</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5800,10 +5846,10 @@
         <v>456</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5811,21 +5857,21 @@
         <v>456</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>479</v>
+        <v>49</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5833,10 +5879,10 @@
         <v>456</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C308" s="17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5844,32 +5890,32 @@
         <v>456</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C310" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5877,10 +5923,10 @@
         <v>456</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>225</v>
+        <v>481</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5888,10 +5934,10 @@
         <v>456</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>488</v>
+        <v>264</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5899,10 +5945,10 @@
         <v>456</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5910,10 +5956,10 @@
         <v>456</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5921,10 +5967,10 @@
         <v>456</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>493</v>
+        <v>225</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5932,10 +5978,10 @@
         <v>456</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>173</v>
+        <v>487</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>178</v>
+        <v>488</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5943,21 +5989,21 @@
         <v>456</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="13" t="s">
         <v>456</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5965,10 +6011,10 @@
         <v>456</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5976,54 +6022,54 @@
         <v>456</v>
       </c>
       <c r="B321" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C321" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A322" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C322" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A323" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B325" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="C321" s="17" t="s">
+      <c r="C325" s="17" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A322" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B322" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C322" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B323" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C323" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B324" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="C324" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B325" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="C325" s="17" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6031,10 +6077,10 @@
         <v>456</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6042,10 +6088,10 @@
         <v>456</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6053,10 +6099,10 @@
         <v>456</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>57</v>
+        <v>503</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6064,10 +6110,10 @@
         <v>456</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C329" s="17" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6075,10 +6121,10 @@
         <v>456</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6086,10 +6132,10 @@
         <v>456</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C331" s="17" t="s">
-        <v>511</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6097,151 +6143,151 @@
         <v>456</v>
       </c>
       <c r="B332" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C333" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A334" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A335" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A336" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B336" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C332" s="17" t="s">
+      <c r="C336" s="17" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A333" s="16"/>
-      <c r="B333" s="16"/>
-      <c r="C333" s="16"/>
-    </row>
-    <row r="334" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A334" s="16"/>
-      <c r="B334" s="16"/>
-      <c r="C334" s="16"/>
-    </row>
-    <row r="335" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A335" s="13" t="s">
+    <row r="337" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A337" s="16"/>
+      <c r="B337" s="16"/>
+      <c r="C337" s="16"/>
+    </row>
+    <row r="338" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A338" s="16"/>
+      <c r="B338" s="16"/>
+      <c r="C338" s="16"/>
+    </row>
+    <row r="339" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A339" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B335" s="21" t="s">
+      <c r="B339" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C335" s="17" t="s">
+      <c r="C339" s="17" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A336" s="13" t="s">
+    <row r="340" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A340" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B336" s="21" t="s">
+      <c r="B340" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C336" s="17" t="s">
+      <c r="C340" s="17" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A337" s="13" t="s">
+    <row r="341" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B337" s="21" t="s">
+      <c r="B341" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="C337" s="17" t="s">
+      <c r="C341" s="17" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A338" s="13" t="s">
+    <row r="342" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="B338" s="21" t="s">
+      <c r="B342" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C338" s="17" t="s">
+      <c r="C342" s="17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A339" s="15" t="s">
+    <row r="343" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B339" s="21" t="s">
+      <c r="B343" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="C339" s="17" t="s">
+      <c r="C343" s="17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="15" t="s">
+    <row r="344" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B340" s="21" t="s">
+      <c r="B344" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C340" s="17" t="s">
+      <c r="C344" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="16"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="16"/>
-    </row>
-    <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A342" s="16"/>
-      <c r="B342" s="16"/>
-      <c r="C342" s="16"/>
-    </row>
-    <row r="343" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A343" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B343" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="C343" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B344" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="C344" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A345" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B345" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="C345" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A346" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B346" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C346" s="17" t="s">
-        <v>366</v>
-      </c>
+    <row r="345" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="16"/>
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+    </row>
+    <row r="346" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A346" s="16"/>
+      <c r="B346" s="16"/>
+      <c r="C346" s="16"/>
     </row>
     <row r="347" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="11" t="s">
         <v>529</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6249,10 +6295,10 @@
         <v>529</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6260,18 +6306,18 @@
         <v>529</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C349" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="11" t="s">
         <v>529</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C350" s="17" t="s">
         <v>366</v>
@@ -6282,54 +6328,54 @@
         <v>529</v>
       </c>
       <c r="B351" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A352" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A353" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A354" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C354" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A355" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B355" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="C351" s="17" t="s">
+      <c r="C355" s="17" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A352" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B352" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C352" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B353" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C353" s="17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B354" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="C354" s="17" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B355" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C355" s="17" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6337,10 +6383,10 @@
         <v>529</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C356" s="17" t="s">
-        <v>164</v>
+        <v>541</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6348,10 +6394,10 @@
         <v>529</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C357" s="17" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6359,10 +6405,10 @@
         <v>529</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C358" s="17" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6370,10 +6416,10 @@
         <v>529</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C359" s="17" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6381,10 +6427,10 @@
         <v>529</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C360" s="17" t="s">
-        <v>556</v>
+        <v>164</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6392,10 +6438,10 @@
         <v>529</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C361" s="17" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6403,10 +6449,10 @@
         <v>529</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6414,10 +6460,10 @@
         <v>529</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>112</v>
+        <v>554</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6425,10 +6471,10 @@
         <v>529</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C364" s="17" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6436,10 +6482,10 @@
         <v>529</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6447,10 +6493,10 @@
         <v>529</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C366" s="17" t="s">
-        <v>153</v>
+        <v>560</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6458,10 +6504,10 @@
         <v>529</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6469,10 +6515,10 @@
         <v>529</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6480,10 +6526,10 @@
         <v>529</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C369" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6491,21 +6537,21 @@
         <v>529</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C371" s="17" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6513,21 +6559,21 @@
         <v>529</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6535,21 +6581,21 @@
         <v>529</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C374" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C375" s="17" t="s">
-        <v>578</v>
+        <v>188</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6557,32 +6603,32 @@
         <v>529</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C378" s="17" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6590,10 +6636,10 @@
         <v>529</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C379" s="17" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6601,10 +6647,10 @@
         <v>529</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>171</v>
+        <v>579</v>
       </c>
       <c r="C380" s="17" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6612,21 +6658,21 @@
         <v>529</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="13" t="s">
         <v>529</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>589</v>
+        <v>49</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6634,10 +6680,10 @@
         <v>529</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>78</v>
+        <v>584</v>
       </c>
       <c r="C383" s="17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6645,10 +6691,10 @@
         <v>529</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>591</v>
+        <v>171</v>
       </c>
       <c r="C384" s="17" t="s">
-        <v>366</v>
+        <v>586</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6656,10 +6702,10 @@
         <v>529</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C385" s="17" t="s">
-        <v>493</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6667,10 +6713,10 @@
         <v>529</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C386" s="17" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6678,10 +6724,10 @@
         <v>529</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>595</v>
+        <v>78</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6689,10 +6735,10 @@
         <v>529</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>597</v>
+        <v>366</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6700,10 +6746,10 @@
         <v>529</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>98</v>
+        <v>592</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>57</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6711,10 +6757,10 @@
         <v>529</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C390" s="17" t="s">
-        <v>102</v>
+        <v>594</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6722,300 +6768,324 @@
         <v>529</v>
       </c>
       <c r="B391" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C391" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A393" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C393" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A394" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C394" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A395" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B395" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C391" s="17" t="s">
+      <c r="C395" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="B392" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="C392" s="17" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="B393" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="C393" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A394" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="C394" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="B395" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="C395" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="15" t="s">
         <v>529</v>
       </c>
       <c r="B396" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C396" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A397" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C397" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A398" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C398" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A399" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C399" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A400" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B400" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C396" s="17" t="s">
+      <c r="C400" s="17" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A397" s="16"/>
-      <c r="B397" s="16"/>
-      <c r="C397" s="16"/>
-    </row>
-    <row r="398" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="16"/>
-      <c r="B398" s="16"/>
-      <c r="C398" s="16"/>
-    </row>
-    <row r="399" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A399" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B399" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="C399" s="17" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A400" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B400" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C400" s="17" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A401" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B401" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="C401" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B402" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="C402" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A401" s="16"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+    </row>
+    <row r="402" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="16"/>
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+    </row>
+    <row r="403" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="11" t="s">
         <v>607</v>
       </c>
       <c r="B403" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="C403" s="17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A404" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B404" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C404" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B405" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="C405" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A406" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B406" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="C406" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A407" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B407" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C403" s="17" t="s">
+      <c r="C407" s="17" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B404" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="C404" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B405" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="C405" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A406" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B406" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="C406" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A407" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="B407" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="C407" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" s="13" t="s">
         <v>607</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C408" s="17" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="16"/>
-      <c r="B409" s="16"/>
-      <c r="C409" s="16"/>
-    </row>
-    <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="16"/>
-      <c r="B410" s="16"/>
-      <c r="C410" s="16"/>
-    </row>
-    <row r="411" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A409" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B409" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="C409" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A410" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B410" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="C411" s="17"/>
+        <v>607</v>
+      </c>
+      <c r="B411" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="C411" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="412" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B412" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C412" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="16"/>
+      <c r="B413" s="16"/>
+      <c r="C413" s="16"/>
+    </row>
+    <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="16"/>
+      <c r="B414" s="16"/>
+      <c r="C414" s="16"/>
+    </row>
+    <row r="415" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B412" s="12" t="s">
+      <c r="B415" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C415" s="17"/>
+    </row>
+    <row r="416" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B416" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="C412" s="17" t="s">
+      <c r="C416" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="13" t="s">
+    <row r="417" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B413" s="12" t="s">
+      <c r="B417" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="C413" s="17" t="s">
+      <c r="C417" s="17" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="15" t="s">
+    <row r="418" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B414" s="12" t="s">
+      <c r="B418" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="C414" s="17" t="s">
+      <c r="C418" s="17" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="15" t="s">
+    <row r="419" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A419" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B415" s="12" t="s">
+      <c r="B419" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="C415" s="17" t="s">
+      <c r="C419" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="15" t="s">
+    <row r="420" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B416" s="12" t="s">
+      <c r="B420" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C416" s="17" t="s">
+      <c r="C420" s="17" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="16"/>
-      <c r="B417" s="16"/>
-      <c r="C417" s="16"/>
-    </row>
-    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="16"/>
-      <c r="B418" s="16"/>
-      <c r="C418" s="16"/>
-    </row>
-    <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="16"/>
-      <c r="B419" s="16"/>
-      <c r="C419" s="16"/>
-    </row>
-    <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="16"/>
-      <c r="B420" s="16"/>
-      <c r="C420" s="16"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A421" s="22"/>
-      <c r="B421" s="22"/>
-      <c r="C421" s="22"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A422" s="22"/>
-      <c r="B422" s="22"/>
-      <c r="C422" s="22"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A423" s="22"/>
-      <c r="B423" s="22"/>
-      <c r="C423" s="22"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A424" s="22"/>
-      <c r="B424" s="22"/>
-      <c r="C424" s="22"/>
+    <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="16"/>
+      <c r="B421" s="16"/>
+      <c r="C421" s="16"/>
+    </row>
+    <row r="422" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="16"/>
+      <c r="B422" s="16"/>
+      <c r="C422" s="16"/>
+    </row>
+    <row r="423" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="16"/>
+      <c r="B423" s="16"/>
+      <c r="C423" s="16"/>
+    </row>
+    <row r="424" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="16"/>
+      <c r="B424" s="16"/>
+      <c r="C424" s="16"/>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="22"/>
@@ -7307,8 +7377,28 @@
       <c r="B482" s="22"/>
       <c r="C482" s="22"/>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C488" t="s">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A483" s="22"/>
+      <c r="B483" s="22"/>
+      <c r="C483" s="22"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
+      <c r="C484" s="22"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
+      <c r="C485" s="22"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
+      <c r="C486" s="22"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C492" t="s">
         <v>632</v>
       </c>
     </row>
@@ -7320,365 +7410,365 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.youtube.com/c/ApnaCollegeOfficial" xr:uid="{1FD8AE1F-FE7B-4151-9050-122AC1812B5A}"/>
-    <hyperlink ref="B12" r:id="rId2" display="https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/" xr:uid="{51D958CA-0486-410E-A5AC-62D798BEA06B}"/>
-    <hyperlink ref="B13" r:id="rId3" display="https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/" xr:uid="{0512C41D-35CF-43BA-B97A-C917330C22F4}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{577D0732-3DAB-43AF-A2AD-E2C89D56E975}"/>
-    <hyperlink ref="B15" r:id="rId5" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{83FC4977-0E82-4A35-80EE-A8384D6B33C1}"/>
-    <hyperlink ref="B16" r:id="rId6" display="https://www.geeksforgeeks.org/chocolate-distribution-problem/" xr:uid="{B6DE30BC-DCEB-4279-A494-B95C36D661C1}"/>
-    <hyperlink ref="B17" r:id="rId7" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/" xr:uid="{E18028E1-42CE-4E55-8BB5-20C8373ED9C0}"/>
-    <hyperlink ref="B18" r:id="rId8" display="https://leetcode.com/problems/next-permutation/" xr:uid="{E32B1AA9-41FE-42F0-9165-0E2DB4BCD9F0}"/>
-    <hyperlink ref="B19" r:id="rId9" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{08267737-4BED-45C0-96E9-C47F847C2351}"/>
-    <hyperlink ref="B20" r:id="rId10" display="https://www.interviewbit.com/problems/repeat-and-missing-number-array/" xr:uid="{40ACD858-E940-4B64-BEB9-E9B1F1ACB68D}"/>
-    <hyperlink ref="B21" r:id="rId11" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{28CA8B83-2403-4851-8A06-F95A33AD39E2}"/>
-    <hyperlink ref="B22" r:id="rId12" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{4E75929F-07B2-4DDD-B996-188F489FFE57}"/>
-    <hyperlink ref="B23" r:id="rId13" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{DD5C3EDA-1625-47D6-B0D1-36F99F098CBE}"/>
-    <hyperlink ref="B24" r:id="rId14" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{8CBCEB5A-DE18-4EE6-A219-25B3BEEFA87C}"/>
-    <hyperlink ref="B25" r:id="rId15" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{45396D4D-C246-499A-A2D3-AE9DC97EA9F2}"/>
-    <hyperlink ref="B26" r:id="rId16" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{76C42B3B-3F61-4FC6-B502-02DA2E7B9E72}"/>
-    <hyperlink ref="B27" r:id="rId17" display="https://leetcode.com/problems/3sum/" xr:uid="{9DAF68C7-9670-4257-AC8A-4B7835D8BBBA}"/>
-    <hyperlink ref="B28" r:id="rId18" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{AAE54B70-88D0-4004-9A55-DA560F671D9D}"/>
-    <hyperlink ref="B29" r:id="rId19" display="https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/" xr:uid="{D242FB87-E1FF-4441-9A37-4F36D65BA0C8}"/>
-    <hyperlink ref="B30" r:id="rId20" display="https://practice.geeksforgeeks.org/problems/kth-smallest-element5635/1" xr:uid="{34C4B842-F6C5-471C-8E43-9B40AB34E111}"/>
-    <hyperlink ref="B31" r:id="rId21" display="https://www.geeksforgeeks.org/merging-intervals/" xr:uid="{5855ECB8-816B-4EA6-9183-CD8713AF4435}"/>
-    <hyperlink ref="B32" r:id="rId22" display="https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/" xr:uid="{076A1D69-7B5B-4B47-8475-FBDEEA04109E}"/>
-    <hyperlink ref="B33" r:id="rId23" display="https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/" xr:uid="{F421CCEC-CFEA-46D0-877C-39D39866B6AF}"/>
-    <hyperlink ref="B34" r:id="rId24" display="https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/" xr:uid="{1E6FA3F2-40B3-4027-85D8-1200A97A0FD6}"/>
-    <hyperlink ref="B35" r:id="rId25" display="https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/" xr:uid="{B2BAD268-5614-4E00-BD8E-3F5D7742C0F9}"/>
-    <hyperlink ref="B36" r:id="rId26" display="https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/" xr:uid="{1F2D2A8A-AD4D-4A52-823C-C21845D1AE1C}"/>
-    <hyperlink ref="B37" r:id="rId27" display="https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/" xr:uid="{8F54270C-8981-4C69-A77E-10E54E1015D5}"/>
-    <hyperlink ref="B40" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{B9F0D64F-96DD-4592-8A9E-EAC7F397CD66}"/>
-    <hyperlink ref="B41" r:id="rId29" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{7D69281E-5D1A-4DB8-AA7A-9CDD1808F001}"/>
-    <hyperlink ref="B42" r:id="rId30" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{58271F49-BC9F-4054-A59D-EC33F4C86473}"/>
-    <hyperlink ref="B43" r:id="rId31" display="https://practice.geeksforgeeks.org/problems/consecutive-elements2306/1" xr:uid="{F492A750-5FA2-4ABF-A0FD-0CBA4148254C}"/>
-    <hyperlink ref="B44" r:id="rId32" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{1A6AE95D-88DA-4B3C-881E-233F0E364ED4}"/>
-    <hyperlink ref="B45" r:id="rId33" display="https://www.geeksforgeeks.org/convert-sentence-equivalent-mobile-numeric-keypad-sequence/" xr:uid="{62CC0FC5-1D49-4F38-9A72-4E75157F9FA3}"/>
-    <hyperlink ref="B46" r:id="rId34" display="https://www.geeksforgeeks.org/print-all-the-duplicates-in-the-input-string/" xr:uid="{F3523005-398D-4179-81C3-E47FDBFC505E}"/>
-    <hyperlink ref="B47" r:id="rId35" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{80ABA343-0DD5-49DD-BD4F-007F20AA1695}"/>
-    <hyperlink ref="B48" r:id="rId36" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{4A7FA105-2FD0-4745-8974-629DE304E90D}"/>
-    <hyperlink ref="B49" r:id="rId37" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{2C94B95D-F30A-4839-921D-2DBA239A6540}"/>
-    <hyperlink ref="B50" r:id="rId38" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{DE9240B9-BF73-4116-A4C4-CB445128F5B6}"/>
-    <hyperlink ref="B51" r:id="rId39" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{E4598453-ECE5-4B60-BA5B-01B1036DF73A}"/>
-    <hyperlink ref="B52" r:id="rId40" display="https://practice.geeksforgeeks.org/problems/next-permutation5226/1" xr:uid="{A4D6F006-8888-41F3-B8D8-23B1D0481D72}"/>
-    <hyperlink ref="B53" r:id="rId41" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{D6D7BC0D-DEB7-41A7-A403-519D22CC9D80}"/>
-    <hyperlink ref="B54" r:id="rId42" display="https://practice.geeksforgeeks.org/problems/smallest-window-in-a-string-containing-all-the-characters-of-another-string-1587115621/1" xr:uid="{CC575A49-5AB7-44F1-AAFB-4F118D6A35B1}"/>
-    <hyperlink ref="B55" r:id="rId43" display="https://practice.geeksforgeeks.org/problems/wildcard-string-matching1126/1" xr:uid="{4A8A749E-F309-43C5-99F3-EF15D51929A9}"/>
-    <hyperlink ref="B56" r:id="rId44" display="https://practice.geeksforgeeks.org/problems/longest-prefix-suffix2527/1" xr:uid="{C645B686-0B2F-4CFC-8D5B-EA4EF695FEAE}"/>
-    <hyperlink ref="B57" r:id="rId45" display="https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/" xr:uid="{1D81BBF5-4E4A-4130-A4E0-28088AF942EE}"/>
-    <hyperlink ref="B58" r:id="rId46" display="https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/" xr:uid="{93F41BFB-7B0E-45C6-88EB-3F214E67D3E2}"/>
-    <hyperlink ref="B59" r:id="rId47" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C5FFB199-55B7-431F-B8AC-6FD2E6DF2DC8}"/>
-    <hyperlink ref="B60" r:id="rId48" display="https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/" xr:uid="{033A4F56-8A90-44C5-BD97-A852224BAB76}"/>
-    <hyperlink ref="B61" r:id="rId49" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{35DC7FAA-00DF-4AA9-83CE-6DC0ABB461CA}"/>
-    <hyperlink ref="B64" r:id="rId50" display="https://www.geeksforgeeks.org/zigzag-or-diagonal-traversal-of-matrix/" xr:uid="{E764D702-912C-4EBA-AF5A-E509D8FA414C}"/>
-    <hyperlink ref="B65" r:id="rId51" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{6B005B91-10AE-4746-8A1B-2DDFE6F31637}"/>
-    <hyperlink ref="B66" r:id="rId52" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{517DE728-0FBE-48D8-A6F5-A4CE2E526007}"/>
-    <hyperlink ref="B67" r:id="rId53" display="https://leetcode.com/problems/rotate-image/" xr:uid="{9172A3B2-301F-45A8-B038-60D8B2B1B262}"/>
-    <hyperlink ref="B68" r:id="rId54" display="https://leetcode.com/problems/word-search/" xr:uid="{956D36EF-A74A-42E9-83D9-FCD12AA36DDE}"/>
-    <hyperlink ref="B69" r:id="rId55" display="https://www.geeksforgeeks.org/find-number-of-islands/" xr:uid="{CCF3B1CC-196F-4675-923F-86265D372DEA}"/>
-    <hyperlink ref="B70" r:id="rId56" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/" xr:uid="{90890F2C-00F0-4CAA-9763-1F80E182C083}"/>
-    <hyperlink ref="B71" r:id="rId57" display="https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/" xr:uid="{C37B2970-0B5E-493A-B627-732FDD7E8677}"/>
-    <hyperlink ref="B72" r:id="rId58" display="https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/" xr:uid="{45A7A3D0-5514-4725-BF25-1BAE4B35841C}"/>
-    <hyperlink ref="B73" r:id="rId59" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/" xr:uid="{563C69B2-B43A-498F-9EC9-E402783619F5}"/>
-    <hyperlink ref="B76" r:id="rId60" display="https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/" xr:uid="{3FF419AE-1583-41D8-B526-BAD813744BAC}"/>
-    <hyperlink ref="B77" r:id="rId61" display="https://www.geeksforgeeks.org/counting-sort/" xr:uid="{DED9AE81-E066-49AF-9A83-2392F7DC91AD}"/>
-    <hyperlink ref="B78" r:id="rId62" display="https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/" xr:uid="{4D1F2379-067A-489D-9364-E17920740D24}"/>
-    <hyperlink ref="B79" r:id="rId63" display="https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/" xr:uid="{89DACB91-5737-4332-845C-7D874928131F}"/>
-    <hyperlink ref="B80" r:id="rId64" display="https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/" xr:uid="{E84DBDF5-53A6-4ECB-ADB8-1846C270F7CF}"/>
-    <hyperlink ref="B81" r:id="rId65" display="https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/" xr:uid="{D7B066E6-7296-42FF-ABE0-CD0DB3FDB8BA}"/>
-    <hyperlink ref="B82" r:id="rId66" display="https://www.geeksforgeeks.org/majority-element/" xr:uid="{15BD9A55-840F-4640-9BBB-E2B3E0CAD085}"/>
-    <hyperlink ref="B83" r:id="rId67" display="https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/" xr:uid="{3C9049F5-5156-48C6-8D4A-D0B86B8330B3}"/>
-    <hyperlink ref="B84" r:id="rId68" display="https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/" xr:uid="{104B6EC9-B168-4A82-860C-D70D23EB546F}"/>
-    <hyperlink ref="B85" r:id="rId69" display="https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/" xr:uid="{E8CA5071-503B-45DD-9AEE-1BCA60C9F193}"/>
-    <hyperlink ref="B86" r:id="rId70" display="https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1" xr:uid="{CC5A40FE-E0D9-4692-864C-7C3935D1FB12}"/>
-    <hyperlink ref="B87" r:id="rId71" display="https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/" xr:uid="{210B4309-EA45-40D6-B4FA-565DB306DA38}"/>
-    <hyperlink ref="B88" r:id="rId72" display="https://www.geeksforgeeks.org/radix-sort/" xr:uid="{35837A9A-3D6C-4B3C-888B-4BDC0536F3CD}"/>
-    <hyperlink ref="B89" r:id="rId73" display="https://www.geeksforgeeks.org/a-product-array-puzzle/" xr:uid="{4B03A578-6405-4C69-B4B3-97327EB3894D}"/>
-    <hyperlink ref="B90" r:id="rId74" display="https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{FC476393-0D93-486A-B9E4-EE532FEA290A}"/>
-    <hyperlink ref="B91" r:id="rId75" display="https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/" xr:uid="{FC325AD3-0493-48C1-AD97-651EAEA8BF2D}"/>
-    <hyperlink ref="B92" r:id="rId76" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/" xr:uid="{378D8C38-826D-4F6E-9ED3-34FF788FC5B4}"/>
-    <hyperlink ref="B93" r:id="rId77" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/" xr:uid="{CBD0C288-3AC9-4E23-A6CA-228D2D59C839}"/>
-    <hyperlink ref="B94" r:id="rId78" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/" xr:uid="{B770F119-77CF-4BF6-ABCC-0A82E2433D1D}"/>
-    <hyperlink ref="B95" r:id="rId79" display="https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/" xr:uid="{E9C7BEB3-FAEF-496E-8623-A543C4DC3277}"/>
-    <hyperlink ref="B96" r:id="rId80" display="https://www.spoj.com/problems/AGGRCOW/" xr:uid="{CE2FA856-7DC8-4E88-A14C-345196CAE420}"/>
-    <hyperlink ref="B97" r:id="rId81" display="https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1" xr:uid="{426DE4E4-E6A2-4333-9CE1-603032FB7B0A}"/>
-    <hyperlink ref="B98" r:id="rId82" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{BEBD851A-70EC-4501-AF30-D6C5376CEED1}"/>
-    <hyperlink ref="B101" r:id="rId83" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{3C5064CE-5524-45B2-B86B-F310AFC043FC}"/>
-    <hyperlink ref="B102" r:id="rId84" display="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{314ECBCF-A640-44D5-8845-EA3ABDF12C3B}"/>
-    <hyperlink ref="B103" r:id="rId85" display="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{A8C33AEC-D174-4688-83A3-21E8DDF71B84}"/>
-    <hyperlink ref="B104" r:id="rId86" display="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{CB89B281-FE27-42A6-ABE7-D78A86615CEB}"/>
-    <hyperlink ref="B105" r:id="rId87" display="https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/" xr:uid="{86A1357F-BE75-440C-9AFD-C32FA61EF48E}"/>
-    <hyperlink ref="B106" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{BC9F48AA-DDB0-4797-9BA1-B26728278FC6}"/>
-    <hyperlink ref="B107" r:id="rId89" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{7098B477-37B3-4B0A-B84B-6E6208E83D05}"/>
-    <hyperlink ref="B108" r:id="rId90" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{3A0ADF5D-E529-45F3-B0B5-DE1962BAC3C9}"/>
-    <hyperlink ref="B109" r:id="rId91" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{F50BCD80-6FAF-472F-BEC2-8CB6DBAE8D8B}"/>
-    <hyperlink ref="B110" r:id="rId92" display="https://www.geeksforgeeks.org/backtracking-set-7-suduku/" xr:uid="{5FD6CA9D-6BB7-4A8A-8738-9BCCABEE1E46}"/>
-    <hyperlink ref="B111" r:id="rId93" display="https://www.geeksforgeeks.org/remove-invalid-parentheses/" xr:uid="{8F431167-9AC6-47B9-B336-127F6414798E}"/>
-    <hyperlink ref="B112" r:id="rId94" display="https://www.geeksforgeeks.org/word-break-problem-using-backtracking/" xr:uid="{D077C4EA-DA66-4C76-AD15-6882936CC60D}"/>
-    <hyperlink ref="B113" r:id="rId95" display="https://www.geeksforgeeks.org/print-palindromic-partitions-string/" xr:uid="{79252414-642A-411A-A14D-7ADA8685D823}"/>
-    <hyperlink ref="B114" r:id="rId96" display="https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/" xr:uid="{51E9BAAC-2F65-4139-A0D1-314FB1CA2CDE}"/>
-    <hyperlink ref="B115" r:id="rId97" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/" xr:uid="{3A523D4C-792A-4A86-B4B5-68CDA1B35B61}"/>
-    <hyperlink ref="B116" r:id="rId98" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{E386E76E-6DFA-48A4-AF06-35500F74BF0E}"/>
-    <hyperlink ref="B117" r:id="rId99" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{89841927-CDE1-4484-A6CC-0EB772E00C76}"/>
-    <hyperlink ref="B118" r:id="rId100" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/" xr:uid="{4636176E-33AC-449A-9D94-41071DB0119C}"/>
-    <hyperlink ref="B119" r:id="rId101" display="https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/" xr:uid="{CFD2F4A5-82C2-45C4-A105-6C76D0E8703E}"/>
-    <hyperlink ref="B120" r:id="rId102" display="https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/" xr:uid="{023D34E4-7350-41BE-8AD0-3704039C5AF8}"/>
-    <hyperlink ref="B121" r:id="rId103" display="https://www.hackerrank.com/challenges/arithmetic-expressions/problem" xr:uid="{ACAAA5A5-E607-4B57-AFBB-9B42CB1BAB5A}"/>
-    <hyperlink ref="B124" r:id="rId104" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{E9B7716A-EC8C-47B5-9D1A-4DE4DBEEEA28}"/>
-    <hyperlink ref="B125" r:id="rId105" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{C4CA6F51-3256-4077-B4B0-17DEE6A261F3}"/>
-    <hyperlink ref="B126" r:id="rId106" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{303BE593-DC25-424E-86BE-E5F939586796}"/>
-    <hyperlink ref="B127" r:id="rId107" display="https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{49567C02-632D-4738-917F-90FA46802273}"/>
-    <hyperlink ref="B128" r:id="rId108" display="https://www.geeksforgeeks.org/remove-duplicates-from-an-unsorted-linked-list/" xr:uid="{5A533CD1-B6CC-45BB-A793-3E57CC0278C7}"/>
-    <hyperlink ref="B129" r:id="rId109" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{26FC6BEA-5C85-4E69-BEC7-4B692C66034E}"/>
-    <hyperlink ref="B130" r:id="rId110" display="https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{D567922E-E92B-4D64-8D74-C3877F1962D7}"/>
-    <hyperlink ref="B131" r:id="rId111" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{0F66D9FA-3D56-4153-A97F-081D18A1067D}"/>
-    <hyperlink ref="B132" r:id="rId112" display="https://leetcode.com/problems/reorder-list/" xr:uid="{BD8E8013-42A4-4218-BDBD-BD32CB0CACE7}"/>
-    <hyperlink ref="B133" r:id="rId113" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/" xr:uid="{875E1D0A-7CA2-4032-A409-BA51C252AEEF}"/>
-    <hyperlink ref="B134" r:id="rId114" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/" xr:uid="{C8A6C397-29E9-4913-B448-6465E9677E60}"/>
-    <hyperlink ref="B135" r:id="rId115" display="https://www.geeksforgeeks.org/flatten-a-linked-list-with-next-and-child-pointers/" xr:uid="{D5207E44-C260-467B-A6BB-E214290D37F8}"/>
-    <hyperlink ref="B136" r:id="rId116" display="https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{DF551C5D-1B7C-442F-B12B-7C0DE6C864A8}"/>
-    <hyperlink ref="B137" r:id="rId117" display="https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1" xr:uid="{A39DF6A9-03AB-4474-B847-0E9B23840CE8}"/>
-    <hyperlink ref="B138" r:id="rId118" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/" xr:uid="{A64F85A0-93F9-4207-A048-A61627BA8750}"/>
-    <hyperlink ref="B139" r:id="rId119" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{06BAEE8D-76D3-4844-BC4E-43CC5D1AFDE7}"/>
-    <hyperlink ref="B140" r:id="rId120" display="https://www.geeksforgeeks.org/point-to-next-higher-value-node-in-a-linked-list-with-an-arbitrary-pointer/" xr:uid="{072C3A0F-1D80-4DB1-BED9-BB8FB69D76B8}"/>
-    <hyperlink ref="B141" r:id="rId121" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{12DFF55D-1D33-4D63-BC37-74EED812F77A}"/>
-    <hyperlink ref="B142" r:id="rId122" display="https://www.geeksforgeeks.org/sort-biotonic-doubly-linked-list/" xr:uid="{EECE0C9F-DB1E-48A4-9272-7941E941787C}"/>
-    <hyperlink ref="B143" r:id="rId123" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{CCB3DF55-9F47-4652-A0D3-01BFBEBBD114}"/>
-    <hyperlink ref="B144" r:id="rId124" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{D5E9EBF0-DFFC-4FB3-A156-483A7AC6BBED}"/>
-    <hyperlink ref="B145" r:id="rId125" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/" xr:uid="{563AD896-CD19-483C-A7F2-722F0570D83F}"/>
-    <hyperlink ref="B146" r:id="rId126" display="https://www.geeksforgeeks.org/sum-of-two-linked-lists/" xr:uid="{133416C5-F9B7-4C9B-A2E5-2904613A44E1}"/>
-    <hyperlink ref="B147" r:id="rId127" display="https://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{42A61AB0-1780-4863-84A2-13D6862DD568}"/>
-    <hyperlink ref="B148" r:id="rId128" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/" xr:uid="{0FF7DBF2-B8CB-45AA-A6FE-2F05B1FB830D}"/>
-    <hyperlink ref="B149" r:id="rId129" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{68ED9C0B-E45A-425E-9334-8573AEEF863C}"/>
-    <hyperlink ref="B152" r:id="rId130" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{86A92837-522D-40FD-9FB2-E7AE531F2D9B}"/>
-    <hyperlink ref="B153" r:id="rId131" display="https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{E5436E2C-6FCF-4C7F-A903-9B1E325918A9}"/>
-    <hyperlink ref="B154" r:id="rId132" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{F79FB06F-2608-47C2-BC19-CC1C0EB814A6}"/>
-    <hyperlink ref="B155" r:id="rId133" display="https://practice.geeksforgeeks.org/problems/queue-reversal/1" xr:uid="{D0991E87-CE2F-4208-B0A5-FE67F81EFED0}"/>
-    <hyperlink ref="B156" r:id="rId134" display="https://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{28BF0377-E35E-40AD-B25A-13C769A134B7}"/>
-    <hyperlink ref="B157" r:id="rId135" display="https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1" xr:uid="{0A119515-F4F3-42F6-B987-AA169E7189A3}"/>
-    <hyperlink ref="B158" r:id="rId136" display="https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/" xr:uid="{627C7B46-5FC7-43A0-A5F4-82151DE4DCE5}"/>
-    <hyperlink ref="B159" r:id="rId137" display="https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/" xr:uid="{EFAD02CC-0C91-4FDD-B82E-9967554DCFFA}"/>
-    <hyperlink ref="B160" r:id="rId138" display="https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/" xr:uid="{D0A958F2-72ED-4457-86C8-1C8FA560F4D5}"/>
-    <hyperlink ref="B161" r:id="rId139" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/" xr:uid="{CFEA05AC-8BB1-4482-86E5-F7C47BEA439F}"/>
-    <hyperlink ref="B162" r:id="rId140" display="https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/" xr:uid="{4E3FF96A-5354-4885-985C-4F416A2A1395}"/>
-    <hyperlink ref="B163" r:id="rId141" display="https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/" xr:uid="{935FECFC-420F-483F-83DB-E42774297C2F}"/>
-    <hyperlink ref="B164" r:id="rId142" display="https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/" xr:uid="{0983B438-6B09-4883-B912-C6B0937102C8}"/>
-    <hyperlink ref="B165" r:id="rId143" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/" xr:uid="{F0060024-D8D7-42F1-AC2B-349933BF69E3}"/>
-    <hyperlink ref="B166" r:id="rId144" display="https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/" xr:uid="{CC981A73-142E-436D-8EDD-06034CA16EFC}"/>
-    <hyperlink ref="B167" r:id="rId145" display="https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1" xr:uid="{C9ACE923-CF43-4898-A2BC-57798A187178}"/>
-    <hyperlink ref="B168" r:id="rId146" display="https://practice.geeksforgeeks.org/problems/next-larger-element-1587115620/1" xr:uid="{7FF74613-68C1-4810-A798-EB66306A5B13}"/>
-    <hyperlink ref="B169" r:id="rId147" display="https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1" xr:uid="{0EDFC38D-DF16-4E95-81EC-69E94BAD5461}"/>
-    <hyperlink ref="B170" r:id="rId148" display="https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1" xr:uid="{2AA0E1BC-070A-4AFF-BEA9-E365F84BDB02}"/>
-    <hyperlink ref="B171" r:id="rId149" display="https://www.geeksforgeeks.org/next-smaller-element/" xr:uid="{CBE283B3-0BAF-431E-9677-BF2E10847922}"/>
-    <hyperlink ref="B172" r:id="rId150" display="https://practice.geeksforgeeks.org/problems/circular-tour/1" xr:uid="{7C61C98C-3C9D-4C79-AE62-92403450305C}"/>
-    <hyperlink ref="B173" r:id="rId151" display="https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/" xr:uid="{D012EA64-C327-4C38-BFA2-E9D38E202F26}"/>
-    <hyperlink ref="B174" r:id="rId152" display="http://geeksforgeeks.org/the-celebrity-problem/" xr:uid="{EFE704D5-27E9-4514-87DE-007B2642CB88}"/>
-    <hyperlink ref="B175" r:id="rId153" display="https://www.geeksforgeeks.org/iterative-tower-of-hanoi/" xr:uid="{66CCA9E0-6B97-4184-9982-9992C5F400B2}"/>
-    <hyperlink ref="B176" r:id="rId154" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{62A3A75E-FC65-4AE3-A002-70D8611933F3}"/>
-    <hyperlink ref="B177" r:id="rId155" display="https://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{13B805BB-5050-4DAD-877E-74BCA9FD0C9D}"/>
-    <hyperlink ref="B178" r:id="rId156" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/" xr:uid="{16BB3746-D1D6-4B4F-B652-C6831A9A8718}"/>
-    <hyperlink ref="B181" r:id="rId157" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/" xr:uid="{014879DD-29E8-4724-A29C-B33FCEEB02A7}"/>
-    <hyperlink ref="B182" r:id="rId158" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/" xr:uid="{6DCF2FED-96E0-4252-99A3-657253C2BF7B}"/>
-    <hyperlink ref="B183" r:id="rId159" display="https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/" xr:uid="{02748D7E-93E4-49A6-88ED-98C50E8B3A1A}"/>
-    <hyperlink ref="B184" r:id="rId160" display="https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/" xr:uid="{A5BB834B-E6F2-4A58-B9AA-7E0E279C63E6}"/>
-    <hyperlink ref="B185" r:id="rId161" display="https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/" xr:uid="{F41CBF7F-EAD5-4B78-8F97-C4A0E07998F3}"/>
-    <hyperlink ref="B186" r:id="rId162" display="https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/" xr:uid="{D502C2E0-791A-492E-95BD-9726C97D1E7B}"/>
-    <hyperlink ref="B187" r:id="rId163" display="http://geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/" xr:uid="{463D8B60-1BE4-4375-89E3-4F6B0F3ABC36}"/>
-    <hyperlink ref="B188" r:id="rId164" display="https://www.geeksforgeeks.org/job-sequencing-problem/" xr:uid="{CD429159-5713-45F0-B337-A0CD2807CE36}"/>
-    <hyperlink ref="B189" r:id="rId165" display="https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/" xr:uid="{D13CF838-6511-4517-BFBB-7D5B356647A7}"/>
-    <hyperlink ref="B190" r:id="rId166" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/" xr:uid="{6007E444-ED00-4D79-BFFF-2C1310406CFD}"/>
-    <hyperlink ref="B191" r:id="rId167" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/" xr:uid="{CAFC2998-92C3-40A7-A30F-F38692625A89}"/>
-    <hyperlink ref="B192" r:id="rId168" display="https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/" xr:uid="{492C6969-F1B4-4EC8-A2C5-E67C8F91B135}"/>
-    <hyperlink ref="B193" r:id="rId169" display="https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/" xr:uid="{10B29234-3BD5-4B52-A8E7-382DB5F19EC1}"/>
-    <hyperlink ref="B194" r:id="rId170" display="https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/" xr:uid="{9F7CB75A-D667-478B-B143-0ED61A9CF5F6}"/>
-    <hyperlink ref="B195" r:id="rId171" display="http://geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/" xr:uid="{0622D3F1-B379-4AF9-98B1-ED321C9798B0}"/>
-    <hyperlink ref="B196" r:id="rId172" display="https://www.spoj.com/problems/CHOCOLA/" xr:uid="{5082909A-B375-4F18-8222-F74B7B999CAB}"/>
-    <hyperlink ref="B197" r:id="rId173" display="https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/" xr:uid="{FDE216CC-72B3-45AA-8307-255C84F9ACFB}"/>
-    <hyperlink ref="B198" r:id="rId174" display="https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/" xr:uid="{C4A45EF9-181C-4DF0-92EC-F5AF927CB613}"/>
-    <hyperlink ref="B199" r:id="rId175" display="https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/" xr:uid="{06F6F1CE-0ED8-4405-9C2B-2EC9C2E6C2AA}"/>
-    <hyperlink ref="B200" r:id="rId176" display="https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/" xr:uid="{CE37A2C5-2A0D-4C73-859A-B1104F3E1425}"/>
-    <hyperlink ref="B201" r:id="rId177" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{CD1EB722-2757-4144-BBAD-45C0D8CE77F1}"/>
-    <hyperlink ref="B202" r:id="rId178" display="https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/" xr:uid="{59BFBA0A-8DD7-4B01-BCE2-08ECE054E96A}"/>
-    <hyperlink ref="B205" r:id="rId179" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{AD38B9B4-BF88-4C5F-9095-50DB362F007F}"/>
-    <hyperlink ref="B206" r:id="rId180" display="https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1" xr:uid="{63DD209B-D058-4EA1-AD89-8CA9C20EF6F8}"/>
-    <hyperlink ref="B207" r:id="rId181" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{B92CA23E-DBDD-48FA-B7D4-821DF4453EBB}"/>
-    <hyperlink ref="B208" r:id="rId182" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{6CB56007-03CC-4203-8B4D-D008B72C54F9}"/>
-    <hyperlink ref="B209" r:id="rId183" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{99A715E3-B258-401A-8A79-1E89C1D9FDD6}"/>
-    <hyperlink ref="B210" r:id="rId184" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{39E718CA-E21B-4B95-BDE0-5E53FB337B4D}"/>
-    <hyperlink ref="B211" r:id="rId185" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{D40C39A5-A6ED-4546-B852-6A2ABF803AA9}"/>
-    <hyperlink ref="B212" r:id="rId186" display="https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1" xr:uid="{DA847DD5-FAC8-4772-AA8D-E7DC4845CFCD}"/>
-    <hyperlink ref="B213" r:id="rId187" display="https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/" xr:uid="{320F3721-E8AE-46D4-B896-2931DCAE239C}"/>
-    <hyperlink ref="B214" r:id="rId188" display="https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1" xr:uid="{CD090FB3-00A3-4787-8C05-B322956C1AA6}"/>
-    <hyperlink ref="B215" r:id="rId189" display="https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1" xr:uid="{DF59E472-EE82-4A3B-A8FE-92F069D1BC5E}"/>
-    <hyperlink ref="B216" r:id="rId190" display="https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1" xr:uid="{0DDD9A71-EEA4-4F5E-AF8C-DB4BADB7B6C6}"/>
-    <hyperlink ref="B217" r:id="rId191" display="https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1" xr:uid="{776C4D10-7153-423B-86BB-DABC35863D3A}"/>
-    <hyperlink ref="B218" r:id="rId192" display="https://leetcode.com/problems/same-tree/" xr:uid="{0357D8E1-9A98-40BD-A43D-07E2D4D63B93}"/>
-    <hyperlink ref="B219" r:id="rId193" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5723E86B-BF6B-4BE5-9361-C6D0D5E0D139}"/>
-    <hyperlink ref="B220" r:id="rId194" display="https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1" xr:uid="{28004DCD-474B-4DCF-AD0D-53BD4EB5854C}"/>
-    <hyperlink ref="B221" r:id="rId195" display="https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1" xr:uid="{0FCE17F2-8CD6-415F-B4B9-874119B741B8}"/>
-    <hyperlink ref="B222" r:id="rId196" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{79E52CAC-9AD3-4313-835F-3DA3C1B23665}"/>
-    <hyperlink ref="B223" r:id="rId197" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{B69433D2-AE46-4B83-8E08-F421D393C633}"/>
-    <hyperlink ref="B224" r:id="rId198" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/" xr:uid="{BA5241CA-D6D6-47FD-8A0A-580DCFE3329E}"/>
-    <hyperlink ref="B225" r:id="rId199" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{557D3911-CD16-4D1A-B10D-DE278B1E5176}"/>
-    <hyperlink ref="B226" r:id="rId200" display="https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/" xr:uid="{9793E8E7-0506-4423-9073-03D483432976}"/>
-    <hyperlink ref="B227" r:id="rId201" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/ - :~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{CA5A75C0-C7D6-4157-A750-2252E85FA351}"/>
-    <hyperlink ref="B228" r:id="rId202" display="https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1" xr:uid="{62427FE8-024E-43B4-9CD6-EC2E89C2CDC5}"/>
-    <hyperlink ref="B229" r:id="rId203" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="https://www.geeksforgeeks.org/check-given-graph-tree/ - :~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{830CB38A-2464-4959-A0D3-4CBBC28DA347}"/>
-    <hyperlink ref="B230" r:id="rId204" display="https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1" xr:uid="{9FAE8082-D639-4C53-8A2E-A85A05245E0A}"/>
-    <hyperlink ref="B231" r:id="rId205" display="https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1" xr:uid="{45CC228B-B276-436A-9E75-AD48BEB10878}"/>
-    <hyperlink ref="B232" r:id="rId206" display="https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1" xr:uid="{14EFE929-ED4A-468F-81CE-8B37E90B9896}"/>
-    <hyperlink ref="B233" r:id="rId207" display="https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/" xr:uid="{F519FA07-6651-4C3A-A75C-D1F2E5DB9005}"/>
-    <hyperlink ref="B234" r:id="rId208" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{C29FD7BD-C7E5-42A1-B760-C613D0FDD55B}"/>
-    <hyperlink ref="B235" r:id="rId209" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3B6A700B-462A-40BB-8912-569FFDEB7B2C}"/>
-    <hyperlink ref="B236" r:id="rId210" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{D924AB89-25CE-4DAD-88E6-B076D456B16F}"/>
-    <hyperlink ref="B237" r:id="rId211" display="https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{B8FCE6A6-158E-4065-833A-E8A83583DF8D}"/>
-    <hyperlink ref="B240" r:id="rId212" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{6CA6BCE4-F170-4F2C-82DF-90C47E945A43}"/>
-    <hyperlink ref="B241" r:id="rId213" display="https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/" xr:uid="{0183F0CE-B239-4615-B110-BC44FBBC86EB}"/>
-    <hyperlink ref="B242" r:id="rId214" display="https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1" xr:uid="{A99A299C-A29C-43B9-AC58-5866022ECE36}"/>
-    <hyperlink ref="B243" r:id="rId215" display="https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1" xr:uid="{B976DCE3-7C3B-49E5-9189-51382CE3EEFD}"/>
-    <hyperlink ref="B244" r:id="rId216" display="https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1" xr:uid="{9DC892E6-60A9-4AB2-9954-ECD67E02AC63}"/>
-    <hyperlink ref="B245" r:id="rId217" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1" xr:uid="{BCC9C9C8-0F09-491C-9B38-1F11D5BA5D4D}"/>
-    <hyperlink ref="B246" r:id="rId218" display="https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1" xr:uid="{6D292837-628A-43C9-817C-C579A02D58E8}"/>
-    <hyperlink ref="B247" r:id="rId219" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C52BF2-3674-4A59-92B9-F7EE5C3F23EC}"/>
-    <hyperlink ref="B248" r:id="rId220" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{6BEFBB9B-564C-433C-9AEF-EDFCE49FD3AC}"/>
-    <hyperlink ref="B249" r:id="rId221" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{390D6428-7736-4C83-9764-BF917EF4BF54}"/>
-    <hyperlink ref="B250" r:id="rId222" display="https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/" xr:uid="{0733896D-A63E-4D3B-BE5B-61E4EEA82F24}"/>
-    <hyperlink ref="B251" r:id="rId223" display="https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1" xr:uid="{68A6AA45-EF48-4EBF-81A8-8AC013DA66C3}"/>
-    <hyperlink ref="B252" r:id="rId224" display="https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1" xr:uid="{E3A8ACAC-2897-4E00-B2DC-08594FF8B347}"/>
-    <hyperlink ref="B253" r:id="rId225" display="https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1" xr:uid="{561742FE-426C-484C-BB1B-FAEF3E4B0215}"/>
-    <hyperlink ref="B254" r:id="rId226" display="https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/" xr:uid="{5F91FD80-5308-497D-872B-1DFFF240BC53}"/>
-    <hyperlink ref="B255" r:id="rId227" display="https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/" xr:uid="{94986362-5B0F-4454-BAAB-5D58E8C2EC29}"/>
-    <hyperlink ref="B256" r:id="rId228" display="https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/" xr:uid="{F5B4D9B8-9C1D-4092-9B7E-23F08DC4A6B7}"/>
-    <hyperlink ref="B257" r:id="rId229" display="https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/" xr:uid="{654189D7-CF88-468B-AF67-95BC63AF54FB}"/>
-    <hyperlink ref="B258" r:id="rId230" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{D60E4D4D-7344-49A5-B6CA-D3FE8837D513}"/>
-    <hyperlink ref="B259" r:id="rId231" display="https://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{E65BFA52-6C04-4DA2-808B-C66539D616EB}"/>
-    <hyperlink ref="B260" r:id="rId232" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{FEF7E8B4-879D-4DC1-B072-0C058281B60E}"/>
-    <hyperlink ref="B263" r:id="rId233" display="https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/" xr:uid="{1ACDFBF2-AAD6-4CE1-BA67-1DFE8BF5E2EE}"/>
-    <hyperlink ref="B264" r:id="rId234" display="https://www.geeksforgeeks.org/heap-sort/" xr:uid="{E9659E14-424E-403C-998F-15802B837B82}"/>
-    <hyperlink ref="B265" r:id="rId235" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{A58699C3-FE4A-4BB7-89B3-2F2D6776F7B4}"/>
-    <hyperlink ref="B266" r:id="rId236" display="https://www.geeksforgeeks.org/k-largestor-smallest-elements-in-an-array/" xr:uid="{F177F08A-6F18-414E-A8A8-19224CD63040}"/>
-    <hyperlink ref="B267" r:id="rId237" display="https://www.geeksforgeeks.org/next-greater-element/" xr:uid="{5D56F7B2-E2D6-4BF3-8822-60A9F9A1A89E}"/>
-    <hyperlink ref="B268" r:id="rId238" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/" xr:uid="{C85E2B3C-B113-4630-BE61-A8451738DFDF}"/>
-    <hyperlink ref="B269" r:id="rId239" display="https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/" xr:uid="{2A8358EE-CB91-427B-8DCB-FA05B5D5AC0B}"/>
-    <hyperlink ref="B270" r:id="rId240" display="https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/" xr:uid="{DCB912F2-0909-4261-92C0-425D568D6C14}"/>
-    <hyperlink ref="B271" r:id="rId241" display="https://www.geeksforgeeks.org/find-k-closest-elements-given-value/" xr:uid="{80012E70-1D17-42A1-8907-F20C0E26835F}"/>
-    <hyperlink ref="B272" r:id="rId242" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/" xr:uid="{CDBD7697-C54A-4DCE-B47A-5C73DF784D64}"/>
-    <hyperlink ref="B273" r:id="rId243" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/" xr:uid="{9C854B1C-CADE-4B26-B5DE-EC3DAC91DDF5}"/>
-    <hyperlink ref="B274" r:id="rId244" display="https://www.geeksforgeeks.org/cuckoo-hashing/" xr:uid="{9FDFE3CE-4EF3-4103-A54A-E3CC242F5F8E}"/>
-    <hyperlink ref="B275" r:id="rId245" display="https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/" xr:uid="{82E3814C-7C7D-4DEE-B8D4-0BFBB9F72B08}"/>
-    <hyperlink ref="B276" r:id="rId246" display="http://geeksforgeeks.org/find-the-largest-subarray-with-0-sum/" xr:uid="{1E649056-4E8E-459D-BD5C-B76B60555A10}"/>
-    <hyperlink ref="B277" r:id="rId247" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/" xr:uid="{31A4D75B-4D4F-4C52-BBC8-B2AF50CBA1CF}"/>
-    <hyperlink ref="B278" r:id="rId248" display="https://www.geeksforgeeks.org/group-shifted-string/" xr:uid="{E415AFD3-51C8-4FAD-9DA0-3589FA1A77A1}"/>
-    <hyperlink ref="B279" r:id="rId249" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{41CCAF3D-E871-445F-9362-E84B5078CB96}"/>
-    <hyperlink ref="B280" r:id="rId250" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{851C8A69-F4BF-45A6-8A21-2950DF5B8162}"/>
-    <hyperlink ref="B281" r:id="rId251" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/" xr:uid="{681F4180-0C2F-4286-9243-5621FD4DD7D9}"/>
-    <hyperlink ref="B282" r:id="rId252" display="https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/" xr:uid="{742A6F9E-8B05-477A-B126-5E2F530A31E7}"/>
-    <hyperlink ref="B283" r:id="rId253" display="https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/" xr:uid="{BBED1C45-2717-47E0-AD7C-D427A7FBA6B7}"/>
-    <hyperlink ref="B284" r:id="rId254" display="https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/" xr:uid="{96051EED-F95A-48E6-9582-4E28E0F33AC7}"/>
-    <hyperlink ref="B285" r:id="rId255" display="https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/" xr:uid="{EDE4321E-A0B0-4B08-9353-ECCC877F1101}"/>
-    <hyperlink ref="B286" r:id="rId256" display="https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/" xr:uid="{3C477D79-14B6-4E02-A353-FD71EF82D549}"/>
-    <hyperlink ref="B287" r:id="rId257" display="https://www.geeksforgeeks.org/palindrome-substring-queries/" xr:uid="{B0F83B08-F3E4-44CB-A9D1-CAF7376B4438}"/>
-    <hyperlink ref="B288" r:id="rId258" display="https://www.geeksforgeeks.org/subarrays-distinct-elements/" xr:uid="{EE62ADA5-C53E-4AF8-9A02-20515605BE35}"/>
-    <hyperlink ref="B289" r:id="rId259" display="https://www.geeksforgeeks.org/find-recurring-sequence-fraction/" xr:uid="{718BC6A1-3B06-4F96-979A-884CA2F08368}"/>
-    <hyperlink ref="B290" r:id="rId260" display="https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/" xr:uid="{FE69B827-D1D8-4927-9125-0C167A3E7414}"/>
-    <hyperlink ref="B293" r:id="rId261" display="https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1" xr:uid="{ABC8E165-2CAD-48FA-9368-5BE7306273F0}"/>
-    <hyperlink ref="B294" r:id="rId262" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/" xr:uid="{2F69369B-FC75-4B2B-AD26-E2ACFC0F033A}"/>
-    <hyperlink ref="B295" r:id="rId263" display="https://leetcode.com/problems/flood-fill/" xr:uid="{741DDDA5-CE9C-43A0-B0FC-0ECEC7432BE7}"/>
-    <hyperlink ref="B296" r:id="rId264" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{B62641B6-50ED-440E-BF8F-8B551E7CA78B}"/>
-    <hyperlink ref="B297" r:id="rId265" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{1CCDA6EA-5E4B-4898-8A49-567BDD37D0A3}"/>
-    <hyperlink ref="B298" r:id="rId266" display="https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1" xr:uid="{0075683A-3B94-4924-8468-40F63A16EA13}"/>
-    <hyperlink ref="B299" r:id="rId267" display="https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1" xr:uid="{6D2C7B5E-FFB0-4EE0-B47A-7F79525BF5E5}"/>
-    <hyperlink ref="B300" r:id="rId268" display="https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1" xr:uid="{FB017537-B17C-48F5-8B41-02B44D7B4E2D}"/>
-    <hyperlink ref="B301" r:id="rId269" display="https://leetcode.com/problems/clone-graph/" xr:uid="{8B1FC085-07E0-4890-84C7-AB3EF30986D6}"/>
-    <hyperlink ref="B302" r:id="rId270" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{DA75AEB8-2320-4E09-9F8C-174D413AFA02}"/>
-    <hyperlink ref="B303" r:id="rId271" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/" xr:uid="{C769ABB5-C00A-4B97-91F9-0784A3108EBE}"/>
-    <hyperlink ref="B304" r:id="rId272" display="https://practice.geeksforgeeks.org/problems/topological-sort/1" xr:uid="{A0B34DD2-3E12-4189-A454-8155976CC47D}"/>
-    <hyperlink ref="B305" r:id="rId273" display="https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/" xr:uid="{22D82A22-92F1-4F1D-8935-13F1A26ECB9A}"/>
-    <hyperlink ref="B306" r:id="rId274" display="https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/" xr:uid="{7FD4AAD5-D948-41E5-A7E7-60346300D285}"/>
-    <hyperlink ref="B307" r:id="rId275" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/" xr:uid="{D1795344-71A0-45A4-B6DB-D218C16DB462}"/>
-    <hyperlink ref="B308" r:id="rId276" display="https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1" xr:uid="{F62A9E0D-9104-4B7F-939D-80A56B97C1E1}"/>
-    <hyperlink ref="B309" r:id="rId277" display="https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/" xr:uid="{482B5209-4E70-4E5B-9240-614142224B17}"/>
-    <hyperlink ref="B310" r:id="rId278" display="https://practice.geeksforgeeks.org/problems/negative-weight-cycle3504/1" xr:uid="{AC3D1F14-A972-4241-86FD-99B6C4DD0331}"/>
-    <hyperlink ref="B311" r:id="rId279" display="https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1" xr:uid="{5AD30927-9325-4ADF-BE09-B135E8F0E9B1}"/>
-    <hyperlink ref="B312" r:id="rId280" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="https://www.geeksforgeeks.org/graph-coloring-applications/ - :~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{BE147614-6015-4D76-908B-15E384125492}"/>
-    <hyperlink ref="B313" r:id="rId281" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{8ACAC68D-9F5F-4AF0-8436-6B2DB1F68807}"/>
-    <hyperlink ref="B314" r:id="rId282" display="https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1" xr:uid="{53F6ED3C-8727-4F7A-8F00-CA45EA7A5CFB}"/>
-    <hyperlink ref="B315" r:id="rId283" display="https://www.hackerrank.com/challenges/journey-to-the-moon/problem" xr:uid="{DA782532-A48A-447E-BC2E-CF1AA2D6DA6A}"/>
-    <hyperlink ref="B316" r:id="rId284" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{234EF5FB-7B73-4284-9BDD-5A1965679D8D}"/>
-    <hyperlink ref="B317" r:id="rId285" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{2AF79C34-C18D-4049-814F-FE7B47178DDF}"/>
-    <hyperlink ref="B318" r:id="rId286" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/description/" xr:uid="{28985ABD-C2BD-4F70-A4FB-B41525A372FD}"/>
-    <hyperlink ref="B319" r:id="rId287" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{E28A04D4-C12B-4A73-BAA8-5EF439051250}"/>
-    <hyperlink ref="B320" r:id="rId288" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{82F9995B-6E99-4646-9821-E5F80ABC5757}"/>
-    <hyperlink ref="B321" r:id="rId289" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{BEFA54CC-0EA3-40AA-8918-3943A7EAAC37}"/>
-    <hyperlink ref="B322" r:id="rId290" display="https://leetcode.com/problems/word-ladder/" xr:uid="{9C182416-01EE-43DD-8993-A21C2F2276A5}"/>
-    <hyperlink ref="B323" r:id="rId291" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{FB62CE13-EE14-4513-98F3-3B51DDB572DB}"/>
-    <hyperlink ref="B324" r:id="rId292" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/" xr:uid="{F07B48C2-A5AE-4CE0-B328-631EF48A3497}"/>
-    <hyperlink ref="B325" r:id="rId293" display="https://www.geeksforgeeks.org/total-number-spanning-trees-graph/" xr:uid="{BC93496C-0BED-46C6-A86E-CA056DE932FA}"/>
-    <hyperlink ref="B326" r:id="rId294" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{EA3DAFC2-BB9F-47D0-A178-7F1314695157}"/>
-    <hyperlink ref="B327" r:id="rId295" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{CC2FD058-9CDA-4448-8222-6406C8B74F2F}"/>
-    <hyperlink ref="B328" r:id="rId296" display="https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/" xr:uid="{4089A0C2-8B1B-436F-B566-E27182B4D99A}"/>
-    <hyperlink ref="B329" r:id="rId297" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{C526389A-404B-4BB3-98A5-45764D094C2E}"/>
-    <hyperlink ref="B330" r:id="rId298" display="https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/" xr:uid="{EFD9120C-C64F-479F-9E69-3994434C75D6}"/>
-    <hyperlink ref="B331" r:id="rId299" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{CF1A8832-3CCF-4365-AA14-BA084A67C0F3}"/>
-    <hyperlink ref="B332" r:id="rId300" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{693AFEB2-B472-452D-B6C6-300BEF5EEE3D}"/>
-    <hyperlink ref="B343" r:id="rId301" display="https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1" xr:uid="{8A893FCA-A40A-42C3-8590-8049299B4806}"/>
-    <hyperlink ref="B344" r:id="rId302" display="https://practice.geeksforgeeks.org/problems/bbt-counter4914/1" xr:uid="{E79761BE-F6BB-416A-9AB4-7357E4A4E934}"/>
-    <hyperlink ref="B345" r:id="rId303" display="https://practice.geeksforgeeks.org/problems/reach-a-given-score-1587115621/1" xr:uid="{B4475273-03EF-4F72-8F87-5790DA65C61B}"/>
-    <hyperlink ref="B346" r:id="rId304" display="https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1" xr:uid="{93EF7F10-7301-4E25-9EF3-4955F91D45EA}"/>
-    <hyperlink ref="B347" r:id="rId305" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{B8297DD3-6F14-4A1A-B4F4-FC592A8D742B}"/>
-    <hyperlink ref="B348" r:id="rId306" display="https://www.geeksforgeeks.org/permutation-coefficient/" xr:uid="{A39CD97F-BBE9-49BF-81D7-F3D5D9230810}"/>
-    <hyperlink ref="B349" r:id="rId307" display="https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence2004/1" xr:uid="{3479FA04-B5F8-4C34-ACFD-DC9C07C7A039}"/>
-    <hyperlink ref="B350" r:id="rId308" display="https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference1533/1" xr:uid="{D0D56D2E-DF88-4B34-A732-316D4E8636E6}"/>
-    <hyperlink ref="B351" r:id="rId309" display="https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1" xr:uid="{C2D9FF12-EDF5-4731-B17D-F8654BFD6A9B}"/>
-    <hyperlink ref="B352" r:id="rId310" display="https://leetcode.com/problems/coin-change/" xr:uid="{11C4FDD6-0928-42F5-A838-BE00AA4E601C}"/>
-    <hyperlink ref="B353" r:id="rId311" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{51B2DDB8-4B7C-4E57-8E18-680AB98677F6}"/>
-    <hyperlink ref="B354" r:id="rId312" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{49459001-227F-4A1E-916C-532BFB5B7551}"/>
-    <hyperlink ref="B355" r:id="rId313" display="https://leetcode.com/problems/word-break/" xr:uid="{BEEDE135-12B8-4F86-880F-3C7CEA459977}"/>
-    <hyperlink ref="B356" r:id="rId314" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{C35DAD21-3D3B-4DAD-B43D-9AB6EB4C31B8}"/>
-    <hyperlink ref="B357" r:id="rId315" display="https://leetcode.com/problems/house-robber/" xr:uid="{8172B215-A0ED-4833-A5C9-144719180D92}"/>
-    <hyperlink ref="B358" r:id="rId316" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{D16D749B-2BCA-4B8B-83F6-63605BFCE00E}"/>
-    <hyperlink ref="B359" r:id="rId317" display="https://leetcode.com/problems/decode-ways/" xr:uid="{9DEB70D8-1411-4700-BF41-7EFAB60D2DDC}"/>
-    <hyperlink ref="B360" r:id="rId318" display="https://leetcode.com/problems/unique-paths/" xr:uid="{6DC8F847-BC5F-4F4E-9024-3B3BAD4E7B71}"/>
-    <hyperlink ref="B361" r:id="rId319" display="https://leetcode.com/problems/jump-game/" xr:uid="{36006AED-3098-4C5B-8915-64B52E865D3B}"/>
-    <hyperlink ref="B362" r:id="rId320" display="https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem0945/1" xr:uid="{DD212B1E-89E7-4107-94B4-CC3F41C5C0DB}"/>
-    <hyperlink ref="B363" r:id="rId321" display="https://practice.geeksforgeeks.org/problems/ncr1019/1" xr:uid="{2D1D7511-E837-4AD6-ACBA-01A7DF722170}"/>
-    <hyperlink ref="B364" r:id="rId322" display="https://www.geeksforgeeks.org/program-nth-catalan-number/" xr:uid="{A51E40FE-239F-4B74-9E01-3A5E2B4433F5}"/>
-    <hyperlink ref="B365" r:id="rId323" display="https://practice.geeksforgeeks.org/problems/edit-distance3702/1" xr:uid="{69E86FF8-C63A-499D-B882-1A5E81DC3D55}"/>
-    <hyperlink ref="B366" r:id="rId324" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{A996182D-9759-4302-98A7-6424488966EF}"/>
-    <hyperlink ref="B367" r:id="rId325" display="https://www.geeksforgeeks.org/gold-mine-problem/" xr:uid="{F256E50D-FAAE-4414-A6BE-2CE4AE0A4C47}"/>
-    <hyperlink ref="B368" r:id="rId326" display="https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/" xr:uid="{EEAF8FAA-4CED-4821-8532-DC76A9145ED8}"/>
-    <hyperlink ref="B369" r:id="rId327" display="https://practice.geeksforgeeks.org/problems/cutted-segments1642/1" xr:uid="{0BF7C422-2910-45A1-B052-405EAE5D597D}"/>
-    <hyperlink ref="B370" r:id="rId328" display="https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1" xr:uid="{D30DA670-2542-4011-8820-2FA82E6F5BBA}"/>
-    <hyperlink ref="B371" r:id="rId329" display="https://www.geeksforgeeks.org/count-subsequences-product-less-k/" xr:uid="{5C8203C1-0D80-40B6-8F22-0DFBEE6ACF8C}"/>
-    <hyperlink ref="B372" r:id="rId330" display="https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/" xr:uid="{64A7DB7F-45EA-4DEB-A705-847E7F5F3680}"/>
-    <hyperlink ref="B373" r:id="rId331" display="https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle-1587115620/1" xr:uid="{0F0E9427-70C9-4C93-B6EF-DB2B18247077}"/>
-    <hyperlink ref="B374" r:id="rId332" display="https://practice.geeksforgeeks.org/problems/max-length-chain/1" xr:uid="{DEBAEEBA-22DA-4A50-885A-C63264F06622}"/>
-    <hyperlink ref="B375" r:id="rId333" display="https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix0806/1" xr:uid="{922699D3-8C68-4F50-80F2-D2826FAC27C9}"/>
-    <hyperlink ref="B376" r:id="rId334" display="https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1" xr:uid="{E74E8FA1-10B4-470E-9670-7CEA26CFE365}"/>
-    <hyperlink ref="B377" r:id="rId335" display="https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps-1587115620/1" xr:uid="{044184E6-8A82-408E-8964-204EB1DDF2EA}"/>
-    <hyperlink ref="B378" r:id="rId336" display="http://geeksforgeeks.org/minimum-removals-array-make-max-min-k/" xr:uid="{3A75ACFF-EA70-4E4E-BA9D-42D3903BEABE}"/>
-    <hyperlink ref="B379" r:id="rId337" display="https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1" xr:uid="{AD2315B5-24BB-41F0-A81D-6FE061E3E642}"/>
-    <hyperlink ref="B380" r:id="rId338" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{6E3E7571-EA27-496B-ABA8-F47EE973AD8C}"/>
-    <hyperlink ref="B381" r:id="rId339" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/" xr:uid="{5A893176-9EF5-4E75-AB1A-FA2425F468F1}"/>
-    <hyperlink ref="B382" r:id="rId340" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{515D577F-F89A-48F4-94C6-D9EA4CD0D8B8}"/>
-    <hyperlink ref="B383" r:id="rId341" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{873716DD-9D57-4D10-A162-B9F6D54843BF}"/>
-    <hyperlink ref="B384" r:id="rId342" display="https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence5951/1" xr:uid="{19D8AED6-787B-4976-A849-977CE00D6863}"/>
-    <hyperlink ref="B385" r:id="rId343" display="https://www.geeksforgeeks.org/weighted-job-scheduling/" xr:uid="{8536076C-378E-49A8-80C6-6287B27D763D}"/>
-    <hyperlink ref="B386" r:id="rId344" display="https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/" xr:uid="{16448EBF-6869-4BCE-9E5C-A56DDD203916}"/>
-    <hyperlink ref="B387" r:id="rId345" display="https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/" xr:uid="{725AFF89-D22F-4850-A5C0-42CA830ED664}"/>
-    <hyperlink ref="B388" r:id="rId346" display="https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game-1587115620/1" xr:uid="{6BC5912C-2FF4-4E59-A1EF-B44F99EDC871}"/>
-    <hyperlink ref="B389" r:id="rId347" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{62C9FDB3-AC57-48FF-87D2-D00F91F5F117}"/>
-    <hyperlink ref="B390" r:id="rId348" display="https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1" xr:uid="{111AF162-6104-433C-B1A3-F13852DDED7A}"/>
-    <hyperlink ref="B391" r:id="rId349" display="https://leetcode.com/problems/maximum-length-of-pair-chain/" xr:uid="{52E940A0-1FAE-429A-BB0E-23094D3FBD95}"/>
-    <hyperlink ref="B392" r:id="rId350" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/" xr:uid="{288DF147-214B-4B72-AEF2-A8CB652A02FF}"/>
-    <hyperlink ref="B393" r:id="rId351" display="https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/" xr:uid="{4E68F012-338F-4E9D-80A4-1F7447BB421C}"/>
-    <hyperlink ref="B394" r:id="rId352" display="https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/" xr:uid="{AD781ECE-7545-433A-A34B-718C048C26E9}"/>
-    <hyperlink ref="B395" r:id="rId353" display="https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/" xr:uid="{3A9FF6BA-7F5B-4771-9F12-0B19AB2A9239}"/>
-    <hyperlink ref="B396" r:id="rId354" display="https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/" xr:uid="{F5494180-F6C7-4618-B644-FA3248BB0833}"/>
-    <hyperlink ref="B411" r:id="rId355" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{E6F012F3-FC8F-4347-97B8-DD0FCD7F6243}"/>
-    <hyperlink ref="B412" r:id="rId356" display="https://cp-algorithms.com/sequences/rmq.html" xr:uid="{E3EDA13A-0062-4A3F-A0EC-61D76EA5AA95}"/>
-    <hyperlink ref="B413" r:id="rId357" display="https://leetcode.com/problems/range-sum-query-mutable/" xr:uid="{9DFD2134-0B69-4BFB-80F5-AFC463D7444B}"/>
-    <hyperlink ref="B414" r:id="rId358" display="https://leetcode.com/problems/create-sorted-array-through-instructions/" xr:uid="{45D6BA72-A309-4A99-932F-11A525796EA9}"/>
-    <hyperlink ref="B415" r:id="rId359" display="https://leetcode.com/problems/count-of-range-sum/" xr:uid="{1747861A-8BF6-4335-9960-1FA4B50A1907}"/>
-    <hyperlink ref="B416" r:id="rId360" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{152D2E39-F5D4-4F68-A71A-72D0E2D3523A}"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://www.geeksforgeeks.org/maximum-and-minimum-in-an-array/" xr:uid="{51D958CA-0486-410E-A5AC-62D798BEA06B}"/>
+    <hyperlink ref="B17" r:id="rId3" display="https://www.geeksforgeeks.org/write-a-program-to-reverse-an-array-or-string/" xr:uid="{0512C41D-35CF-43BA-B97A-C917330C22F4}"/>
+    <hyperlink ref="B18" r:id="rId4" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{577D0732-3DAB-43AF-A2AD-E2C89D56E975}"/>
+    <hyperlink ref="B19" r:id="rId5" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{83FC4977-0E82-4A35-80EE-A8384D6B33C1}"/>
+    <hyperlink ref="B20" r:id="rId6" display="https://www.geeksforgeeks.org/chocolate-distribution-problem/" xr:uid="{B6DE30BC-DCEB-4279-A494-B95C36D661C1}"/>
+    <hyperlink ref="B21" r:id="rId7" display="https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/" xr:uid="{E18028E1-42CE-4E55-8BB5-20C8373ED9C0}"/>
+    <hyperlink ref="B22" r:id="rId8" display="https://leetcode.com/problems/next-permutation/" xr:uid="{E32B1AA9-41FE-42F0-9165-0E2DB4BCD9F0}"/>
+    <hyperlink ref="B23" r:id="rId9" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{08267737-4BED-45C0-96E9-C47F847C2351}"/>
+    <hyperlink ref="B24" r:id="rId10" display="https://www.interviewbit.com/problems/repeat-and-missing-number-array/" xr:uid="{40ACD858-E940-4B64-BEB9-E9B1F1ACB68D}"/>
+    <hyperlink ref="B25" r:id="rId11" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{28CA8B83-2403-4851-8A06-F95A33AD39E2}"/>
+    <hyperlink ref="B26" r:id="rId12" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{4E75929F-07B2-4DDD-B996-188F489FFE57}"/>
+    <hyperlink ref="B27" r:id="rId13" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{DD5C3EDA-1625-47D6-B0D1-36F99F098CBE}"/>
+    <hyperlink ref="B28" r:id="rId14" display="https://leetcode.com/problems/maximum-product-subarray/" xr:uid="{8CBCEB5A-DE18-4EE6-A219-25B3BEEFA87C}"/>
+    <hyperlink ref="B29" r:id="rId15" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{45396D4D-C246-499A-A2D3-AE9DC97EA9F2}"/>
+    <hyperlink ref="B30" r:id="rId16" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{76C42B3B-3F61-4FC6-B502-02DA2E7B9E72}"/>
+    <hyperlink ref="B31" r:id="rId17" display="https://leetcode.com/problems/3sum/" xr:uid="{9DAF68C7-9670-4257-AC8A-4B7835D8BBBA}"/>
+    <hyperlink ref="B32" r:id="rId18" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{AAE54B70-88D0-4004-9A55-DA560F671D9D}"/>
+    <hyperlink ref="B33" r:id="rId19" display="https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/" xr:uid="{D242FB87-E1FF-4441-9A37-4F36D65BA0C8}"/>
+    <hyperlink ref="B34" r:id="rId20" display="https://practice.geeksforgeeks.org/problems/kth-smallest-element5635/1" xr:uid="{34C4B842-F6C5-471C-8E43-9B40AB34E111}"/>
+    <hyperlink ref="B35" r:id="rId21" display="https://www.geeksforgeeks.org/merging-intervals/" xr:uid="{5855ECB8-816B-4EA6-9183-CD8713AF4435}"/>
+    <hyperlink ref="B36" r:id="rId22" display="https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/" xr:uid="{076A1D69-7B5B-4B47-8475-FBDEEA04109E}"/>
+    <hyperlink ref="B37" r:id="rId23" display="https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/" xr:uid="{F421CCEC-CFEA-46D0-877C-39D39866B6AF}"/>
+    <hyperlink ref="B38" r:id="rId24" display="https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/" xr:uid="{1E6FA3F2-40B3-4027-85D8-1200A97A0FD6}"/>
+    <hyperlink ref="B39" r:id="rId25" display="https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/" xr:uid="{B2BAD268-5614-4E00-BD8E-3F5D7742C0F9}"/>
+    <hyperlink ref="B40" r:id="rId26" display="https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/" xr:uid="{1F2D2A8A-AD4D-4A52-823C-C21845D1AE1C}"/>
+    <hyperlink ref="B41" r:id="rId27" display="https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/" xr:uid="{8F54270C-8981-4C69-A77E-10E54E1015D5}"/>
+    <hyperlink ref="B44" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{B9F0D64F-96DD-4592-8A9E-EAC7F397CD66}"/>
+    <hyperlink ref="B45" r:id="rId29" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{7D69281E-5D1A-4DB8-AA7A-9CDD1808F001}"/>
+    <hyperlink ref="B46" r:id="rId30" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{58271F49-BC9F-4054-A59D-EC33F4C86473}"/>
+    <hyperlink ref="B47" r:id="rId31" display="https://practice.geeksforgeeks.org/problems/consecutive-elements2306/1" xr:uid="{F492A750-5FA2-4ABF-A0FD-0CBA4148254C}"/>
+    <hyperlink ref="B48" r:id="rId32" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{1A6AE95D-88DA-4B3C-881E-233F0E364ED4}"/>
+    <hyperlink ref="B49" r:id="rId33" display="https://www.geeksforgeeks.org/convert-sentence-equivalent-mobile-numeric-keypad-sequence/" xr:uid="{62CC0FC5-1D49-4F38-9A72-4E75157F9FA3}"/>
+    <hyperlink ref="B50" r:id="rId34" display="https://www.geeksforgeeks.org/print-all-the-duplicates-in-the-input-string/" xr:uid="{F3523005-398D-4179-81C3-E47FDBFC505E}"/>
+    <hyperlink ref="B51" r:id="rId35" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{80ABA343-0DD5-49DD-BD4F-007F20AA1695}"/>
+    <hyperlink ref="B52" r:id="rId36" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{4A7FA105-2FD0-4745-8974-629DE304E90D}"/>
+    <hyperlink ref="B53" r:id="rId37" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{2C94B95D-F30A-4839-921D-2DBA239A6540}"/>
+    <hyperlink ref="B54" r:id="rId38" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{DE9240B9-BF73-4116-A4C4-CB445128F5B6}"/>
+    <hyperlink ref="B55" r:id="rId39" display="https://leetcode.com/problems/palindromic-substrings/" xr:uid="{E4598453-ECE5-4B60-BA5B-01B1036DF73A}"/>
+    <hyperlink ref="B56" r:id="rId40" display="https://practice.geeksforgeeks.org/problems/next-permutation5226/1" xr:uid="{A4D6F006-8888-41F3-B8D8-23B1D0481D72}"/>
+    <hyperlink ref="B57" r:id="rId41" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{D6D7BC0D-DEB7-41A7-A403-519D22CC9D80}"/>
+    <hyperlink ref="B58" r:id="rId42" display="https://practice.geeksforgeeks.org/problems/smallest-window-in-a-string-containing-all-the-characters-of-another-string-1587115621/1" xr:uid="{CC575A49-5AB7-44F1-AAFB-4F118D6A35B1}"/>
+    <hyperlink ref="B59" r:id="rId43" display="https://practice.geeksforgeeks.org/problems/wildcard-string-matching1126/1" xr:uid="{4A8A749E-F309-43C5-99F3-EF15D51929A9}"/>
+    <hyperlink ref="B60" r:id="rId44" display="https://practice.geeksforgeeks.org/problems/longest-prefix-suffix2527/1" xr:uid="{C645B686-0B2F-4CFC-8D5B-EA4EF695FEAE}"/>
+    <hyperlink ref="B61" r:id="rId45" display="https://www.geeksforgeeks.org/rabin-karp-algorithm-for-pattern-searching/" xr:uid="{1D81BBF5-4E4A-4130-A4E0-28088AF942EE}"/>
+    <hyperlink ref="B62" r:id="rId46" display="https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/" xr:uid="{93F41BFB-7B0E-45C6-88EB-3F214E67D3E2}"/>
+    <hyperlink ref="B63" r:id="rId47" display="https://leetcode.com/problems/minimum-window-substring/" xr:uid="{C5FFB199-55B7-431F-B8AC-6FD2E6DF2DC8}"/>
+    <hyperlink ref="B64" r:id="rId48" display="https://www.geeksforgeeks.org/boyer-moore-algorithm-for-pattern-searching/" xr:uid="{033A4F56-8A90-44C5-BD97-A852224BAB76}"/>
+    <hyperlink ref="B65" r:id="rId49" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{35DC7FAA-00DF-4AA9-83CE-6DC0ABB461CA}"/>
+    <hyperlink ref="B68" r:id="rId50" display="https://www.geeksforgeeks.org/zigzag-or-diagonal-traversal-of-matrix/" xr:uid="{E764D702-912C-4EBA-AF5A-E509D8FA414C}"/>
+    <hyperlink ref="B69" r:id="rId51" display="https://leetcode.com/problems/set-matrix-zeroes/" xr:uid="{6B005B91-10AE-4746-8A1B-2DDFE6F31637}"/>
+    <hyperlink ref="B70" r:id="rId52" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{517DE728-0FBE-48D8-A6F5-A4CE2E526007}"/>
+    <hyperlink ref="B71" r:id="rId53" display="https://leetcode.com/problems/rotate-image/" xr:uid="{9172A3B2-301F-45A8-B038-60D8B2B1B262}"/>
+    <hyperlink ref="B72" r:id="rId54" display="https://leetcode.com/problems/word-search/" xr:uid="{956D36EF-A74A-42E9-83D9-FCD12AA36DDE}"/>
+    <hyperlink ref="B73" r:id="rId55" display="https://www.geeksforgeeks.org/find-number-of-islands/" xr:uid="{CCF3B1CC-196F-4675-923F-86265D372DEA}"/>
+    <hyperlink ref="B74" r:id="rId56" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/" xr:uid="{90890F2C-00F0-4CAA-9763-1F80E182C083}"/>
+    <hyperlink ref="B75" r:id="rId57" display="https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/" xr:uid="{C37B2970-0B5E-493A-B627-732FDD7E8677}"/>
+    <hyperlink ref="B76" r:id="rId58" display="https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/" xr:uid="{45A7A3D0-5514-4725-BF25-1BAE4B35841C}"/>
+    <hyperlink ref="B77" r:id="rId59" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/" xr:uid="{563C69B2-B43A-498F-9EC9-E402783619F5}"/>
+    <hyperlink ref="B80" r:id="rId60" display="https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/" xr:uid="{3FF419AE-1583-41D8-B526-BAD813744BAC}"/>
+    <hyperlink ref="B81" r:id="rId61" display="https://www.geeksforgeeks.org/counting-sort/" xr:uid="{DED9AE81-E066-49AF-9A83-2392F7DC91AD}"/>
+    <hyperlink ref="B82" r:id="rId62" display="https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/" xr:uid="{4D1F2379-067A-489D-9364-E17920740D24}"/>
+    <hyperlink ref="B83" r:id="rId63" display="https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/" xr:uid="{89DACB91-5737-4332-845C-7D874928131F}"/>
+    <hyperlink ref="B84" r:id="rId64" display="https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/" xr:uid="{E84DBDF5-53A6-4ECB-ADB8-1846C270F7CF}"/>
+    <hyperlink ref="B85" r:id="rId65" display="https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/" xr:uid="{D7B066E6-7296-42FF-ABE0-CD0DB3FDB8BA}"/>
+    <hyperlink ref="B86" r:id="rId66" display="https://www.geeksforgeeks.org/majority-element/" xr:uid="{15BD9A55-840F-4640-9BBB-E2B3E0CAD085}"/>
+    <hyperlink ref="B87" r:id="rId67" display="https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/" xr:uid="{3C9049F5-5156-48C6-8D4A-D0B86B8330B3}"/>
+    <hyperlink ref="B88" r:id="rId68" display="https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/" xr:uid="{104B6EC9-B168-4A82-860C-D70D23EB546F}"/>
+    <hyperlink ref="B89" r:id="rId69" display="https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/" xr:uid="{E8CA5071-503B-45DD-9AEE-1BCA60C9F193}"/>
+    <hyperlink ref="B90" r:id="rId70" display="https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1" xr:uid="{CC5A40FE-E0D9-4692-864C-7C3935D1FB12}"/>
+    <hyperlink ref="B91" r:id="rId71" display="https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/" xr:uid="{210B4309-EA45-40D6-B4FA-565DB306DA38}"/>
+    <hyperlink ref="B92" r:id="rId72" display="https://www.geeksforgeeks.org/radix-sort/" xr:uid="{35837A9A-3D6C-4B3C-888B-4BDC0536F3CD}"/>
+    <hyperlink ref="B93" r:id="rId73" display="https://www.geeksforgeeks.org/a-product-array-puzzle/" xr:uid="{4B03A578-6405-4C69-B4B3-97327EB3894D}"/>
+    <hyperlink ref="B94" r:id="rId74" display="https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{FC476393-0D93-486A-B9E4-EE532FEA290A}"/>
+    <hyperlink ref="B95" r:id="rId75" display="https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/" xr:uid="{FC325AD3-0493-48C1-AD97-651EAEA8BF2D}"/>
+    <hyperlink ref="B96" r:id="rId76" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/" xr:uid="{378D8C38-826D-4F6E-9ED3-34FF788FC5B4}"/>
+    <hyperlink ref="B97" r:id="rId77" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/" xr:uid="{CBD0C288-3AC9-4E23-A6CA-228D2D59C839}"/>
+    <hyperlink ref="B98" r:id="rId78" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/" xr:uid="{B770F119-77CF-4BF6-ABCC-0A82E2433D1D}"/>
+    <hyperlink ref="B99" r:id="rId79" display="https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/" xr:uid="{E9C7BEB3-FAEF-496E-8623-A543C4DC3277}"/>
+    <hyperlink ref="B100" r:id="rId80" display="https://www.spoj.com/problems/AGGRCOW/" xr:uid="{CE2FA856-7DC8-4E88-A14C-345196CAE420}"/>
+    <hyperlink ref="B101" r:id="rId81" display="https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1" xr:uid="{426DE4E4-E6A2-4333-9CE1-603032FB7B0A}"/>
+    <hyperlink ref="B102" r:id="rId82" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{BEBD851A-70EC-4501-AF30-D6C5376CEED1}"/>
+    <hyperlink ref="B105" r:id="rId83" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{3C5064CE-5524-45B2-B86B-F310AFC043FC}"/>
+    <hyperlink ref="B106" r:id="rId84" display="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{314ECBCF-A640-44D5-8845-EA3ABDF12C3B}"/>
+    <hyperlink ref="B107" r:id="rId85" display="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{A8C33AEC-D174-4688-83A3-21E8DDF71B84}"/>
+    <hyperlink ref="B108" r:id="rId86" display="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{CB89B281-FE27-42A6-ABE7-D78A86615CEB}"/>
+    <hyperlink ref="B109" r:id="rId87" display="https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/" xr:uid="{86A1357F-BE75-440C-9AFD-C32FA61EF48E}"/>
+    <hyperlink ref="B110" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{BC9F48AA-DDB0-4797-9BA1-B26728278FC6}"/>
+    <hyperlink ref="B111" r:id="rId89" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{7098B477-37B3-4B0A-B84B-6E6208E83D05}"/>
+    <hyperlink ref="B112" r:id="rId90" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{3A0ADF5D-E529-45F3-B0B5-DE1962BAC3C9}"/>
+    <hyperlink ref="B113" r:id="rId91" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{F50BCD80-6FAF-472F-BEC2-8CB6DBAE8D8B}"/>
+    <hyperlink ref="B114" r:id="rId92" display="https://www.geeksforgeeks.org/backtracking-set-7-suduku/" xr:uid="{5FD6CA9D-6BB7-4A8A-8738-9BCCABEE1E46}"/>
+    <hyperlink ref="B115" r:id="rId93" display="https://www.geeksforgeeks.org/remove-invalid-parentheses/" xr:uid="{8F431167-9AC6-47B9-B336-127F6414798E}"/>
+    <hyperlink ref="B116" r:id="rId94" display="https://www.geeksforgeeks.org/word-break-problem-using-backtracking/" xr:uid="{D077C4EA-DA66-4C76-AD15-6882936CC60D}"/>
+    <hyperlink ref="B117" r:id="rId95" display="https://www.geeksforgeeks.org/print-palindromic-partitions-string/" xr:uid="{79252414-642A-411A-A14D-7ADA8685D823}"/>
+    <hyperlink ref="B118" r:id="rId96" display="https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/" xr:uid="{51E9BAAC-2F65-4139-A0D1-314FB1CA2CDE}"/>
+    <hyperlink ref="B119" r:id="rId97" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/" xr:uid="{3A523D4C-792A-4A86-B4B5-68CDA1B35B61}"/>
+    <hyperlink ref="B120" r:id="rId98" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{E386E76E-6DFA-48A4-AF06-35500F74BF0E}"/>
+    <hyperlink ref="B121" r:id="rId99" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{89841927-CDE1-4484-A6CC-0EB772E00C76}"/>
+    <hyperlink ref="B122" r:id="rId100" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/" xr:uid="{4636176E-33AC-449A-9D94-41071DB0119C}"/>
+    <hyperlink ref="B123" r:id="rId101" display="https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/" xr:uid="{CFD2F4A5-82C2-45C4-A105-6C76D0E8703E}"/>
+    <hyperlink ref="B124" r:id="rId102" display="https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/" xr:uid="{023D34E4-7350-41BE-8AD0-3704039C5AF8}"/>
+    <hyperlink ref="B125" r:id="rId103" display="https://www.hackerrank.com/challenges/arithmetic-expressions/problem" xr:uid="{ACAAA5A5-E607-4B57-AFBB-9B42CB1BAB5A}"/>
+    <hyperlink ref="B128" r:id="rId104" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{E9B7716A-EC8C-47B5-9D1A-4DE4DBEEEA28}"/>
+    <hyperlink ref="B129" r:id="rId105" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{C4CA6F51-3256-4077-B4B0-17DEE6A261F3}"/>
+    <hyperlink ref="B130" r:id="rId106" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{303BE593-DC25-424E-86BE-E5F939586796}"/>
+    <hyperlink ref="B131" r:id="rId107" display="https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{49567C02-632D-4738-917F-90FA46802273}"/>
+    <hyperlink ref="B132" r:id="rId108" display="https://www.geeksforgeeks.org/remove-duplicates-from-an-unsorted-linked-list/" xr:uid="{5A533CD1-B6CC-45BB-A793-3E57CC0278C7}"/>
+    <hyperlink ref="B133" r:id="rId109" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{26FC6BEA-5C85-4E69-BEC7-4B692C66034E}"/>
+    <hyperlink ref="B134" r:id="rId110" display="https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{D567922E-E92B-4D64-8D74-C3877F1962D7}"/>
+    <hyperlink ref="B135" r:id="rId111" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{0F66D9FA-3D56-4153-A97F-081D18A1067D}"/>
+    <hyperlink ref="B136" r:id="rId112" display="https://leetcode.com/problems/reorder-list/" xr:uid="{BD8E8013-42A4-4218-BDBD-BD32CB0CACE7}"/>
+    <hyperlink ref="B137" r:id="rId113" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/" xr:uid="{875E1D0A-7CA2-4032-A409-BA51C252AEEF}"/>
+    <hyperlink ref="B138" r:id="rId114" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/" xr:uid="{C8A6C397-29E9-4913-B448-6465E9677E60}"/>
+    <hyperlink ref="B139" r:id="rId115" display="https://www.geeksforgeeks.org/flatten-a-linked-list-with-next-and-child-pointers/" xr:uid="{D5207E44-C260-467B-A6BB-E214290D37F8}"/>
+    <hyperlink ref="B140" r:id="rId116" display="https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{DF551C5D-1B7C-442F-B12B-7C0DE6C864A8}"/>
+    <hyperlink ref="B141" r:id="rId117" display="https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1" xr:uid="{A39DF6A9-03AB-4474-B847-0E9B23840CE8}"/>
+    <hyperlink ref="B142" r:id="rId118" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/" xr:uid="{A64F85A0-93F9-4207-A048-A61627BA8750}"/>
+    <hyperlink ref="B143" r:id="rId119" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{06BAEE8D-76D3-4844-BC4E-43CC5D1AFDE7}"/>
+    <hyperlink ref="B144" r:id="rId120" display="https://www.geeksforgeeks.org/point-to-next-higher-value-node-in-a-linked-list-with-an-arbitrary-pointer/" xr:uid="{072C3A0F-1D80-4DB1-BED9-BB8FB69D76B8}"/>
+    <hyperlink ref="B145" r:id="rId121" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{12DFF55D-1D33-4D63-BC37-74EED812F77A}"/>
+    <hyperlink ref="B146" r:id="rId122" display="https://www.geeksforgeeks.org/sort-biotonic-doubly-linked-list/" xr:uid="{EECE0C9F-DB1E-48A4-9272-7941E941787C}"/>
+    <hyperlink ref="B147" r:id="rId123" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{CCB3DF55-9F47-4652-A0D3-01BFBEBBD114}"/>
+    <hyperlink ref="B148" r:id="rId124" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{D5E9EBF0-DFFC-4FB3-A156-483A7AC6BBED}"/>
+    <hyperlink ref="B149" r:id="rId125" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/" xr:uid="{563AD896-CD19-483C-A7F2-722F0570D83F}"/>
+    <hyperlink ref="B150" r:id="rId126" display="https://www.geeksforgeeks.org/sum-of-two-linked-lists/" xr:uid="{133416C5-F9B7-4C9B-A2E5-2904613A44E1}"/>
+    <hyperlink ref="B151" r:id="rId127" display="https://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{42A61AB0-1780-4863-84A2-13D6862DD568}"/>
+    <hyperlink ref="B152" r:id="rId128" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/" xr:uid="{0FF7DBF2-B8CB-45AA-A6FE-2F05B1FB830D}"/>
+    <hyperlink ref="B153" r:id="rId129" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{68ED9C0B-E45A-425E-9334-8573AEEF863C}"/>
+    <hyperlink ref="B156" r:id="rId130" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{86A92837-522D-40FD-9FB2-E7AE531F2D9B}"/>
+    <hyperlink ref="B157" r:id="rId131" display="https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{E5436E2C-6FCF-4C7F-A903-9B1E325918A9}"/>
+    <hyperlink ref="B158" r:id="rId132" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{F79FB06F-2608-47C2-BC19-CC1C0EB814A6}"/>
+    <hyperlink ref="B159" r:id="rId133" display="https://practice.geeksforgeeks.org/problems/queue-reversal/1" xr:uid="{D0991E87-CE2F-4208-B0A5-FE67F81EFED0}"/>
+    <hyperlink ref="B160" r:id="rId134" display="https://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{28BF0377-E35E-40AD-B25A-13C769A134B7}"/>
+    <hyperlink ref="B161" r:id="rId135" display="https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1" xr:uid="{0A119515-F4F3-42F6-B987-AA169E7189A3}"/>
+    <hyperlink ref="B162" r:id="rId136" display="https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/" xr:uid="{627C7B46-5FC7-43A0-A5F4-82151DE4DCE5}"/>
+    <hyperlink ref="B163" r:id="rId137" display="https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/" xr:uid="{EFAD02CC-0C91-4FDD-B82E-9967554DCFFA}"/>
+    <hyperlink ref="B164" r:id="rId138" display="https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/" xr:uid="{D0A958F2-72ED-4457-86C8-1C8FA560F4D5}"/>
+    <hyperlink ref="B165" r:id="rId139" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/" xr:uid="{CFEA05AC-8BB1-4482-86E5-F7C47BEA439F}"/>
+    <hyperlink ref="B166" r:id="rId140" display="https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/" xr:uid="{4E3FF96A-5354-4885-985C-4F416A2A1395}"/>
+    <hyperlink ref="B167" r:id="rId141" display="https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/" xr:uid="{935FECFC-420F-483F-83DB-E42774297C2F}"/>
+    <hyperlink ref="B168" r:id="rId142" display="https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/" xr:uid="{0983B438-6B09-4883-B912-C6B0937102C8}"/>
+    <hyperlink ref="B169" r:id="rId143" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/" xr:uid="{F0060024-D8D7-42F1-AC2B-349933BF69E3}"/>
+    <hyperlink ref="B170" r:id="rId144" display="https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/" xr:uid="{CC981A73-142E-436D-8EDD-06034CA16EFC}"/>
+    <hyperlink ref="B171" r:id="rId145" display="https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1" xr:uid="{C9ACE923-CF43-4898-A2BC-57798A187178}"/>
+    <hyperlink ref="B172" r:id="rId146" display="https://practice.geeksforgeeks.org/problems/next-larger-element-1587115620/1" xr:uid="{7FF74613-68C1-4810-A798-EB66306A5B13}"/>
+    <hyperlink ref="B173" r:id="rId147" display="https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1" xr:uid="{0EDFC38D-DF16-4E95-81EC-69E94BAD5461}"/>
+    <hyperlink ref="B174" r:id="rId148" display="https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1" xr:uid="{2AA0E1BC-070A-4AFF-BEA9-E365F84BDB02}"/>
+    <hyperlink ref="B175" r:id="rId149" display="https://www.geeksforgeeks.org/next-smaller-element/" xr:uid="{CBE283B3-0BAF-431E-9677-BF2E10847922}"/>
+    <hyperlink ref="B176" r:id="rId150" display="https://practice.geeksforgeeks.org/problems/circular-tour/1" xr:uid="{7C61C98C-3C9D-4C79-AE62-92403450305C}"/>
+    <hyperlink ref="B177" r:id="rId151" display="https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/" xr:uid="{D012EA64-C327-4C38-BFA2-E9D38E202F26}"/>
+    <hyperlink ref="B178" r:id="rId152" display="http://geeksforgeeks.org/the-celebrity-problem/" xr:uid="{EFE704D5-27E9-4514-87DE-007B2642CB88}"/>
+    <hyperlink ref="B179" r:id="rId153" display="https://www.geeksforgeeks.org/iterative-tower-of-hanoi/" xr:uid="{66CCA9E0-6B97-4184-9982-9992C5F400B2}"/>
+    <hyperlink ref="B180" r:id="rId154" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{62A3A75E-FC65-4AE3-A002-70D8611933F3}"/>
+    <hyperlink ref="B181" r:id="rId155" display="https://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{13B805BB-5050-4DAD-877E-74BCA9FD0C9D}"/>
+    <hyperlink ref="B182" r:id="rId156" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/" xr:uid="{16BB3746-D1D6-4B4F-B652-C6831A9A8718}"/>
+    <hyperlink ref="B185" r:id="rId157" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/" xr:uid="{014879DD-29E8-4724-A29C-B33FCEEB02A7}"/>
+    <hyperlink ref="B186" r:id="rId158" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/" xr:uid="{6DCF2FED-96E0-4252-99A3-657253C2BF7B}"/>
+    <hyperlink ref="B187" r:id="rId159" display="https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/" xr:uid="{02748D7E-93E4-49A6-88ED-98C50E8B3A1A}"/>
+    <hyperlink ref="B188" r:id="rId160" display="https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/" xr:uid="{A5BB834B-E6F2-4A58-B9AA-7E0E279C63E6}"/>
+    <hyperlink ref="B189" r:id="rId161" display="https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/" xr:uid="{F41CBF7F-EAD5-4B78-8F97-C4A0E07998F3}"/>
+    <hyperlink ref="B190" r:id="rId162" display="https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/" xr:uid="{D502C2E0-791A-492E-95BD-9726C97D1E7B}"/>
+    <hyperlink ref="B191" r:id="rId163" display="http://geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/" xr:uid="{463D8B60-1BE4-4375-89E3-4F6B0F3ABC36}"/>
+    <hyperlink ref="B192" r:id="rId164" display="https://www.geeksforgeeks.org/job-sequencing-problem/" xr:uid="{CD429159-5713-45F0-B337-A0CD2807CE36}"/>
+    <hyperlink ref="B193" r:id="rId165" display="https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/" xr:uid="{D13CF838-6511-4517-BFBB-7D5B356647A7}"/>
+    <hyperlink ref="B194" r:id="rId166" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/" xr:uid="{6007E444-ED00-4D79-BFFF-2C1310406CFD}"/>
+    <hyperlink ref="B195" r:id="rId167" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/" xr:uid="{CAFC2998-92C3-40A7-A30F-F38692625A89}"/>
+    <hyperlink ref="B196" r:id="rId168" display="https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/" xr:uid="{492C6969-F1B4-4EC8-A2C5-E67C8F91B135}"/>
+    <hyperlink ref="B197" r:id="rId169" display="https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/" xr:uid="{10B29234-3BD5-4B52-A8E7-382DB5F19EC1}"/>
+    <hyperlink ref="B198" r:id="rId170" display="https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/" xr:uid="{9F7CB75A-D667-478B-B143-0ED61A9CF5F6}"/>
+    <hyperlink ref="B199" r:id="rId171" display="http://geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/" xr:uid="{0622D3F1-B379-4AF9-98B1-ED321C9798B0}"/>
+    <hyperlink ref="B200" r:id="rId172" display="https://www.spoj.com/problems/CHOCOLA/" xr:uid="{5082909A-B375-4F18-8222-F74B7B999CAB}"/>
+    <hyperlink ref="B201" r:id="rId173" display="https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/" xr:uid="{FDE216CC-72B3-45AA-8307-255C84F9ACFB}"/>
+    <hyperlink ref="B202" r:id="rId174" display="https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/" xr:uid="{C4A45EF9-181C-4DF0-92EC-F5AF927CB613}"/>
+    <hyperlink ref="B203" r:id="rId175" display="https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/" xr:uid="{06F6F1CE-0ED8-4405-9C2B-2EC9C2E6C2AA}"/>
+    <hyperlink ref="B204" r:id="rId176" display="https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/" xr:uid="{CE37A2C5-2A0D-4C73-859A-B1104F3E1425}"/>
+    <hyperlink ref="B205" r:id="rId177" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{CD1EB722-2757-4144-BBAD-45C0D8CE77F1}"/>
+    <hyperlink ref="B206" r:id="rId178" display="https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/" xr:uid="{59BFBA0A-8DD7-4B01-BCE2-08ECE054E96A}"/>
+    <hyperlink ref="B209" r:id="rId179" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{AD38B9B4-BF88-4C5F-9095-50DB362F007F}"/>
+    <hyperlink ref="B210" r:id="rId180" display="https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1" xr:uid="{63DD209B-D058-4EA1-AD89-8CA9C20EF6F8}"/>
+    <hyperlink ref="B211" r:id="rId181" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{B92CA23E-DBDD-48FA-B7D4-821DF4453EBB}"/>
+    <hyperlink ref="B212" r:id="rId182" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{6CB56007-03CC-4203-8B4D-D008B72C54F9}"/>
+    <hyperlink ref="B213" r:id="rId183" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{99A715E3-B258-401A-8A79-1E89C1D9FDD6}"/>
+    <hyperlink ref="B214" r:id="rId184" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{39E718CA-E21B-4B95-BDE0-5E53FB337B4D}"/>
+    <hyperlink ref="B215" r:id="rId185" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{D40C39A5-A6ED-4546-B852-6A2ABF803AA9}"/>
+    <hyperlink ref="B216" r:id="rId186" display="https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1" xr:uid="{DA847DD5-FAC8-4772-AA8D-E7DC4845CFCD}"/>
+    <hyperlink ref="B217" r:id="rId187" display="https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/" xr:uid="{320F3721-E8AE-46D4-B896-2931DCAE239C}"/>
+    <hyperlink ref="B218" r:id="rId188" display="https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1" xr:uid="{CD090FB3-00A3-4787-8C05-B322956C1AA6}"/>
+    <hyperlink ref="B219" r:id="rId189" display="https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1" xr:uid="{DF59E472-EE82-4A3B-A8FE-92F069D1BC5E}"/>
+    <hyperlink ref="B220" r:id="rId190" display="https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1" xr:uid="{0DDD9A71-EEA4-4F5E-AF8C-DB4BADB7B6C6}"/>
+    <hyperlink ref="B221" r:id="rId191" display="https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1" xr:uid="{776C4D10-7153-423B-86BB-DABC35863D3A}"/>
+    <hyperlink ref="B222" r:id="rId192" display="https://leetcode.com/problems/same-tree/" xr:uid="{0357D8E1-9A98-40BD-A43D-07E2D4D63B93}"/>
+    <hyperlink ref="B223" r:id="rId193" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5723E86B-BF6B-4BE5-9361-C6D0D5E0D139}"/>
+    <hyperlink ref="B224" r:id="rId194" display="https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1" xr:uid="{28004DCD-474B-4DCF-AD0D-53BD4EB5854C}"/>
+    <hyperlink ref="B225" r:id="rId195" display="https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1" xr:uid="{0FCE17F2-8CD6-415F-B4B9-874119B741B8}"/>
+    <hyperlink ref="B226" r:id="rId196" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{79E52CAC-9AD3-4313-835F-3DA3C1B23665}"/>
+    <hyperlink ref="B227" r:id="rId197" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{B69433D2-AE46-4B83-8E08-F421D393C633}"/>
+    <hyperlink ref="B228" r:id="rId198" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/" xr:uid="{BA5241CA-D6D6-47FD-8A0A-580DCFE3329E}"/>
+    <hyperlink ref="B229" r:id="rId199" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{557D3911-CD16-4D1A-B10D-DE278B1E5176}"/>
+    <hyperlink ref="B230" r:id="rId200" display="https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/" xr:uid="{9793E8E7-0506-4423-9073-03D483432976}"/>
+    <hyperlink ref="B231" r:id="rId201" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/ - :~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{CA5A75C0-C7D6-4157-A750-2252E85FA351}"/>
+    <hyperlink ref="B232" r:id="rId202" display="https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1" xr:uid="{62427FE8-024E-43B4-9CD6-EC2E89C2CDC5}"/>
+    <hyperlink ref="B233" r:id="rId203" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="https://www.geeksforgeeks.org/check-given-graph-tree/ - :~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{830CB38A-2464-4959-A0D3-4CBBC28DA347}"/>
+    <hyperlink ref="B234" r:id="rId204" display="https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1" xr:uid="{9FAE8082-D639-4C53-8A2E-A85A05245E0A}"/>
+    <hyperlink ref="B235" r:id="rId205" display="https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1" xr:uid="{45CC228B-B276-436A-9E75-AD48BEB10878}"/>
+    <hyperlink ref="B236" r:id="rId206" display="https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1" xr:uid="{14EFE929-ED4A-468F-81CE-8B37E90B9896}"/>
+    <hyperlink ref="B237" r:id="rId207" display="https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/" xr:uid="{F519FA07-6651-4C3A-A75C-D1F2E5DB9005}"/>
+    <hyperlink ref="B238" r:id="rId208" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{C29FD7BD-C7E5-42A1-B760-C613D0FDD55B}"/>
+    <hyperlink ref="B239" r:id="rId209" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3B6A700B-462A-40BB-8912-569FFDEB7B2C}"/>
+    <hyperlink ref="B240" r:id="rId210" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{D924AB89-25CE-4DAD-88E6-B076D456B16F}"/>
+    <hyperlink ref="B241" r:id="rId211" display="https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{B8FCE6A6-158E-4065-833A-E8A83583DF8D}"/>
+    <hyperlink ref="B244" r:id="rId212" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{6CA6BCE4-F170-4F2C-82DF-90C47E945A43}"/>
+    <hyperlink ref="B245" r:id="rId213" display="https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/" xr:uid="{0183F0CE-B239-4615-B110-BC44FBBC86EB}"/>
+    <hyperlink ref="B246" r:id="rId214" display="https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1" xr:uid="{A99A299C-A29C-43B9-AC58-5866022ECE36}"/>
+    <hyperlink ref="B247" r:id="rId215" display="https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1" xr:uid="{B976DCE3-7C3B-49E5-9189-51382CE3EEFD}"/>
+    <hyperlink ref="B248" r:id="rId216" display="https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1" xr:uid="{9DC892E6-60A9-4AB2-9954-ECD67E02AC63}"/>
+    <hyperlink ref="B249" r:id="rId217" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1" xr:uid="{BCC9C9C8-0F09-491C-9B38-1F11D5BA5D4D}"/>
+    <hyperlink ref="B250" r:id="rId218" display="https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1" xr:uid="{6D292837-628A-43C9-817C-C579A02D58E8}"/>
+    <hyperlink ref="B251" r:id="rId219" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C52BF2-3674-4A59-92B9-F7EE5C3F23EC}"/>
+    <hyperlink ref="B252" r:id="rId220" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{6BEFBB9B-564C-433C-9AEF-EDFCE49FD3AC}"/>
+    <hyperlink ref="B253" r:id="rId221" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{390D6428-7736-4C83-9764-BF917EF4BF54}"/>
+    <hyperlink ref="B254" r:id="rId222" display="https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/" xr:uid="{0733896D-A63E-4D3B-BE5B-61E4EEA82F24}"/>
+    <hyperlink ref="B255" r:id="rId223" display="https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1" xr:uid="{68A6AA45-EF48-4EBF-81A8-8AC013DA66C3}"/>
+    <hyperlink ref="B256" r:id="rId224" display="https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1" xr:uid="{E3A8ACAC-2897-4E00-B2DC-08594FF8B347}"/>
+    <hyperlink ref="B257" r:id="rId225" display="https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1" xr:uid="{561742FE-426C-484C-BB1B-FAEF3E4B0215}"/>
+    <hyperlink ref="B258" r:id="rId226" display="https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/" xr:uid="{5F91FD80-5308-497D-872B-1DFFF240BC53}"/>
+    <hyperlink ref="B259" r:id="rId227" display="https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/" xr:uid="{94986362-5B0F-4454-BAAB-5D58E8C2EC29}"/>
+    <hyperlink ref="B260" r:id="rId228" display="https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/" xr:uid="{F5B4D9B8-9C1D-4092-9B7E-23F08DC4A6B7}"/>
+    <hyperlink ref="B261" r:id="rId229" display="https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/" xr:uid="{654189D7-CF88-468B-AF67-95BC63AF54FB}"/>
+    <hyperlink ref="B262" r:id="rId230" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{D60E4D4D-7344-49A5-B6CA-D3FE8837D513}"/>
+    <hyperlink ref="B263" r:id="rId231" display="https://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{E65BFA52-6C04-4DA2-808B-C66539D616EB}"/>
+    <hyperlink ref="B264" r:id="rId232" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{FEF7E8B4-879D-4DC1-B072-0C058281B60E}"/>
+    <hyperlink ref="B267" r:id="rId233" display="https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/" xr:uid="{1ACDFBF2-AAD6-4CE1-BA67-1DFE8BF5E2EE}"/>
+    <hyperlink ref="B268" r:id="rId234" display="https://www.geeksforgeeks.org/heap-sort/" xr:uid="{E9659E14-424E-403C-998F-15802B837B82}"/>
+    <hyperlink ref="B269" r:id="rId235" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{A58699C3-FE4A-4BB7-89B3-2F2D6776F7B4}"/>
+    <hyperlink ref="B270" r:id="rId236" display="https://www.geeksforgeeks.org/k-largestor-smallest-elements-in-an-array/" xr:uid="{F177F08A-6F18-414E-A8A8-19224CD63040}"/>
+    <hyperlink ref="B271" r:id="rId237" display="https://www.geeksforgeeks.org/next-greater-element/" xr:uid="{5D56F7B2-E2D6-4BF3-8822-60A9F9A1A89E}"/>
+    <hyperlink ref="B272" r:id="rId238" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/" xr:uid="{C85E2B3C-B113-4630-BE61-A8451738DFDF}"/>
+    <hyperlink ref="B273" r:id="rId239" display="https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/" xr:uid="{2A8358EE-CB91-427B-8DCB-FA05B5D5AC0B}"/>
+    <hyperlink ref="B274" r:id="rId240" display="https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/" xr:uid="{DCB912F2-0909-4261-92C0-425D568D6C14}"/>
+    <hyperlink ref="B275" r:id="rId241" display="https://www.geeksforgeeks.org/find-k-closest-elements-given-value/" xr:uid="{80012E70-1D17-42A1-8907-F20C0E26835F}"/>
+    <hyperlink ref="B276" r:id="rId242" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/" xr:uid="{CDBD7697-C54A-4DCE-B47A-5C73DF784D64}"/>
+    <hyperlink ref="B277" r:id="rId243" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/" xr:uid="{9C854B1C-CADE-4B26-B5DE-EC3DAC91DDF5}"/>
+    <hyperlink ref="B278" r:id="rId244" display="https://www.geeksforgeeks.org/cuckoo-hashing/" xr:uid="{9FDFE3CE-4EF3-4103-A54A-E3CC242F5F8E}"/>
+    <hyperlink ref="B279" r:id="rId245" display="https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/" xr:uid="{82E3814C-7C7D-4DEE-B8D4-0BFBB9F72B08}"/>
+    <hyperlink ref="B280" r:id="rId246" display="http://geeksforgeeks.org/find-the-largest-subarray-with-0-sum/" xr:uid="{1E649056-4E8E-459D-BD5C-B76B60555A10}"/>
+    <hyperlink ref="B281" r:id="rId247" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/" xr:uid="{31A4D75B-4D4F-4C52-BBC8-B2AF50CBA1CF}"/>
+    <hyperlink ref="B282" r:id="rId248" display="https://www.geeksforgeeks.org/group-shifted-string/" xr:uid="{E415AFD3-51C8-4FAD-9DA0-3589FA1A77A1}"/>
+    <hyperlink ref="B283" r:id="rId249" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{41CCAF3D-E871-445F-9362-E84B5078CB96}"/>
+    <hyperlink ref="B284" r:id="rId250" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{851C8A69-F4BF-45A6-8A21-2950DF5B8162}"/>
+    <hyperlink ref="B285" r:id="rId251" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/" xr:uid="{681F4180-0C2F-4286-9243-5621FD4DD7D9}"/>
+    <hyperlink ref="B286" r:id="rId252" display="https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/" xr:uid="{742A6F9E-8B05-477A-B126-5E2F530A31E7}"/>
+    <hyperlink ref="B287" r:id="rId253" display="https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/" xr:uid="{BBED1C45-2717-47E0-AD7C-D427A7FBA6B7}"/>
+    <hyperlink ref="B288" r:id="rId254" display="https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/" xr:uid="{96051EED-F95A-48E6-9582-4E28E0F33AC7}"/>
+    <hyperlink ref="B289" r:id="rId255" display="https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/" xr:uid="{EDE4321E-A0B0-4B08-9353-ECCC877F1101}"/>
+    <hyperlink ref="B290" r:id="rId256" display="https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/" xr:uid="{3C477D79-14B6-4E02-A353-FD71EF82D549}"/>
+    <hyperlink ref="B291" r:id="rId257" display="https://www.geeksforgeeks.org/palindrome-substring-queries/" xr:uid="{B0F83B08-F3E4-44CB-A9D1-CAF7376B4438}"/>
+    <hyperlink ref="B292" r:id="rId258" display="https://www.geeksforgeeks.org/subarrays-distinct-elements/" xr:uid="{EE62ADA5-C53E-4AF8-9A02-20515605BE35}"/>
+    <hyperlink ref="B293" r:id="rId259" display="https://www.geeksforgeeks.org/find-recurring-sequence-fraction/" xr:uid="{718BC6A1-3B06-4F96-979A-884CA2F08368}"/>
+    <hyperlink ref="B294" r:id="rId260" display="https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/" xr:uid="{FE69B827-D1D8-4927-9125-0C167A3E7414}"/>
+    <hyperlink ref="B297" r:id="rId261" display="https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1" xr:uid="{ABC8E165-2CAD-48FA-9368-5BE7306273F0}"/>
+    <hyperlink ref="B298" r:id="rId262" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/" xr:uid="{2F69369B-FC75-4B2B-AD26-E2ACFC0F033A}"/>
+    <hyperlink ref="B299" r:id="rId263" display="https://leetcode.com/problems/flood-fill/" xr:uid="{741DDDA5-CE9C-43A0-B0FC-0ECEC7432BE7}"/>
+    <hyperlink ref="B300" r:id="rId264" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{B62641B6-50ED-440E-BF8F-8B551E7CA78B}"/>
+    <hyperlink ref="B301" r:id="rId265" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{1CCDA6EA-5E4B-4898-8A49-567BDD37D0A3}"/>
+    <hyperlink ref="B302" r:id="rId266" display="https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1" xr:uid="{0075683A-3B94-4924-8468-40F63A16EA13}"/>
+    <hyperlink ref="B303" r:id="rId267" display="https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1" xr:uid="{6D2C7B5E-FFB0-4EE0-B47A-7F79525BF5E5}"/>
+    <hyperlink ref="B304" r:id="rId268" display="https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1" xr:uid="{FB017537-B17C-48F5-8B41-02B44D7B4E2D}"/>
+    <hyperlink ref="B305" r:id="rId269" display="https://leetcode.com/problems/clone-graph/" xr:uid="{8B1FC085-07E0-4890-84C7-AB3EF30986D6}"/>
+    <hyperlink ref="B306" r:id="rId270" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{DA75AEB8-2320-4E09-9F8C-174D413AFA02}"/>
+    <hyperlink ref="B307" r:id="rId271" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/" xr:uid="{C769ABB5-C00A-4B97-91F9-0784A3108EBE}"/>
+    <hyperlink ref="B308" r:id="rId272" display="https://practice.geeksforgeeks.org/problems/topological-sort/1" xr:uid="{A0B34DD2-3E12-4189-A454-8155976CC47D}"/>
+    <hyperlink ref="B309" r:id="rId273" display="https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/" xr:uid="{22D82A22-92F1-4F1D-8935-13F1A26ECB9A}"/>
+    <hyperlink ref="B310" r:id="rId274" display="https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/" xr:uid="{7FD4AAD5-D948-41E5-A7E7-60346300D285}"/>
+    <hyperlink ref="B311" r:id="rId275" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/" xr:uid="{D1795344-71A0-45A4-B6DB-D218C16DB462}"/>
+    <hyperlink ref="B312" r:id="rId276" display="https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1" xr:uid="{F62A9E0D-9104-4B7F-939D-80A56B97C1E1}"/>
+    <hyperlink ref="B313" r:id="rId277" display="https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/" xr:uid="{482B5209-4E70-4E5B-9240-614142224B17}"/>
+    <hyperlink ref="B314" r:id="rId278" display="https://practice.geeksforgeeks.org/problems/negative-weight-cycle3504/1" xr:uid="{AC3D1F14-A972-4241-86FD-99B6C4DD0331}"/>
+    <hyperlink ref="B315" r:id="rId279" display="https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1" xr:uid="{5AD30927-9325-4ADF-BE09-B135E8F0E9B1}"/>
+    <hyperlink ref="B316" r:id="rId280" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="https://www.geeksforgeeks.org/graph-coloring-applications/ - :~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{BE147614-6015-4D76-908B-15E384125492}"/>
+    <hyperlink ref="B317" r:id="rId281" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{8ACAC68D-9F5F-4AF0-8436-6B2DB1F68807}"/>
+    <hyperlink ref="B318" r:id="rId282" display="https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1" xr:uid="{53F6ED3C-8727-4F7A-8F00-CA45EA7A5CFB}"/>
+    <hyperlink ref="B319" r:id="rId283" display="https://www.hackerrank.com/challenges/journey-to-the-moon/problem" xr:uid="{DA782532-A48A-447E-BC2E-CF1AA2D6DA6A}"/>
+    <hyperlink ref="B320" r:id="rId284" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{234EF5FB-7B73-4284-9BDD-5A1965679D8D}"/>
+    <hyperlink ref="B321" r:id="rId285" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{2AF79C34-C18D-4049-814F-FE7B47178DDF}"/>
+    <hyperlink ref="B322" r:id="rId286" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/description/" xr:uid="{28985ABD-C2BD-4F70-A4FB-B41525A372FD}"/>
+    <hyperlink ref="B323" r:id="rId287" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{E28A04D4-C12B-4A73-BAA8-5EF439051250}"/>
+    <hyperlink ref="B324" r:id="rId288" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{82F9995B-6E99-4646-9821-E5F80ABC5757}"/>
+    <hyperlink ref="B325" r:id="rId289" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{BEFA54CC-0EA3-40AA-8918-3943A7EAAC37}"/>
+    <hyperlink ref="B326" r:id="rId290" display="https://leetcode.com/problems/word-ladder/" xr:uid="{9C182416-01EE-43DD-8993-A21C2F2276A5}"/>
+    <hyperlink ref="B327" r:id="rId291" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{FB62CE13-EE14-4513-98F3-3B51DDB572DB}"/>
+    <hyperlink ref="B328" r:id="rId292" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/" xr:uid="{F07B48C2-A5AE-4CE0-B328-631EF48A3497}"/>
+    <hyperlink ref="B329" r:id="rId293" display="https://www.geeksforgeeks.org/total-number-spanning-trees-graph/" xr:uid="{BC93496C-0BED-46C6-A86E-CA056DE932FA}"/>
+    <hyperlink ref="B330" r:id="rId294" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{EA3DAFC2-BB9F-47D0-A178-7F1314695157}"/>
+    <hyperlink ref="B331" r:id="rId295" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{CC2FD058-9CDA-4448-8222-6406C8B74F2F}"/>
+    <hyperlink ref="B332" r:id="rId296" display="https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/" xr:uid="{4089A0C2-8B1B-436F-B566-E27182B4D99A}"/>
+    <hyperlink ref="B333" r:id="rId297" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{C526389A-404B-4BB3-98A5-45764D094C2E}"/>
+    <hyperlink ref="B334" r:id="rId298" display="https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/" xr:uid="{EFD9120C-C64F-479F-9E69-3994434C75D6}"/>
+    <hyperlink ref="B335" r:id="rId299" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{CF1A8832-3CCF-4365-AA14-BA084A67C0F3}"/>
+    <hyperlink ref="B336" r:id="rId300" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{693AFEB2-B472-452D-B6C6-300BEF5EEE3D}"/>
+    <hyperlink ref="B347" r:id="rId301" display="https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1" xr:uid="{8A893FCA-A40A-42C3-8590-8049299B4806}"/>
+    <hyperlink ref="B348" r:id="rId302" display="https://practice.geeksforgeeks.org/problems/bbt-counter4914/1" xr:uid="{E79761BE-F6BB-416A-9AB4-7357E4A4E934}"/>
+    <hyperlink ref="B349" r:id="rId303" display="https://practice.geeksforgeeks.org/problems/reach-a-given-score-1587115621/1" xr:uid="{B4475273-03EF-4F72-8F87-5790DA65C61B}"/>
+    <hyperlink ref="B350" r:id="rId304" display="https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1" xr:uid="{93EF7F10-7301-4E25-9EF3-4955F91D45EA}"/>
+    <hyperlink ref="B351" r:id="rId305" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{B8297DD3-6F14-4A1A-B4F4-FC592A8D742B}"/>
+    <hyperlink ref="B352" r:id="rId306" display="https://www.geeksforgeeks.org/permutation-coefficient/" xr:uid="{A39CD97F-BBE9-49BF-81D7-F3D5D9230810}"/>
+    <hyperlink ref="B353" r:id="rId307" display="https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence2004/1" xr:uid="{3479FA04-B5F8-4C34-ACFD-DC9C07C7A039}"/>
+    <hyperlink ref="B354" r:id="rId308" display="https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference1533/1" xr:uid="{D0D56D2E-DF88-4B34-A732-316D4E8636E6}"/>
+    <hyperlink ref="B355" r:id="rId309" display="https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1" xr:uid="{C2D9FF12-EDF5-4731-B17D-F8654BFD6A9B}"/>
+    <hyperlink ref="B356" r:id="rId310" display="https://leetcode.com/problems/coin-change/" xr:uid="{11C4FDD6-0928-42F5-A838-BE00AA4E601C}"/>
+    <hyperlink ref="B357" r:id="rId311" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{51B2DDB8-4B7C-4E57-8E18-680AB98677F6}"/>
+    <hyperlink ref="B358" r:id="rId312" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{49459001-227F-4A1E-916C-532BFB5B7551}"/>
+    <hyperlink ref="B359" r:id="rId313" display="https://leetcode.com/problems/word-break/" xr:uid="{BEEDE135-12B8-4F86-880F-3C7CEA459977}"/>
+    <hyperlink ref="B360" r:id="rId314" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{C35DAD21-3D3B-4DAD-B43D-9AB6EB4C31B8}"/>
+    <hyperlink ref="B361" r:id="rId315" display="https://leetcode.com/problems/house-robber/" xr:uid="{8172B215-A0ED-4833-A5C9-144719180D92}"/>
+    <hyperlink ref="B362" r:id="rId316" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{D16D749B-2BCA-4B8B-83F6-63605BFCE00E}"/>
+    <hyperlink ref="B363" r:id="rId317" display="https://leetcode.com/problems/decode-ways/" xr:uid="{9DEB70D8-1411-4700-BF41-7EFAB60D2DDC}"/>
+    <hyperlink ref="B364" r:id="rId318" display="https://leetcode.com/problems/unique-paths/" xr:uid="{6DC8F847-BC5F-4F4E-9024-3B3BAD4E7B71}"/>
+    <hyperlink ref="B365" r:id="rId319" display="https://leetcode.com/problems/jump-game/" xr:uid="{36006AED-3098-4C5B-8915-64B52E865D3B}"/>
+    <hyperlink ref="B366" r:id="rId320" display="https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem0945/1" xr:uid="{DD212B1E-89E7-4107-94B4-CC3F41C5C0DB}"/>
+    <hyperlink ref="B367" r:id="rId321" display="https://practice.geeksforgeeks.org/problems/ncr1019/1" xr:uid="{2D1D7511-E837-4AD6-ACBA-01A7DF722170}"/>
+    <hyperlink ref="B368" r:id="rId322" display="https://www.geeksforgeeks.org/program-nth-catalan-number/" xr:uid="{A51E40FE-239F-4B74-9E01-3A5E2B4433F5}"/>
+    <hyperlink ref="B369" r:id="rId323" display="https://practice.geeksforgeeks.org/problems/edit-distance3702/1" xr:uid="{69E86FF8-C63A-499D-B882-1A5E81DC3D55}"/>
+    <hyperlink ref="B370" r:id="rId324" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{A996182D-9759-4302-98A7-6424488966EF}"/>
+    <hyperlink ref="B371" r:id="rId325" display="https://www.geeksforgeeks.org/gold-mine-problem/" xr:uid="{F256E50D-FAAE-4414-A6BE-2CE4AE0A4C47}"/>
+    <hyperlink ref="B372" r:id="rId326" display="https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/" xr:uid="{EEAF8FAA-4CED-4821-8532-DC76A9145ED8}"/>
+    <hyperlink ref="B373" r:id="rId327" display="https://practice.geeksforgeeks.org/problems/cutted-segments1642/1" xr:uid="{0BF7C422-2910-45A1-B052-405EAE5D597D}"/>
+    <hyperlink ref="B374" r:id="rId328" display="https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1" xr:uid="{D30DA670-2542-4011-8820-2FA82E6F5BBA}"/>
+    <hyperlink ref="B375" r:id="rId329" display="https://www.geeksforgeeks.org/count-subsequences-product-less-k/" xr:uid="{5C8203C1-0D80-40B6-8F22-0DFBEE6ACF8C}"/>
+    <hyperlink ref="B376" r:id="rId330" display="https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/" xr:uid="{64A7DB7F-45EA-4DEB-A705-847E7F5F3680}"/>
+    <hyperlink ref="B377" r:id="rId331" display="https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle-1587115620/1" xr:uid="{0F0E9427-70C9-4C93-B6EF-DB2B18247077}"/>
+    <hyperlink ref="B378" r:id="rId332" display="https://practice.geeksforgeeks.org/problems/max-length-chain/1" xr:uid="{DEBAEEBA-22DA-4A50-885A-C63264F06622}"/>
+    <hyperlink ref="B379" r:id="rId333" display="https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix0806/1" xr:uid="{922699D3-8C68-4F50-80F2-D2826FAC27C9}"/>
+    <hyperlink ref="B380" r:id="rId334" display="https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1" xr:uid="{E74E8FA1-10B4-470E-9670-7CEA26CFE365}"/>
+    <hyperlink ref="B381" r:id="rId335" display="https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps-1587115620/1" xr:uid="{044184E6-8A82-408E-8964-204EB1DDF2EA}"/>
+    <hyperlink ref="B382" r:id="rId336" display="http://geeksforgeeks.org/minimum-removals-array-make-max-min-k/" xr:uid="{3A75ACFF-EA70-4E4E-BA9D-42D3903BEABE}"/>
+    <hyperlink ref="B383" r:id="rId337" display="https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1" xr:uid="{AD2315B5-24BB-41F0-A81D-6FE061E3E642}"/>
+    <hyperlink ref="B384" r:id="rId338" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{6E3E7571-EA27-496B-ABA8-F47EE973AD8C}"/>
+    <hyperlink ref="B385" r:id="rId339" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/" xr:uid="{5A893176-9EF5-4E75-AB1A-FA2425F468F1}"/>
+    <hyperlink ref="B386" r:id="rId340" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{515D577F-F89A-48F4-94C6-D9EA4CD0D8B8}"/>
+    <hyperlink ref="B387" r:id="rId341" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{873716DD-9D57-4D10-A162-B9F6D54843BF}"/>
+    <hyperlink ref="B388" r:id="rId342" display="https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence5951/1" xr:uid="{19D8AED6-787B-4976-A849-977CE00D6863}"/>
+    <hyperlink ref="B389" r:id="rId343" display="https://www.geeksforgeeks.org/weighted-job-scheduling/" xr:uid="{8536076C-378E-49A8-80C6-6287B27D763D}"/>
+    <hyperlink ref="B390" r:id="rId344" display="https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/" xr:uid="{16448EBF-6869-4BCE-9E5C-A56DDD203916}"/>
+    <hyperlink ref="B391" r:id="rId345" display="https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/" xr:uid="{725AFF89-D22F-4850-A5C0-42CA830ED664}"/>
+    <hyperlink ref="B392" r:id="rId346" display="https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game-1587115620/1" xr:uid="{6BC5912C-2FF4-4E59-A1EF-B44F99EDC871}"/>
+    <hyperlink ref="B393" r:id="rId347" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{62C9FDB3-AC57-48FF-87D2-D00F91F5F117}"/>
+    <hyperlink ref="B394" r:id="rId348" display="https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1" xr:uid="{111AF162-6104-433C-B1A3-F13852DDED7A}"/>
+    <hyperlink ref="B395" r:id="rId349" display="https://leetcode.com/problems/maximum-length-of-pair-chain/" xr:uid="{52E940A0-1FAE-429A-BB0E-23094D3FBD95}"/>
+    <hyperlink ref="B396" r:id="rId350" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/" xr:uid="{288DF147-214B-4B72-AEF2-A8CB652A02FF}"/>
+    <hyperlink ref="B397" r:id="rId351" display="https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/" xr:uid="{4E68F012-338F-4E9D-80A4-1F7447BB421C}"/>
+    <hyperlink ref="B398" r:id="rId352" display="https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/" xr:uid="{AD781ECE-7545-433A-A34B-718C048C26E9}"/>
+    <hyperlink ref="B399" r:id="rId353" display="https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/" xr:uid="{3A9FF6BA-7F5B-4771-9F12-0B19AB2A9239}"/>
+    <hyperlink ref="B400" r:id="rId354" display="https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/" xr:uid="{F5494180-F6C7-4618-B644-FA3248BB0833}"/>
+    <hyperlink ref="B415" r:id="rId355" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{E6F012F3-FC8F-4347-97B8-DD0FCD7F6243}"/>
+    <hyperlink ref="B416" r:id="rId356" display="https://cp-algorithms.com/sequences/rmq.html" xr:uid="{E3EDA13A-0062-4A3F-A0EC-61D76EA5AA95}"/>
+    <hyperlink ref="B417" r:id="rId357" display="https://leetcode.com/problems/range-sum-query-mutable/" xr:uid="{9DFD2134-0B69-4BFB-80F5-AFC463D7444B}"/>
+    <hyperlink ref="B418" r:id="rId358" display="https://leetcode.com/problems/create-sorted-array-through-instructions/" xr:uid="{45D6BA72-A309-4A99-932F-11A525796EA9}"/>
+    <hyperlink ref="B419" r:id="rId359" display="https://leetcode.com/problems/count-of-range-sum/" xr:uid="{1747861A-8BF6-4335-9960-1FA4B50A1907}"/>
+    <hyperlink ref="B420" r:id="rId360" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{152D2E39-F5D4-4F68-A71A-72D0E2D3523A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId361"/>

--- a/Dsa questions.xlsx
+++ b/Dsa questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/938afabc2acb16cd/Desktop/Preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6740D03-B48D-40BA-AB03-6857D2C478EA}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC10483AB9D87D865ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AFF65F9-D194-4398-A52E-A80669060651}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="638">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -405,9 +405,6 @@
     <t>TCS Amazon</t>
   </si>
   <si>
-    <t>ceiling in a sorted array</t>
-  </si>
-  <si>
     <t>TCS</t>
   </si>
   <si>
@@ -1933,13 +1930,22 @@
   </si>
   <si>
     <t>Hard after solve</t>
+  </si>
+  <si>
+    <t>*****Strings****</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>###Searching &amp; Sorting###</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,8 +2035,15 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2094,6 +2107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2337,6 +2356,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2379,29 +2431,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2691,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2703,28 +2734,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -2748,7 +2779,7 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2759,35 +2790,35 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="38"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="43" t="s">
-        <v>633</v>
+      <c r="A11" s="29" t="s">
+        <v>632</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="40" t="s">
-        <v>634</v>
+      <c r="A12" s="26" t="s">
+        <v>633</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="23.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="41" t="s">
-        <v>635</v>
+      <c r="A13" s="27" t="s">
+        <v>634</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5"/>
@@ -2809,7 +2840,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2820,7 +2851,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2831,7 +2862,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2842,7 +2873,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2853,7 +2884,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2864,7 +2895,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2875,7 +2906,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2886,7 +2917,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2897,7 +2928,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2908,7 +2939,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2919,7 +2950,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2930,7 +2961,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2941,7 +2972,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -2952,7 +2983,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -2963,7 +2994,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2974,7 +3005,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -2985,7 +3016,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -2996,7 +3027,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -3007,7 +3038,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -3018,7 +3049,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -3029,7 +3060,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -3040,7 +3071,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -3051,7 +3082,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -3062,7 +3093,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -3073,7 +3104,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -3105,7 +3136,7 @@
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -3116,7 +3147,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -3127,7 +3158,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -3138,7 +3169,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -3149,7 +3180,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -3160,7 +3191,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -3171,7 +3202,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -3182,7 +3213,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -3193,7 +3224,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -3204,7 +3235,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -3215,7 +3246,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3226,7 +3257,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -3237,7 +3268,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -3259,8 +3290,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="13" t="s">
-        <v>58</v>
+      <c r="A58" s="23" t="s">
+        <v>635</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>85</v>
@@ -3270,7 +3301,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -3281,7 +3312,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -3292,7 +3323,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="12" t="s">
@@ -3303,7 +3334,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -3314,7 +3345,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="12" t="s">
@@ -3325,7 +3356,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -3336,7 +3367,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -3357,7 +3388,7 @@
       <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -3368,7 +3399,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -3379,7 +3410,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -3390,7 +3421,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -3401,7 +3432,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -3412,7 +3443,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -3423,7 +3454,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B74" s="12" t="s">
@@ -3434,7 +3465,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B75" s="12" t="s">
@@ -3445,7 +3476,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="12" t="s">
@@ -3456,7 +3487,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -3477,7 +3508,7 @@
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -3488,7 +3519,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -3499,7 +3530,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -3510,7 +3541,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -3521,47 +3552,47 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C84" s="17" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="11" t="s">
+      <c r="C85" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="17" t="s">
+      <c r="B87" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3569,10 +3600,10 @@
         <v>118</v>
       </c>
       <c r="B88" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3580,10 +3611,10 @@
         <v>118</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3591,10 +3622,10 @@
         <v>118</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3602,10 +3633,10 @@
         <v>118</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3613,10 +3644,10 @@
         <v>118</v>
       </c>
       <c r="B92" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3624,10 +3655,10 @@
         <v>118</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3635,7 +3666,7 @@
         <v>118</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>49</v>
@@ -3646,7 +3677,7 @@
         <v>118</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>49</v>
@@ -3657,10 +3688,10 @@
         <v>118</v>
       </c>
       <c r="B96" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3668,10 +3699,10 @@
         <v>118</v>
       </c>
       <c r="B97" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3679,10 +3710,10 @@
         <v>118</v>
       </c>
       <c r="B98" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3690,10 +3721,10 @@
         <v>118</v>
       </c>
       <c r="B99" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3701,7 +3732,7 @@
         <v>118</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>69</v>
@@ -3712,10 +3743,10 @@
         <v>118</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3723,10 +3754,10 @@
         <v>118</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3741,32 +3772,32 @@
     </row>
     <row r="105" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="C105" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>57</v>
@@ -3774,10 +3805,10 @@
     </row>
     <row r="108" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="17" t="s">
         <v>57</v>
@@ -3785,43 +3816,43 @@
     </row>
     <row r="109" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>49</v>
@@ -3829,74 +3860,74 @@
     </row>
     <row r="113" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" s="17"/>
     </row>
     <row r="117" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B117" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>49</v>
@@ -3904,10 +3935,10 @@
     </row>
     <row r="120" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>49</v>
@@ -3915,10 +3946,10 @@
     </row>
     <row r="121" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>112</v>
@@ -3926,46 +3957,46 @@
     </row>
     <row r="122" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3979,121 +4010,121 @@
       <c r="C127" s="16"/>
     </row>
     <row r="128" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="C128" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C128" s="17" t="s">
+    </row>
+    <row r="129" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B129" s="12" t="s">
+      <c r="C129" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C129" s="17" t="s">
+    </row>
+    <row r="130" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C130" s="17" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B131" s="12" t="s">
+      <c r="C131" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="17" t="s">
+    </row>
+    <row r="132" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B132" s="12" t="s">
+      <c r="C132" s="18" t="s">
         <v>202</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B133" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="37" t="s">
-        <v>193</v>
+      <c r="A135" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>49</v>
@@ -4101,10 +4132,10 @@
     </row>
     <row r="139" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C139" s="17" t="s">
         <v>112</v>
@@ -4112,32 +4143,32 @@
     </row>
     <row r="140" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>49</v>
@@ -4145,123 +4176,123 @@
     </row>
     <row r="143" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B147" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B148" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B149" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B150" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B151" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B152" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4276,142 +4307,142 @@
     </row>
     <row r="156" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="C156" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B157" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B159" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B160" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B161" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B162" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B165" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>49</v>
@@ -4419,156 +4450,156 @@
     </row>
     <row r="169" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B173" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C173" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B175" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B181" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4583,32 +4614,32 @@
     </row>
     <row r="185" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="C185" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B186" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C186" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C187" s="20" t="s">
         <v>112</v>
@@ -4616,10 +4647,10 @@
     </row>
     <row r="188" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>49</v>
@@ -4627,61 +4658,61 @@
     </row>
     <row r="189" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B189" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C189" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C190" s="20"/>
     </row>
     <row r="191" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B191" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B192" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C192" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C194" s="20" t="s">
         <v>57</v>
@@ -4689,10 +4720,10 @@
     </row>
     <row r="195" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C195" s="20" t="s">
         <v>102</v>
@@ -4700,32 +4731,32 @@
     </row>
     <row r="196" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C196" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C197" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>112</v>
@@ -4733,10 +4764,10 @@
     </row>
     <row r="199" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C199" s="20" t="s">
         <v>49</v>
@@ -4744,30 +4775,30 @@
     </row>
     <row r="200" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C201" s="17"/>
     </row>
     <row r="202" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>120</v>
@@ -4775,10 +4806,10 @@
     </row>
     <row r="203" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>102</v>
@@ -4786,31 +4817,31 @@
     </row>
     <row r="204" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C204" s="17"/>
     </row>
     <row r="205" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C205" s="17"/>
     </row>
     <row r="206" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4825,76 +4856,76 @@
     </row>
     <row r="209" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B209" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="C209" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B210" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C210" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C211" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C212" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B213" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C213" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C214" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>97</v>
@@ -4902,32 +4933,32 @@
     </row>
     <row r="216" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B216" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B217" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>49</v>
@@ -4935,32 +4966,32 @@
     </row>
     <row r="219" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B219" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C219" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B220" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C220" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>102</v>
@@ -4968,76 +4999,76 @@
     </row>
     <row r="222" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B223" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C223" s="17" t="s">
         <v>343</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C225" s="17" t="s">
         <v>346</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C226" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C227" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>102</v>
@@ -5045,43 +5076,43 @@
     </row>
     <row r="229" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B229" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C229" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B230" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C230" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="C230" s="17" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B231" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C231" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C232" s="17" t="s">
         <v>112</v>
@@ -5089,101 +5120,101 @@
     </row>
     <row r="233" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B234" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C234" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B235" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C235" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B236" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C236" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B237" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C237" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B238" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C238" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="C238" s="17" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B239" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C239" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="C239" s="17" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B240" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C240" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B241" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C241" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5198,32 +5229,32 @@
     </row>
     <row r="244" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B244" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="C244" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B245" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C245" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="C245" s="17" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C246" s="17" t="s">
         <v>57</v>
@@ -5231,87 +5262,87 @@
     </row>
     <row r="247" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B247" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C247" s="17" t="s">
         <v>383</v>
-      </c>
-      <c r="C247" s="17" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B249" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C249" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="C249" s="17" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B250" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C250" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="C250" s="17" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B251" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C251" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="C251" s="17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B252" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C252" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="C252" s="17" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C254" s="17" t="s">
         <v>57</v>
@@ -5319,65 +5350,65 @@
     </row>
     <row r="255" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B255" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C255" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="C255" s="17" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B256" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C256" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="C256" s="17" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B257" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C257" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="C257" s="17" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C260" s="17" t="s">
         <v>120</v>
@@ -5385,10 +5416,10 @@
     </row>
     <row r="261" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C261" s="17" t="s">
         <v>120</v>
@@ -5396,21 +5427,21 @@
     </row>
     <row r="262" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B262" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C262" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="C262" s="17" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C263" s="17" t="s">
         <v>49</v>
@@ -5418,13 +5449,13 @@
     </row>
     <row r="264" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B264" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C264" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="C264" s="17" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5439,19 +5470,19 @@
     </row>
     <row r="267" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B267" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="C267" s="17"/>
     </row>
     <row r="268" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C268" s="17" t="s">
         <v>69</v>
@@ -5459,10 +5490,10 @@
     </row>
     <row r="269" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C269" s="17" t="s">
         <v>102</v>
@@ -5470,10 +5501,10 @@
     </row>
     <row r="270" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C270" s="17" t="s">
         <v>30</v>
@@ -5481,21 +5512,21 @@
     </row>
     <row r="271" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B271" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C271" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="C271" s="17" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C272" s="17" t="s">
         <v>14</v>
@@ -5503,21 +5534,21 @@
     </row>
     <row r="273" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B273" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C273" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="C273" s="17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C274" s="17" t="s">
         <v>14</v>
@@ -5525,164 +5556,164 @@
     </row>
     <row r="275" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B275" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C275" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C275" s="17" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B276" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C276" s="18" t="s">
         <v>424</v>
-      </c>
-      <c r="C276" s="18" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B277" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C277" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="C277" s="17" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B278" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C278" s="17" t="s">
         <v>428</v>
-      </c>
-      <c r="C278" s="17" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B279" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C279" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="C279" s="17" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B280" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C280" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="C280" s="17" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B282" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C282" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C282" s="17" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B284" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C284" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="C284" s="17" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B285" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C285" s="17" t="s">
         <v>440</v>
-      </c>
-      <c r="C285" s="17" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B286" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C286" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="C286" s="17" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B287" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C287" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="C287" s="17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B288" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C288" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C288" s="17" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C289" s="17" t="s">
         <v>60</v>
@@ -5690,54 +5721,54 @@
     </row>
     <row r="290" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B290" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C290" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C290" s="17" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B293" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C293" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="C293" s="17" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C294" s="17" t="s">
         <v>49</v>
@@ -5755,65 +5786,65 @@
     </row>
     <row r="297" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B297" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="C297" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="C297" s="17" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B298" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C298" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="C298" s="17" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B299" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C299" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C299" s="17" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C300" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B301" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C301" s="17" t="s">
         <v>464</v>
-      </c>
-      <c r="C301" s="17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C302" s="17" t="s">
         <v>120</v>
@@ -5821,21 +5852,21 @@
     </row>
     <row r="303" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B303" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C303" s="17" t="s">
         <v>467</v>
-      </c>
-      <c r="C303" s="17" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C304" s="17" t="s">
         <v>120</v>
@@ -5843,21 +5874,21 @@
     </row>
     <row r="305" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B305" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C305" s="17" t="s">
         <v>470</v>
-      </c>
-      <c r="C305" s="17" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C306" s="17" t="s">
         <v>120</v>
@@ -5865,10 +5896,10 @@
     </row>
     <row r="307" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>49</v>
@@ -5876,32 +5907,32 @@
     </row>
     <row r="308" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B308" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C308" s="17" t="s">
         <v>474</v>
-      </c>
-      <c r="C308" s="17" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C310" s="17" t="s">
         <v>49</v>
@@ -5909,43 +5940,43 @@
     </row>
     <row r="311" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B311" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C311" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="C311" s="17" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B312" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C312" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="C312" s="17" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C314" s="17" t="s">
         <v>49</v>
@@ -5953,131 +5984,131 @@
     </row>
     <row r="315" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B315" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C315" s="17" t="s">
         <v>484</v>
-      </c>
-      <c r="C315" s="17" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B317" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C317" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="C317" s="17" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B319" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C319" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="C319" s="17" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B320" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C320" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="C320" s="17" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B322" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C322" s="17" t="s">
         <v>494</v>
-      </c>
-      <c r="C322" s="17" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B323" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C323" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="C323" s="17" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C326" s="17" t="s">
         <v>57</v>
@@ -6085,10 +6116,10 @@
     </row>
     <row r="327" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C327" s="17" t="s">
         <v>120</v>
@@ -6096,43 +6127,43 @@
     </row>
     <row r="328" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B328" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C328" s="17" t="s">
         <v>502</v>
-      </c>
-      <c r="C328" s="17" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B329" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C329" s="17" t="s">
         <v>504</v>
-      </c>
-      <c r="C329" s="17" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B330" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C330" s="17" t="s">
         <v>506</v>
-      </c>
-      <c r="C330" s="17" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C331" s="17" t="s">
         <v>112</v>
@@ -6140,10 +6171,10 @@
     </row>
     <row r="332" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C332" s="17" t="s">
         <v>57</v>
@@ -6151,46 +6182,46 @@
     </row>
     <row r="333" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B333" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C333" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="C333" s="17" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B336" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C336" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="C336" s="17" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6205,68 +6236,68 @@
     </row>
     <row r="339" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B339" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B339" s="21" t="s">
+      <c r="C339" s="17" t="s">
         <v>517</v>
-      </c>
-      <c r="C339" s="17" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B340" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C340" s="17" t="s">
         <v>519</v>
-      </c>
-      <c r="C340" s="17" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B341" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C341" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="C341" s="17" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B342" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C342" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="C342" s="17" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B343" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C343" s="17" t="s">
         <v>525</v>
-      </c>
-      <c r="C343" s="17" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B344" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C344" s="17" t="s">
         <v>527</v>
-      </c>
-      <c r="C344" s="17" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6281,10 +6312,10 @@
     </row>
     <row r="347" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B347" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="B347" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="C347" s="17" t="s">
         <v>49</v>
@@ -6292,10 +6323,10 @@
     </row>
     <row r="348" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C348" s="17" t="s">
         <v>57</v>
@@ -6303,10 +6334,10 @@
     </row>
     <row r="349" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C349" s="17" t="s">
         <v>120</v>
@@ -6314,32 +6345,32 @@
     </row>
     <row r="350" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C351" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C352" s="17" t="s">
         <v>49</v>
@@ -6347,32 +6378,32 @@
     </row>
     <row r="353" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B353" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C353" s="17" t="s">
         <v>536</v>
-      </c>
-      <c r="C353" s="17" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C354" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C355" s="17" t="s">
         <v>49</v>
@@ -6380,131 +6411,131 @@
     </row>
     <row r="356" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B356" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C356" s="17" t="s">
         <v>540</v>
-      </c>
-      <c r="C356" s="17" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B357" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C357" s="17" t="s">
         <v>542</v>
-      </c>
-      <c r="C357" s="17" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B358" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C358" s="17" t="s">
         <v>544</v>
-      </c>
-      <c r="C358" s="17" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B359" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C359" s="17" t="s">
         <v>546</v>
-      </c>
-      <c r="C359" s="17" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C360" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B361" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C361" s="17" t="s">
         <v>549</v>
-      </c>
-      <c r="C361" s="17" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B362" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C362" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="C362" s="17" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B363" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C363" s="17" t="s">
         <v>553</v>
-      </c>
-      <c r="C363" s="17" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B364" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C364" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="C364" s="17" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B365" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C365" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="C365" s="17" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B366" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C366" s="17" t="s">
         <v>559</v>
-      </c>
-      <c r="C366" s="17" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C367" s="17" t="s">
         <v>112</v>
@@ -6512,43 +6543,43 @@
     </row>
     <row r="368" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B369" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C369" s="17" t="s">
         <v>563</v>
-      </c>
-      <c r="C369" s="17" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C371" s="17" t="s">
         <v>120</v>
@@ -6556,76 +6587,76 @@
     </row>
     <row r="372" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B373" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C373" s="17" t="s">
         <v>568</v>
-      </c>
-      <c r="C373" s="17" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A374" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B374" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C374" s="17" t="s">
         <v>570</v>
-      </c>
-      <c r="C374" s="17" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A375" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C375" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A376" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A377" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B377" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C377" s="17" t="s">
         <v>574</v>
-      </c>
-      <c r="C377" s="17" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A378" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C378" s="17" t="s">
         <v>102</v>
@@ -6633,43 +6664,43 @@
     </row>
     <row r="379" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A379" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B379" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C379" s="17" t="s">
         <v>577</v>
-      </c>
-      <c r="C379" s="17" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A380" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B380" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C380" s="17" t="s">
         <v>579</v>
-      </c>
-      <c r="C380" s="17" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B381" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C381" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="C381" s="17" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A382" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C382" s="17" t="s">
         <v>49</v>
@@ -6677,32 +6708,32 @@
     </row>
     <row r="383" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A383" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B383" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C383" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="C383" s="17" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A384" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C384" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A385" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C385" s="17" t="s">
         <v>75</v>
@@ -6710,84 +6741,84 @@
     </row>
     <row r="386" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A386" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B386" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C386" s="17" t="s">
         <v>588</v>
-      </c>
-      <c r="C386" s="17" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A387" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A388" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A389" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A390" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B390" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C390" s="17" t="s">
         <v>593</v>
-      </c>
-      <c r="C390" s="17" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A391" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C391" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A392" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B392" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C392" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="C392" s="17" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A393" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>98</v>
@@ -6798,10 +6829,10 @@
     </row>
     <row r="394" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A394" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C394" s="17" t="s">
         <v>102</v>
@@ -6809,10 +6840,10 @@
     </row>
     <row r="395" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A395" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C395" s="17" t="s">
         <v>102</v>
@@ -6820,32 +6851,32 @@
     </row>
     <row r="396" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A396" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B396" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C396" s="17" t="s">
         <v>600</v>
-      </c>
-      <c r="C396" s="17" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A397" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C397" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A398" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C398" s="17" t="s">
         <v>112</v>
@@ -6853,24 +6884,24 @@
     </row>
     <row r="399" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A399" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C399" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A400" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B400" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C400" s="17" t="s">
         <v>605</v>
-      </c>
-      <c r="C400" s="17" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6885,32 +6916,32 @@
     </row>
     <row r="403" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A403" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B403" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="B403" s="21" t="s">
+      <c r="C403" s="17" t="s">
         <v>608</v>
-      </c>
-      <c r="C403" s="17" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B404" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="C404" s="17" t="s">
         <v>610</v>
-      </c>
-      <c r="C404" s="17" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A405" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C405" s="17" t="s">
         <v>69</v>
@@ -6918,10 +6949,10 @@
     </row>
     <row r="406" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A406" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C406" s="17" t="s">
         <v>57</v>
@@ -6929,21 +6960,21 @@
     </row>
     <row r="407" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A407" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B407" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="C407" s="17" t="s">
         <v>614</v>
-      </c>
-      <c r="C407" s="17" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A408" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C408" s="17" t="s">
         <v>57</v>
@@ -6951,21 +6982,21 @@
     </row>
     <row r="409" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A409" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C409" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A410" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B410" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C410" s="17" t="s">
         <v>49</v>
@@ -6973,10 +7004,10 @@
     </row>
     <row r="411" spans="1:3" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A411" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B411" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C411" s="17" t="s">
         <v>57</v>
@@ -6984,13 +7015,13 @@
     </row>
     <row r="412" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B412" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="C412" s="17" t="s">
         <v>620</v>
-      </c>
-      <c r="C412" s="17" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7005,19 +7036,19 @@
     </row>
     <row r="415" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A415" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B415" s="12" t="s">
         <v>622</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>623</v>
       </c>
       <c r="C415" s="17"/>
     </row>
     <row r="416" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A416" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C416" s="17" t="s">
         <v>47</v>
@@ -7025,46 +7056,46 @@
     </row>
     <row r="417" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A417" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B417" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="C417" s="17" t="s">
         <v>625</v>
-      </c>
-      <c r="C417" s="17" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B418" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C418" s="17" t="s">
         <v>627</v>
-      </c>
-      <c r="C418" s="17" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A419" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B419" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C419" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B420" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C420" s="17" t="s">
         <v>630</v>
-      </c>
-      <c r="C420" s="17" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7399,7 +7430,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C492" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7464,311 +7495,311 @@
     <hyperlink ref="B71" r:id="rId53" display="https://leetcode.com/problems/rotate-image/" xr:uid="{9172A3B2-301F-45A8-B038-60D8B2B1B262}"/>
     <hyperlink ref="B72" r:id="rId54" display="https://leetcode.com/problems/word-search/" xr:uid="{956D36EF-A74A-42E9-83D9-FCD12AA36DDE}"/>
     <hyperlink ref="B73" r:id="rId55" display="https://www.geeksforgeeks.org/find-number-of-islands/" xr:uid="{CCF3B1CC-196F-4675-923F-86265D372DEA}"/>
-    <hyperlink ref="B74" r:id="rId56" display="https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/" xr:uid="{90890F2C-00F0-4CAA-9763-1F80E182C083}"/>
-    <hyperlink ref="B75" r:id="rId57" display="https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/" xr:uid="{C37B2970-0B5E-493A-B627-732FDD7E8677}"/>
-    <hyperlink ref="B76" r:id="rId58" display="https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/" xr:uid="{45A7A3D0-5514-4725-BF25-1BAE4B35841C}"/>
-    <hyperlink ref="B77" r:id="rId59" display="https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/" xr:uid="{563C69B2-B43A-498F-9EC9-E402783619F5}"/>
-    <hyperlink ref="B80" r:id="rId60" display="https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/" xr:uid="{3FF419AE-1583-41D8-B526-BAD813744BAC}"/>
-    <hyperlink ref="B81" r:id="rId61" display="https://www.geeksforgeeks.org/counting-sort/" xr:uid="{DED9AE81-E066-49AF-9A83-2392F7DC91AD}"/>
-    <hyperlink ref="B82" r:id="rId62" display="https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/" xr:uid="{4D1F2379-067A-489D-9364-E17920740D24}"/>
-    <hyperlink ref="B83" r:id="rId63" display="https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/" xr:uid="{89DACB91-5737-4332-845C-7D874928131F}"/>
-    <hyperlink ref="B84" r:id="rId64" display="https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/" xr:uid="{E84DBDF5-53A6-4ECB-ADB8-1846C270F7CF}"/>
-    <hyperlink ref="B85" r:id="rId65" display="https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/" xr:uid="{D7B066E6-7296-42FF-ABE0-CD0DB3FDB8BA}"/>
-    <hyperlink ref="B86" r:id="rId66" display="https://www.geeksforgeeks.org/majority-element/" xr:uid="{15BD9A55-840F-4640-9BBB-E2B3E0CAD085}"/>
-    <hyperlink ref="B87" r:id="rId67" display="https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/" xr:uid="{3C9049F5-5156-48C6-8D4A-D0B86B8330B3}"/>
-    <hyperlink ref="B88" r:id="rId68" display="https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/" xr:uid="{104B6EC9-B168-4A82-860C-D70D23EB546F}"/>
-    <hyperlink ref="B89" r:id="rId69" display="https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/" xr:uid="{E8CA5071-503B-45DD-9AEE-1BCA60C9F193}"/>
-    <hyperlink ref="B90" r:id="rId70" display="https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1" xr:uid="{CC5A40FE-E0D9-4692-864C-7C3935D1FB12}"/>
-    <hyperlink ref="B91" r:id="rId71" display="https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/" xr:uid="{210B4309-EA45-40D6-B4FA-565DB306DA38}"/>
-    <hyperlink ref="B92" r:id="rId72" display="https://www.geeksforgeeks.org/radix-sort/" xr:uid="{35837A9A-3D6C-4B3C-888B-4BDC0536F3CD}"/>
-    <hyperlink ref="B93" r:id="rId73" display="https://www.geeksforgeeks.org/a-product-array-puzzle/" xr:uid="{4B03A578-6405-4C69-B4B3-97327EB3894D}"/>
-    <hyperlink ref="B94" r:id="rId74" display="https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{FC476393-0D93-486A-B9E4-EE532FEA290A}"/>
-    <hyperlink ref="B95" r:id="rId75" display="https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/" xr:uid="{FC325AD3-0493-48C1-AD97-651EAEA8BF2D}"/>
-    <hyperlink ref="B96" r:id="rId76" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/" xr:uid="{378D8C38-826D-4F6E-9ED3-34FF788FC5B4}"/>
-    <hyperlink ref="B97" r:id="rId77" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/" xr:uid="{CBD0C288-3AC9-4E23-A6CA-228D2D59C839}"/>
-    <hyperlink ref="B98" r:id="rId78" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/" xr:uid="{B770F119-77CF-4BF6-ABCC-0A82E2433D1D}"/>
-    <hyperlink ref="B99" r:id="rId79" display="https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/" xr:uid="{E9C7BEB3-FAEF-496E-8623-A543C4DC3277}"/>
-    <hyperlink ref="B100" r:id="rId80" display="https://www.spoj.com/problems/AGGRCOW/" xr:uid="{CE2FA856-7DC8-4E88-A14C-345196CAE420}"/>
-    <hyperlink ref="B101" r:id="rId81" display="https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1" xr:uid="{426DE4E4-E6A2-4333-9CE1-603032FB7B0A}"/>
-    <hyperlink ref="B102" r:id="rId82" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{BEBD851A-70EC-4501-AF30-D6C5376CEED1}"/>
-    <hyperlink ref="B105" r:id="rId83" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{3C5064CE-5524-45B2-B86B-F310AFC043FC}"/>
-    <hyperlink ref="B106" r:id="rId84" display="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{314ECBCF-A640-44D5-8845-EA3ABDF12C3B}"/>
-    <hyperlink ref="B107" r:id="rId85" display="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{A8C33AEC-D174-4688-83A3-21E8DDF71B84}"/>
-    <hyperlink ref="B108" r:id="rId86" display="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{CB89B281-FE27-42A6-ABE7-D78A86615CEB}"/>
-    <hyperlink ref="B109" r:id="rId87" display="https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/" xr:uid="{86A1357F-BE75-440C-9AFD-C32FA61EF48E}"/>
-    <hyperlink ref="B110" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{BC9F48AA-DDB0-4797-9BA1-B26728278FC6}"/>
-    <hyperlink ref="B111" r:id="rId89" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{7098B477-37B3-4B0A-B84B-6E6208E83D05}"/>
-    <hyperlink ref="B112" r:id="rId90" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{3A0ADF5D-E529-45F3-B0B5-DE1962BAC3C9}"/>
-    <hyperlink ref="B113" r:id="rId91" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{F50BCD80-6FAF-472F-BEC2-8CB6DBAE8D8B}"/>
-    <hyperlink ref="B114" r:id="rId92" display="https://www.geeksforgeeks.org/backtracking-set-7-suduku/" xr:uid="{5FD6CA9D-6BB7-4A8A-8738-9BCCABEE1E46}"/>
-    <hyperlink ref="B115" r:id="rId93" display="https://www.geeksforgeeks.org/remove-invalid-parentheses/" xr:uid="{8F431167-9AC6-47B9-B336-127F6414798E}"/>
-    <hyperlink ref="B116" r:id="rId94" display="https://www.geeksforgeeks.org/word-break-problem-using-backtracking/" xr:uid="{D077C4EA-DA66-4C76-AD15-6882936CC60D}"/>
-    <hyperlink ref="B117" r:id="rId95" display="https://www.geeksforgeeks.org/print-palindromic-partitions-string/" xr:uid="{79252414-642A-411A-A14D-7ADA8685D823}"/>
-    <hyperlink ref="B118" r:id="rId96" display="https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/" xr:uid="{51E9BAAC-2F65-4139-A0D1-314FB1CA2CDE}"/>
-    <hyperlink ref="B119" r:id="rId97" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/" xr:uid="{3A523D4C-792A-4A86-B4B5-68CDA1B35B61}"/>
-    <hyperlink ref="B120" r:id="rId98" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{E386E76E-6DFA-48A4-AF06-35500F74BF0E}"/>
-    <hyperlink ref="B121" r:id="rId99" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{89841927-CDE1-4484-A6CC-0EB772E00C76}"/>
-    <hyperlink ref="B122" r:id="rId100" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/" xr:uid="{4636176E-33AC-449A-9D94-41071DB0119C}"/>
-    <hyperlink ref="B123" r:id="rId101" display="https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/" xr:uid="{CFD2F4A5-82C2-45C4-A105-6C76D0E8703E}"/>
-    <hyperlink ref="B124" r:id="rId102" display="https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/" xr:uid="{023D34E4-7350-41BE-8AD0-3704039C5AF8}"/>
-    <hyperlink ref="B125" r:id="rId103" display="https://www.hackerrank.com/challenges/arithmetic-expressions/problem" xr:uid="{ACAAA5A5-E607-4B57-AFBB-9B42CB1BAB5A}"/>
-    <hyperlink ref="B128" r:id="rId104" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{E9B7716A-EC8C-47B5-9D1A-4DE4DBEEEA28}"/>
-    <hyperlink ref="B129" r:id="rId105" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{C4CA6F51-3256-4077-B4B0-17DEE6A261F3}"/>
-    <hyperlink ref="B130" r:id="rId106" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{303BE593-DC25-424E-86BE-E5F939586796}"/>
-    <hyperlink ref="B131" r:id="rId107" display="https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{49567C02-632D-4738-917F-90FA46802273}"/>
-    <hyperlink ref="B132" r:id="rId108" display="https://www.geeksforgeeks.org/remove-duplicates-from-an-unsorted-linked-list/" xr:uid="{5A533CD1-B6CC-45BB-A793-3E57CC0278C7}"/>
-    <hyperlink ref="B133" r:id="rId109" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{26FC6BEA-5C85-4E69-BEC7-4B692C66034E}"/>
-    <hyperlink ref="B134" r:id="rId110" display="https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{D567922E-E92B-4D64-8D74-C3877F1962D7}"/>
-    <hyperlink ref="B135" r:id="rId111" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{0F66D9FA-3D56-4153-A97F-081D18A1067D}"/>
-    <hyperlink ref="B136" r:id="rId112" display="https://leetcode.com/problems/reorder-list/" xr:uid="{BD8E8013-42A4-4218-BDBD-BD32CB0CACE7}"/>
-    <hyperlink ref="B137" r:id="rId113" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/" xr:uid="{875E1D0A-7CA2-4032-A409-BA51C252AEEF}"/>
-    <hyperlink ref="B138" r:id="rId114" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/" xr:uid="{C8A6C397-29E9-4913-B448-6465E9677E60}"/>
-    <hyperlink ref="B139" r:id="rId115" display="https://www.geeksforgeeks.org/flatten-a-linked-list-with-next-and-child-pointers/" xr:uid="{D5207E44-C260-467B-A6BB-E214290D37F8}"/>
-    <hyperlink ref="B140" r:id="rId116" display="https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{DF551C5D-1B7C-442F-B12B-7C0DE6C864A8}"/>
-    <hyperlink ref="B141" r:id="rId117" display="https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1" xr:uid="{A39DF6A9-03AB-4474-B847-0E9B23840CE8}"/>
-    <hyperlink ref="B142" r:id="rId118" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/" xr:uid="{A64F85A0-93F9-4207-A048-A61627BA8750}"/>
-    <hyperlink ref="B143" r:id="rId119" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{06BAEE8D-76D3-4844-BC4E-43CC5D1AFDE7}"/>
-    <hyperlink ref="B144" r:id="rId120" display="https://www.geeksforgeeks.org/point-to-next-higher-value-node-in-a-linked-list-with-an-arbitrary-pointer/" xr:uid="{072C3A0F-1D80-4DB1-BED9-BB8FB69D76B8}"/>
-    <hyperlink ref="B145" r:id="rId121" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{12DFF55D-1D33-4D63-BC37-74EED812F77A}"/>
-    <hyperlink ref="B146" r:id="rId122" display="https://www.geeksforgeeks.org/sort-biotonic-doubly-linked-list/" xr:uid="{EECE0C9F-DB1E-48A4-9272-7941E941787C}"/>
-    <hyperlink ref="B147" r:id="rId123" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{CCB3DF55-9F47-4652-A0D3-01BFBEBBD114}"/>
-    <hyperlink ref="B148" r:id="rId124" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{D5E9EBF0-DFFC-4FB3-A156-483A7AC6BBED}"/>
-    <hyperlink ref="B149" r:id="rId125" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/" xr:uid="{563AD896-CD19-483C-A7F2-722F0570D83F}"/>
-    <hyperlink ref="B150" r:id="rId126" display="https://www.geeksforgeeks.org/sum-of-two-linked-lists/" xr:uid="{133416C5-F9B7-4C9B-A2E5-2904613A44E1}"/>
-    <hyperlink ref="B151" r:id="rId127" display="https://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{42A61AB0-1780-4863-84A2-13D6862DD568}"/>
-    <hyperlink ref="B152" r:id="rId128" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/" xr:uid="{0FF7DBF2-B8CB-45AA-A6FE-2F05B1FB830D}"/>
-    <hyperlink ref="B153" r:id="rId129" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{68ED9C0B-E45A-425E-9334-8573AEEF863C}"/>
-    <hyperlink ref="B156" r:id="rId130" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{86A92837-522D-40FD-9FB2-E7AE531F2D9B}"/>
-    <hyperlink ref="B157" r:id="rId131" display="https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{E5436E2C-6FCF-4C7F-A903-9B1E325918A9}"/>
-    <hyperlink ref="B158" r:id="rId132" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{F79FB06F-2608-47C2-BC19-CC1C0EB814A6}"/>
-    <hyperlink ref="B159" r:id="rId133" display="https://practice.geeksforgeeks.org/problems/queue-reversal/1" xr:uid="{D0991E87-CE2F-4208-B0A5-FE67F81EFED0}"/>
-    <hyperlink ref="B160" r:id="rId134" display="https://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{28BF0377-E35E-40AD-B25A-13C769A134B7}"/>
-    <hyperlink ref="B161" r:id="rId135" display="https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1" xr:uid="{0A119515-F4F3-42F6-B987-AA169E7189A3}"/>
-    <hyperlink ref="B162" r:id="rId136" display="https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/" xr:uid="{627C7B46-5FC7-43A0-A5F4-82151DE4DCE5}"/>
-    <hyperlink ref="B163" r:id="rId137" display="https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/" xr:uid="{EFAD02CC-0C91-4FDD-B82E-9967554DCFFA}"/>
-    <hyperlink ref="B164" r:id="rId138" display="https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/" xr:uid="{D0A958F2-72ED-4457-86C8-1C8FA560F4D5}"/>
-    <hyperlink ref="B165" r:id="rId139" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/" xr:uid="{CFEA05AC-8BB1-4482-86E5-F7C47BEA439F}"/>
-    <hyperlink ref="B166" r:id="rId140" display="https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/" xr:uid="{4E3FF96A-5354-4885-985C-4F416A2A1395}"/>
-    <hyperlink ref="B167" r:id="rId141" display="https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/" xr:uid="{935FECFC-420F-483F-83DB-E42774297C2F}"/>
-    <hyperlink ref="B168" r:id="rId142" display="https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/" xr:uid="{0983B438-6B09-4883-B912-C6B0937102C8}"/>
-    <hyperlink ref="B169" r:id="rId143" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/" xr:uid="{F0060024-D8D7-42F1-AC2B-349933BF69E3}"/>
-    <hyperlink ref="B170" r:id="rId144" display="https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/" xr:uid="{CC981A73-142E-436D-8EDD-06034CA16EFC}"/>
-    <hyperlink ref="B171" r:id="rId145" display="https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1" xr:uid="{C9ACE923-CF43-4898-A2BC-57798A187178}"/>
-    <hyperlink ref="B172" r:id="rId146" display="https://practice.geeksforgeeks.org/problems/next-larger-element-1587115620/1" xr:uid="{7FF74613-68C1-4810-A798-EB66306A5B13}"/>
-    <hyperlink ref="B173" r:id="rId147" display="https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1" xr:uid="{0EDFC38D-DF16-4E95-81EC-69E94BAD5461}"/>
-    <hyperlink ref="B174" r:id="rId148" display="https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1" xr:uid="{2AA0E1BC-070A-4AFF-BEA9-E365F84BDB02}"/>
-    <hyperlink ref="B175" r:id="rId149" display="https://www.geeksforgeeks.org/next-smaller-element/" xr:uid="{CBE283B3-0BAF-431E-9677-BF2E10847922}"/>
-    <hyperlink ref="B176" r:id="rId150" display="https://practice.geeksforgeeks.org/problems/circular-tour/1" xr:uid="{7C61C98C-3C9D-4C79-AE62-92403450305C}"/>
-    <hyperlink ref="B177" r:id="rId151" display="https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/" xr:uid="{D012EA64-C327-4C38-BFA2-E9D38E202F26}"/>
-    <hyperlink ref="B178" r:id="rId152" display="http://geeksforgeeks.org/the-celebrity-problem/" xr:uid="{EFE704D5-27E9-4514-87DE-007B2642CB88}"/>
-    <hyperlink ref="B179" r:id="rId153" display="https://www.geeksforgeeks.org/iterative-tower-of-hanoi/" xr:uid="{66CCA9E0-6B97-4184-9982-9992C5F400B2}"/>
-    <hyperlink ref="B180" r:id="rId154" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{62A3A75E-FC65-4AE3-A002-70D8611933F3}"/>
-    <hyperlink ref="B181" r:id="rId155" display="https://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{13B805BB-5050-4DAD-877E-74BCA9FD0C9D}"/>
-    <hyperlink ref="B182" r:id="rId156" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/" xr:uid="{16BB3746-D1D6-4B4F-B652-C6831A9A8718}"/>
-    <hyperlink ref="B185" r:id="rId157" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/" xr:uid="{014879DD-29E8-4724-A29C-B33FCEEB02A7}"/>
-    <hyperlink ref="B186" r:id="rId158" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/" xr:uid="{6DCF2FED-96E0-4252-99A3-657253C2BF7B}"/>
-    <hyperlink ref="B187" r:id="rId159" display="https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/" xr:uid="{02748D7E-93E4-49A6-88ED-98C50E8B3A1A}"/>
-    <hyperlink ref="B188" r:id="rId160" display="https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/" xr:uid="{A5BB834B-E6F2-4A58-B9AA-7E0E279C63E6}"/>
-    <hyperlink ref="B189" r:id="rId161" display="https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/" xr:uid="{F41CBF7F-EAD5-4B78-8F97-C4A0E07998F3}"/>
-    <hyperlink ref="B190" r:id="rId162" display="https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/" xr:uid="{D502C2E0-791A-492E-95BD-9726C97D1E7B}"/>
-    <hyperlink ref="B191" r:id="rId163" display="http://geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/" xr:uid="{463D8B60-1BE4-4375-89E3-4F6B0F3ABC36}"/>
-    <hyperlink ref="B192" r:id="rId164" display="https://www.geeksforgeeks.org/job-sequencing-problem/" xr:uid="{CD429159-5713-45F0-B337-A0CD2807CE36}"/>
-    <hyperlink ref="B193" r:id="rId165" display="https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/" xr:uid="{D13CF838-6511-4517-BFBB-7D5B356647A7}"/>
-    <hyperlink ref="B194" r:id="rId166" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/" xr:uid="{6007E444-ED00-4D79-BFFF-2C1310406CFD}"/>
-    <hyperlink ref="B195" r:id="rId167" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/" xr:uid="{CAFC2998-92C3-40A7-A30F-F38692625A89}"/>
-    <hyperlink ref="B196" r:id="rId168" display="https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/" xr:uid="{492C6969-F1B4-4EC8-A2C5-E67C8F91B135}"/>
-    <hyperlink ref="B197" r:id="rId169" display="https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/" xr:uid="{10B29234-3BD5-4B52-A8E7-382DB5F19EC1}"/>
-    <hyperlink ref="B198" r:id="rId170" display="https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/" xr:uid="{9F7CB75A-D667-478B-B143-0ED61A9CF5F6}"/>
-    <hyperlink ref="B199" r:id="rId171" display="http://geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/" xr:uid="{0622D3F1-B379-4AF9-98B1-ED321C9798B0}"/>
-    <hyperlink ref="B200" r:id="rId172" display="https://www.spoj.com/problems/CHOCOLA/" xr:uid="{5082909A-B375-4F18-8222-F74B7B999CAB}"/>
-    <hyperlink ref="B201" r:id="rId173" display="https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/" xr:uid="{FDE216CC-72B3-45AA-8307-255C84F9ACFB}"/>
-    <hyperlink ref="B202" r:id="rId174" display="https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/" xr:uid="{C4A45EF9-181C-4DF0-92EC-F5AF927CB613}"/>
-    <hyperlink ref="B203" r:id="rId175" display="https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/" xr:uid="{06F6F1CE-0ED8-4405-9C2B-2EC9C2E6C2AA}"/>
-    <hyperlink ref="B204" r:id="rId176" display="https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/" xr:uid="{CE37A2C5-2A0D-4C73-859A-B1104F3E1425}"/>
-    <hyperlink ref="B205" r:id="rId177" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{CD1EB722-2757-4144-BBAD-45C0D8CE77F1}"/>
-    <hyperlink ref="B206" r:id="rId178" display="https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/" xr:uid="{59BFBA0A-8DD7-4B01-BCE2-08ECE054E96A}"/>
-    <hyperlink ref="B209" r:id="rId179" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{AD38B9B4-BF88-4C5F-9095-50DB362F007F}"/>
-    <hyperlink ref="B210" r:id="rId180" display="https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1" xr:uid="{63DD209B-D058-4EA1-AD89-8CA9C20EF6F8}"/>
-    <hyperlink ref="B211" r:id="rId181" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{B92CA23E-DBDD-48FA-B7D4-821DF4453EBB}"/>
-    <hyperlink ref="B212" r:id="rId182" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{6CB56007-03CC-4203-8B4D-D008B72C54F9}"/>
-    <hyperlink ref="B213" r:id="rId183" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{99A715E3-B258-401A-8A79-1E89C1D9FDD6}"/>
-    <hyperlink ref="B214" r:id="rId184" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{39E718CA-E21B-4B95-BDE0-5E53FB337B4D}"/>
-    <hyperlink ref="B215" r:id="rId185" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{D40C39A5-A6ED-4546-B852-6A2ABF803AA9}"/>
-    <hyperlink ref="B216" r:id="rId186" display="https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1" xr:uid="{DA847DD5-FAC8-4772-AA8D-E7DC4845CFCD}"/>
-    <hyperlink ref="B217" r:id="rId187" display="https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/" xr:uid="{320F3721-E8AE-46D4-B896-2931DCAE239C}"/>
-    <hyperlink ref="B218" r:id="rId188" display="https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1" xr:uid="{CD090FB3-00A3-4787-8C05-B322956C1AA6}"/>
-    <hyperlink ref="B219" r:id="rId189" display="https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1" xr:uid="{DF59E472-EE82-4A3B-A8FE-92F069D1BC5E}"/>
-    <hyperlink ref="B220" r:id="rId190" display="https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1" xr:uid="{0DDD9A71-EEA4-4F5E-AF8C-DB4BADB7B6C6}"/>
-    <hyperlink ref="B221" r:id="rId191" display="https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1" xr:uid="{776C4D10-7153-423B-86BB-DABC35863D3A}"/>
-    <hyperlink ref="B222" r:id="rId192" display="https://leetcode.com/problems/same-tree/" xr:uid="{0357D8E1-9A98-40BD-A43D-07E2D4D63B93}"/>
-    <hyperlink ref="B223" r:id="rId193" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5723E86B-BF6B-4BE5-9361-C6D0D5E0D139}"/>
-    <hyperlink ref="B224" r:id="rId194" display="https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1" xr:uid="{28004DCD-474B-4DCF-AD0D-53BD4EB5854C}"/>
-    <hyperlink ref="B225" r:id="rId195" display="https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1" xr:uid="{0FCE17F2-8CD6-415F-B4B9-874119B741B8}"/>
-    <hyperlink ref="B226" r:id="rId196" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{79E52CAC-9AD3-4313-835F-3DA3C1B23665}"/>
-    <hyperlink ref="B227" r:id="rId197" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{B69433D2-AE46-4B83-8E08-F421D393C633}"/>
-    <hyperlink ref="B228" r:id="rId198" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/" xr:uid="{BA5241CA-D6D6-47FD-8A0A-580DCFE3329E}"/>
-    <hyperlink ref="B229" r:id="rId199" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{557D3911-CD16-4D1A-B10D-DE278B1E5176}"/>
-    <hyperlink ref="B230" r:id="rId200" display="https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/" xr:uid="{9793E8E7-0506-4423-9073-03D483432976}"/>
-    <hyperlink ref="B231" r:id="rId201" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/ - :~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{CA5A75C0-C7D6-4157-A750-2252E85FA351}"/>
-    <hyperlink ref="B232" r:id="rId202" display="https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1" xr:uid="{62427FE8-024E-43B4-9CD6-EC2E89C2CDC5}"/>
-    <hyperlink ref="B233" r:id="rId203" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="https://www.geeksforgeeks.org/check-given-graph-tree/ - :~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{830CB38A-2464-4959-A0D3-4CBBC28DA347}"/>
-    <hyperlink ref="B234" r:id="rId204" display="https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1" xr:uid="{9FAE8082-D639-4C53-8A2E-A85A05245E0A}"/>
-    <hyperlink ref="B235" r:id="rId205" display="https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1" xr:uid="{45CC228B-B276-436A-9E75-AD48BEB10878}"/>
-    <hyperlink ref="B236" r:id="rId206" display="https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1" xr:uid="{14EFE929-ED4A-468F-81CE-8B37E90B9896}"/>
-    <hyperlink ref="B237" r:id="rId207" display="https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/" xr:uid="{F519FA07-6651-4C3A-A75C-D1F2E5DB9005}"/>
-    <hyperlink ref="B238" r:id="rId208" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{C29FD7BD-C7E5-42A1-B760-C613D0FDD55B}"/>
-    <hyperlink ref="B239" r:id="rId209" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3B6A700B-462A-40BB-8912-569FFDEB7B2C}"/>
-    <hyperlink ref="B240" r:id="rId210" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{D924AB89-25CE-4DAD-88E6-B076D456B16F}"/>
-    <hyperlink ref="B241" r:id="rId211" display="https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{B8FCE6A6-158E-4065-833A-E8A83583DF8D}"/>
-    <hyperlink ref="B244" r:id="rId212" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{6CA6BCE4-F170-4F2C-82DF-90C47E945A43}"/>
-    <hyperlink ref="B245" r:id="rId213" display="https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/" xr:uid="{0183F0CE-B239-4615-B110-BC44FBBC86EB}"/>
-    <hyperlink ref="B246" r:id="rId214" display="https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1" xr:uid="{A99A299C-A29C-43B9-AC58-5866022ECE36}"/>
-    <hyperlink ref="B247" r:id="rId215" display="https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1" xr:uid="{B976DCE3-7C3B-49E5-9189-51382CE3EEFD}"/>
-    <hyperlink ref="B248" r:id="rId216" display="https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1" xr:uid="{9DC892E6-60A9-4AB2-9954-ECD67E02AC63}"/>
-    <hyperlink ref="B249" r:id="rId217" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1" xr:uid="{BCC9C9C8-0F09-491C-9B38-1F11D5BA5D4D}"/>
-    <hyperlink ref="B250" r:id="rId218" display="https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1" xr:uid="{6D292837-628A-43C9-817C-C579A02D58E8}"/>
-    <hyperlink ref="B251" r:id="rId219" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C52BF2-3674-4A59-92B9-F7EE5C3F23EC}"/>
-    <hyperlink ref="B252" r:id="rId220" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{6BEFBB9B-564C-433C-9AEF-EDFCE49FD3AC}"/>
-    <hyperlink ref="B253" r:id="rId221" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{390D6428-7736-4C83-9764-BF917EF4BF54}"/>
-    <hyperlink ref="B254" r:id="rId222" display="https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/" xr:uid="{0733896D-A63E-4D3B-BE5B-61E4EEA82F24}"/>
-    <hyperlink ref="B255" r:id="rId223" display="https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1" xr:uid="{68A6AA45-EF48-4EBF-81A8-8AC013DA66C3}"/>
-    <hyperlink ref="B256" r:id="rId224" display="https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1" xr:uid="{E3A8ACAC-2897-4E00-B2DC-08594FF8B347}"/>
-    <hyperlink ref="B257" r:id="rId225" display="https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1" xr:uid="{561742FE-426C-484C-BB1B-FAEF3E4B0215}"/>
-    <hyperlink ref="B258" r:id="rId226" display="https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/" xr:uid="{5F91FD80-5308-497D-872B-1DFFF240BC53}"/>
-    <hyperlink ref="B259" r:id="rId227" display="https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/" xr:uid="{94986362-5B0F-4454-BAAB-5D58E8C2EC29}"/>
-    <hyperlink ref="B260" r:id="rId228" display="https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/" xr:uid="{F5B4D9B8-9C1D-4092-9B7E-23F08DC4A6B7}"/>
-    <hyperlink ref="B261" r:id="rId229" display="https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/" xr:uid="{654189D7-CF88-468B-AF67-95BC63AF54FB}"/>
-    <hyperlink ref="B262" r:id="rId230" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{D60E4D4D-7344-49A5-B6CA-D3FE8837D513}"/>
-    <hyperlink ref="B263" r:id="rId231" display="https://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{E65BFA52-6C04-4DA2-808B-C66539D616EB}"/>
-    <hyperlink ref="B264" r:id="rId232" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{FEF7E8B4-879D-4DC1-B072-0C058281B60E}"/>
-    <hyperlink ref="B267" r:id="rId233" display="https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/" xr:uid="{1ACDFBF2-AAD6-4CE1-BA67-1DFE8BF5E2EE}"/>
-    <hyperlink ref="B268" r:id="rId234" display="https://www.geeksforgeeks.org/heap-sort/" xr:uid="{E9659E14-424E-403C-998F-15802B837B82}"/>
-    <hyperlink ref="B269" r:id="rId235" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{A58699C3-FE4A-4BB7-89B3-2F2D6776F7B4}"/>
-    <hyperlink ref="B270" r:id="rId236" display="https://www.geeksforgeeks.org/k-largestor-smallest-elements-in-an-array/" xr:uid="{F177F08A-6F18-414E-A8A8-19224CD63040}"/>
-    <hyperlink ref="B271" r:id="rId237" display="https://www.geeksforgeeks.org/next-greater-element/" xr:uid="{5D56F7B2-E2D6-4BF3-8822-60A9F9A1A89E}"/>
-    <hyperlink ref="B272" r:id="rId238" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/" xr:uid="{C85E2B3C-B113-4630-BE61-A8451738DFDF}"/>
-    <hyperlink ref="B273" r:id="rId239" display="https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/" xr:uid="{2A8358EE-CB91-427B-8DCB-FA05B5D5AC0B}"/>
-    <hyperlink ref="B274" r:id="rId240" display="https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/" xr:uid="{DCB912F2-0909-4261-92C0-425D568D6C14}"/>
-    <hyperlink ref="B275" r:id="rId241" display="https://www.geeksforgeeks.org/find-k-closest-elements-given-value/" xr:uid="{80012E70-1D17-42A1-8907-F20C0E26835F}"/>
-    <hyperlink ref="B276" r:id="rId242" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/" xr:uid="{CDBD7697-C54A-4DCE-B47A-5C73DF784D64}"/>
-    <hyperlink ref="B277" r:id="rId243" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/" xr:uid="{9C854B1C-CADE-4B26-B5DE-EC3DAC91DDF5}"/>
-    <hyperlink ref="B278" r:id="rId244" display="https://www.geeksforgeeks.org/cuckoo-hashing/" xr:uid="{9FDFE3CE-4EF3-4103-A54A-E3CC242F5F8E}"/>
-    <hyperlink ref="B279" r:id="rId245" display="https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/" xr:uid="{82E3814C-7C7D-4DEE-B8D4-0BFBB9F72B08}"/>
-    <hyperlink ref="B280" r:id="rId246" display="http://geeksforgeeks.org/find-the-largest-subarray-with-0-sum/" xr:uid="{1E649056-4E8E-459D-BD5C-B76B60555A10}"/>
-    <hyperlink ref="B281" r:id="rId247" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/" xr:uid="{31A4D75B-4D4F-4C52-BBC8-B2AF50CBA1CF}"/>
-    <hyperlink ref="B282" r:id="rId248" display="https://www.geeksforgeeks.org/group-shifted-string/" xr:uid="{E415AFD3-51C8-4FAD-9DA0-3589FA1A77A1}"/>
-    <hyperlink ref="B283" r:id="rId249" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{41CCAF3D-E871-445F-9362-E84B5078CB96}"/>
-    <hyperlink ref="B284" r:id="rId250" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{851C8A69-F4BF-45A6-8A21-2950DF5B8162}"/>
-    <hyperlink ref="B285" r:id="rId251" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/" xr:uid="{681F4180-0C2F-4286-9243-5621FD4DD7D9}"/>
-    <hyperlink ref="B286" r:id="rId252" display="https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/" xr:uid="{742A6F9E-8B05-477A-B126-5E2F530A31E7}"/>
-    <hyperlink ref="B287" r:id="rId253" display="https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/" xr:uid="{BBED1C45-2717-47E0-AD7C-D427A7FBA6B7}"/>
-    <hyperlink ref="B288" r:id="rId254" display="https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/" xr:uid="{96051EED-F95A-48E6-9582-4E28E0F33AC7}"/>
-    <hyperlink ref="B289" r:id="rId255" display="https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/" xr:uid="{EDE4321E-A0B0-4B08-9353-ECCC877F1101}"/>
-    <hyperlink ref="B290" r:id="rId256" display="https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/" xr:uid="{3C477D79-14B6-4E02-A353-FD71EF82D549}"/>
-    <hyperlink ref="B291" r:id="rId257" display="https://www.geeksforgeeks.org/palindrome-substring-queries/" xr:uid="{B0F83B08-F3E4-44CB-A9D1-CAF7376B4438}"/>
-    <hyperlink ref="B292" r:id="rId258" display="https://www.geeksforgeeks.org/subarrays-distinct-elements/" xr:uid="{EE62ADA5-C53E-4AF8-9A02-20515605BE35}"/>
-    <hyperlink ref="B293" r:id="rId259" display="https://www.geeksforgeeks.org/find-recurring-sequence-fraction/" xr:uid="{718BC6A1-3B06-4F96-979A-884CA2F08368}"/>
-    <hyperlink ref="B294" r:id="rId260" display="https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/" xr:uid="{FE69B827-D1D8-4927-9125-0C167A3E7414}"/>
-    <hyperlink ref="B297" r:id="rId261" display="https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1" xr:uid="{ABC8E165-2CAD-48FA-9368-5BE7306273F0}"/>
-    <hyperlink ref="B298" r:id="rId262" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/" xr:uid="{2F69369B-FC75-4B2B-AD26-E2ACFC0F033A}"/>
-    <hyperlink ref="B299" r:id="rId263" display="https://leetcode.com/problems/flood-fill/" xr:uid="{741DDDA5-CE9C-43A0-B0FC-0ECEC7432BE7}"/>
-    <hyperlink ref="B300" r:id="rId264" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{B62641B6-50ED-440E-BF8F-8B551E7CA78B}"/>
-    <hyperlink ref="B301" r:id="rId265" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{1CCDA6EA-5E4B-4898-8A49-567BDD37D0A3}"/>
-    <hyperlink ref="B302" r:id="rId266" display="https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1" xr:uid="{0075683A-3B94-4924-8468-40F63A16EA13}"/>
-    <hyperlink ref="B303" r:id="rId267" display="https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1" xr:uid="{6D2C7B5E-FFB0-4EE0-B47A-7F79525BF5E5}"/>
-    <hyperlink ref="B304" r:id="rId268" display="https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1" xr:uid="{FB017537-B17C-48F5-8B41-02B44D7B4E2D}"/>
-    <hyperlink ref="B305" r:id="rId269" display="https://leetcode.com/problems/clone-graph/" xr:uid="{8B1FC085-07E0-4890-84C7-AB3EF30986D6}"/>
-    <hyperlink ref="B306" r:id="rId270" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{DA75AEB8-2320-4E09-9F8C-174D413AFA02}"/>
-    <hyperlink ref="B307" r:id="rId271" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/" xr:uid="{C769ABB5-C00A-4B97-91F9-0784A3108EBE}"/>
-    <hyperlink ref="B308" r:id="rId272" display="https://practice.geeksforgeeks.org/problems/topological-sort/1" xr:uid="{A0B34DD2-3E12-4189-A454-8155976CC47D}"/>
-    <hyperlink ref="B309" r:id="rId273" display="https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/" xr:uid="{22D82A22-92F1-4F1D-8935-13F1A26ECB9A}"/>
-    <hyperlink ref="B310" r:id="rId274" display="https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/" xr:uid="{7FD4AAD5-D948-41E5-A7E7-60346300D285}"/>
-    <hyperlink ref="B311" r:id="rId275" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/" xr:uid="{D1795344-71A0-45A4-B6DB-D218C16DB462}"/>
-    <hyperlink ref="B312" r:id="rId276" display="https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1" xr:uid="{F62A9E0D-9104-4B7F-939D-80A56B97C1E1}"/>
-    <hyperlink ref="B313" r:id="rId277" display="https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/" xr:uid="{482B5209-4E70-4E5B-9240-614142224B17}"/>
-    <hyperlink ref="B314" r:id="rId278" display="https://practice.geeksforgeeks.org/problems/negative-weight-cycle3504/1" xr:uid="{AC3D1F14-A972-4241-86FD-99B6C4DD0331}"/>
-    <hyperlink ref="B315" r:id="rId279" display="https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1" xr:uid="{5AD30927-9325-4ADF-BE09-B135E8F0E9B1}"/>
-    <hyperlink ref="B316" r:id="rId280" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="https://www.geeksforgeeks.org/graph-coloring-applications/ - :~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{BE147614-6015-4D76-908B-15E384125492}"/>
-    <hyperlink ref="B317" r:id="rId281" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{8ACAC68D-9F5F-4AF0-8436-6B2DB1F68807}"/>
-    <hyperlink ref="B318" r:id="rId282" display="https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1" xr:uid="{53F6ED3C-8727-4F7A-8F00-CA45EA7A5CFB}"/>
-    <hyperlink ref="B319" r:id="rId283" display="https://www.hackerrank.com/challenges/journey-to-the-moon/problem" xr:uid="{DA782532-A48A-447E-BC2E-CF1AA2D6DA6A}"/>
-    <hyperlink ref="B320" r:id="rId284" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{234EF5FB-7B73-4284-9BDD-5A1965679D8D}"/>
-    <hyperlink ref="B321" r:id="rId285" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{2AF79C34-C18D-4049-814F-FE7B47178DDF}"/>
-    <hyperlink ref="B322" r:id="rId286" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/description/" xr:uid="{28985ABD-C2BD-4F70-A4FB-B41525A372FD}"/>
-    <hyperlink ref="B323" r:id="rId287" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{E28A04D4-C12B-4A73-BAA8-5EF439051250}"/>
-    <hyperlink ref="B324" r:id="rId288" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{82F9995B-6E99-4646-9821-E5F80ABC5757}"/>
-    <hyperlink ref="B325" r:id="rId289" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{BEFA54CC-0EA3-40AA-8918-3943A7EAAC37}"/>
-    <hyperlink ref="B326" r:id="rId290" display="https://leetcode.com/problems/word-ladder/" xr:uid="{9C182416-01EE-43DD-8993-A21C2F2276A5}"/>
-    <hyperlink ref="B327" r:id="rId291" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{FB62CE13-EE14-4513-98F3-3B51DDB572DB}"/>
-    <hyperlink ref="B328" r:id="rId292" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/" xr:uid="{F07B48C2-A5AE-4CE0-B328-631EF48A3497}"/>
-    <hyperlink ref="B329" r:id="rId293" display="https://www.geeksforgeeks.org/total-number-spanning-trees-graph/" xr:uid="{BC93496C-0BED-46C6-A86E-CA056DE932FA}"/>
-    <hyperlink ref="B330" r:id="rId294" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{EA3DAFC2-BB9F-47D0-A178-7F1314695157}"/>
-    <hyperlink ref="B331" r:id="rId295" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{CC2FD058-9CDA-4448-8222-6406C8B74F2F}"/>
-    <hyperlink ref="B332" r:id="rId296" display="https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/" xr:uid="{4089A0C2-8B1B-436F-B566-E27182B4D99A}"/>
-    <hyperlink ref="B333" r:id="rId297" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{C526389A-404B-4BB3-98A5-45764D094C2E}"/>
-    <hyperlink ref="B334" r:id="rId298" display="https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/" xr:uid="{EFD9120C-C64F-479F-9E69-3994434C75D6}"/>
-    <hyperlink ref="B335" r:id="rId299" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{CF1A8832-3CCF-4365-AA14-BA084A67C0F3}"/>
-    <hyperlink ref="B336" r:id="rId300" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{693AFEB2-B472-452D-B6C6-300BEF5EEE3D}"/>
-    <hyperlink ref="B347" r:id="rId301" display="https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1" xr:uid="{8A893FCA-A40A-42C3-8590-8049299B4806}"/>
-    <hyperlink ref="B348" r:id="rId302" display="https://practice.geeksforgeeks.org/problems/bbt-counter4914/1" xr:uid="{E79761BE-F6BB-416A-9AB4-7357E4A4E934}"/>
-    <hyperlink ref="B349" r:id="rId303" display="https://practice.geeksforgeeks.org/problems/reach-a-given-score-1587115621/1" xr:uid="{B4475273-03EF-4F72-8F87-5790DA65C61B}"/>
-    <hyperlink ref="B350" r:id="rId304" display="https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1" xr:uid="{93EF7F10-7301-4E25-9EF3-4955F91D45EA}"/>
-    <hyperlink ref="B351" r:id="rId305" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{B8297DD3-6F14-4A1A-B4F4-FC592A8D742B}"/>
-    <hyperlink ref="B352" r:id="rId306" display="https://www.geeksforgeeks.org/permutation-coefficient/" xr:uid="{A39CD97F-BBE9-49BF-81D7-F3D5D9230810}"/>
-    <hyperlink ref="B353" r:id="rId307" display="https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence2004/1" xr:uid="{3479FA04-B5F8-4C34-ACFD-DC9C07C7A039}"/>
-    <hyperlink ref="B354" r:id="rId308" display="https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference1533/1" xr:uid="{D0D56D2E-DF88-4B34-A732-316D4E8636E6}"/>
-    <hyperlink ref="B355" r:id="rId309" display="https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1" xr:uid="{C2D9FF12-EDF5-4731-B17D-F8654BFD6A9B}"/>
-    <hyperlink ref="B356" r:id="rId310" display="https://leetcode.com/problems/coin-change/" xr:uid="{11C4FDD6-0928-42F5-A838-BE00AA4E601C}"/>
-    <hyperlink ref="B357" r:id="rId311" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{51B2DDB8-4B7C-4E57-8E18-680AB98677F6}"/>
-    <hyperlink ref="B358" r:id="rId312" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{49459001-227F-4A1E-916C-532BFB5B7551}"/>
-    <hyperlink ref="B359" r:id="rId313" display="https://leetcode.com/problems/word-break/" xr:uid="{BEEDE135-12B8-4F86-880F-3C7CEA459977}"/>
-    <hyperlink ref="B360" r:id="rId314" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{C35DAD21-3D3B-4DAD-B43D-9AB6EB4C31B8}"/>
-    <hyperlink ref="B361" r:id="rId315" display="https://leetcode.com/problems/house-robber/" xr:uid="{8172B215-A0ED-4833-A5C9-144719180D92}"/>
-    <hyperlink ref="B362" r:id="rId316" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{D16D749B-2BCA-4B8B-83F6-63605BFCE00E}"/>
-    <hyperlink ref="B363" r:id="rId317" display="https://leetcode.com/problems/decode-ways/" xr:uid="{9DEB70D8-1411-4700-BF41-7EFAB60D2DDC}"/>
-    <hyperlink ref="B364" r:id="rId318" display="https://leetcode.com/problems/unique-paths/" xr:uid="{6DC8F847-BC5F-4F4E-9024-3B3BAD4E7B71}"/>
-    <hyperlink ref="B365" r:id="rId319" display="https://leetcode.com/problems/jump-game/" xr:uid="{36006AED-3098-4C5B-8915-64B52E865D3B}"/>
-    <hyperlink ref="B366" r:id="rId320" display="https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem0945/1" xr:uid="{DD212B1E-89E7-4107-94B4-CC3F41C5C0DB}"/>
-    <hyperlink ref="B367" r:id="rId321" display="https://practice.geeksforgeeks.org/problems/ncr1019/1" xr:uid="{2D1D7511-E837-4AD6-ACBA-01A7DF722170}"/>
-    <hyperlink ref="B368" r:id="rId322" display="https://www.geeksforgeeks.org/program-nth-catalan-number/" xr:uid="{A51E40FE-239F-4B74-9E01-3A5E2B4433F5}"/>
-    <hyperlink ref="B369" r:id="rId323" display="https://practice.geeksforgeeks.org/problems/edit-distance3702/1" xr:uid="{69E86FF8-C63A-499D-B882-1A5E81DC3D55}"/>
-    <hyperlink ref="B370" r:id="rId324" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{A996182D-9759-4302-98A7-6424488966EF}"/>
-    <hyperlink ref="B371" r:id="rId325" display="https://www.geeksforgeeks.org/gold-mine-problem/" xr:uid="{F256E50D-FAAE-4414-A6BE-2CE4AE0A4C47}"/>
-    <hyperlink ref="B372" r:id="rId326" display="https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/" xr:uid="{EEAF8FAA-4CED-4821-8532-DC76A9145ED8}"/>
-    <hyperlink ref="B373" r:id="rId327" display="https://practice.geeksforgeeks.org/problems/cutted-segments1642/1" xr:uid="{0BF7C422-2910-45A1-B052-405EAE5D597D}"/>
-    <hyperlink ref="B374" r:id="rId328" display="https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1" xr:uid="{D30DA670-2542-4011-8820-2FA82E6F5BBA}"/>
-    <hyperlink ref="B375" r:id="rId329" display="https://www.geeksforgeeks.org/count-subsequences-product-less-k/" xr:uid="{5C8203C1-0D80-40B6-8F22-0DFBEE6ACF8C}"/>
-    <hyperlink ref="B376" r:id="rId330" display="https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/" xr:uid="{64A7DB7F-45EA-4DEB-A705-847E7F5F3680}"/>
-    <hyperlink ref="B377" r:id="rId331" display="https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle-1587115620/1" xr:uid="{0F0E9427-70C9-4C93-B6EF-DB2B18247077}"/>
-    <hyperlink ref="B378" r:id="rId332" display="https://practice.geeksforgeeks.org/problems/max-length-chain/1" xr:uid="{DEBAEEBA-22DA-4A50-885A-C63264F06622}"/>
-    <hyperlink ref="B379" r:id="rId333" display="https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix0806/1" xr:uid="{922699D3-8C68-4F50-80F2-D2826FAC27C9}"/>
-    <hyperlink ref="B380" r:id="rId334" display="https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1" xr:uid="{E74E8FA1-10B4-470E-9670-7CEA26CFE365}"/>
-    <hyperlink ref="B381" r:id="rId335" display="https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps-1587115620/1" xr:uid="{044184E6-8A82-408E-8964-204EB1DDF2EA}"/>
-    <hyperlink ref="B382" r:id="rId336" display="http://geeksforgeeks.org/minimum-removals-array-make-max-min-k/" xr:uid="{3A75ACFF-EA70-4E4E-BA9D-42D3903BEABE}"/>
-    <hyperlink ref="B383" r:id="rId337" display="https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1" xr:uid="{AD2315B5-24BB-41F0-A81D-6FE061E3E642}"/>
-    <hyperlink ref="B384" r:id="rId338" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{6E3E7571-EA27-496B-ABA8-F47EE973AD8C}"/>
-    <hyperlink ref="B385" r:id="rId339" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/" xr:uid="{5A893176-9EF5-4E75-AB1A-FA2425F468F1}"/>
-    <hyperlink ref="B386" r:id="rId340" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{515D577F-F89A-48F4-94C6-D9EA4CD0D8B8}"/>
-    <hyperlink ref="B387" r:id="rId341" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{873716DD-9D57-4D10-A162-B9F6D54843BF}"/>
-    <hyperlink ref="B388" r:id="rId342" display="https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence5951/1" xr:uid="{19D8AED6-787B-4976-A849-977CE00D6863}"/>
-    <hyperlink ref="B389" r:id="rId343" display="https://www.geeksforgeeks.org/weighted-job-scheduling/" xr:uid="{8536076C-378E-49A8-80C6-6287B27D763D}"/>
-    <hyperlink ref="B390" r:id="rId344" display="https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/" xr:uid="{16448EBF-6869-4BCE-9E5C-A56DDD203916}"/>
-    <hyperlink ref="B391" r:id="rId345" display="https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/" xr:uid="{725AFF89-D22F-4850-A5C0-42CA830ED664}"/>
-    <hyperlink ref="B392" r:id="rId346" display="https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game-1587115620/1" xr:uid="{6BC5912C-2FF4-4E59-A1EF-B44F99EDC871}"/>
-    <hyperlink ref="B393" r:id="rId347" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{62C9FDB3-AC57-48FF-87D2-D00F91F5F117}"/>
-    <hyperlink ref="B394" r:id="rId348" display="https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1" xr:uid="{111AF162-6104-433C-B1A3-F13852DDED7A}"/>
-    <hyperlink ref="B395" r:id="rId349" display="https://leetcode.com/problems/maximum-length-of-pair-chain/" xr:uid="{52E940A0-1FAE-429A-BB0E-23094D3FBD95}"/>
-    <hyperlink ref="B396" r:id="rId350" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/" xr:uid="{288DF147-214B-4B72-AEF2-A8CB652A02FF}"/>
-    <hyperlink ref="B397" r:id="rId351" display="https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/" xr:uid="{4E68F012-338F-4E9D-80A4-1F7447BB421C}"/>
-    <hyperlink ref="B398" r:id="rId352" display="https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/" xr:uid="{AD781ECE-7545-433A-A34B-718C048C26E9}"/>
-    <hyperlink ref="B399" r:id="rId353" display="https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/" xr:uid="{3A9FF6BA-7F5B-4771-9F12-0B19AB2A9239}"/>
-    <hyperlink ref="B400" r:id="rId354" display="https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/" xr:uid="{F5494180-F6C7-4618-B644-FA3248BB0833}"/>
-    <hyperlink ref="B415" r:id="rId355" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{E6F012F3-FC8F-4347-97B8-DD0FCD7F6243}"/>
-    <hyperlink ref="B416" r:id="rId356" display="https://cp-algorithms.com/sequences/rmq.html" xr:uid="{E3EDA13A-0062-4A3F-A0EC-61D76EA5AA95}"/>
-    <hyperlink ref="B417" r:id="rId357" display="https://leetcode.com/problems/range-sum-query-mutable/" xr:uid="{9DFD2134-0B69-4BFB-80F5-AFC463D7444B}"/>
-    <hyperlink ref="B418" r:id="rId358" display="https://leetcode.com/problems/create-sorted-array-through-instructions/" xr:uid="{45D6BA72-A309-4A99-932F-11A525796EA9}"/>
-    <hyperlink ref="B419" r:id="rId359" display="https://leetcode.com/problems/count-of-range-sum/" xr:uid="{1747861A-8BF6-4335-9960-1FA4B50A1907}"/>
-    <hyperlink ref="B420" r:id="rId360" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{152D2E39-F5D4-4F68-A71A-72D0E2D3523A}"/>
+    <hyperlink ref="B75" r:id="rId56" display="https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/" xr:uid="{C37B2970-0B5E-493A-B627-732FDD7E8677}"/>
+    <hyperlink ref="B76" r:id="rId57" display="https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/" xr:uid="{45A7A3D0-5514-4725-BF25-1BAE4B35841C}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{563C69B2-B43A-498F-9EC9-E402783619F5}"/>
+    <hyperlink ref="B80" r:id="rId59" display="https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/" xr:uid="{3FF419AE-1583-41D8-B526-BAD813744BAC}"/>
+    <hyperlink ref="B81" r:id="rId60" display="https://www.geeksforgeeks.org/counting-sort/" xr:uid="{DED9AE81-E066-49AF-9A83-2392F7DC91AD}"/>
+    <hyperlink ref="B82" r:id="rId61" display="https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/" xr:uid="{4D1F2379-067A-489D-9364-E17920740D24}"/>
+    <hyperlink ref="B83" r:id="rId62" display="https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/" xr:uid="{89DACB91-5737-4332-845C-7D874928131F}"/>
+    <hyperlink ref="B84" r:id="rId63" xr:uid="{E84DBDF5-53A6-4ECB-ADB8-1846C270F7CF}"/>
+    <hyperlink ref="B85" r:id="rId64" display="https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/" xr:uid="{D7B066E6-7296-42FF-ABE0-CD0DB3FDB8BA}"/>
+    <hyperlink ref="B86" r:id="rId65" display="https://www.geeksforgeeks.org/majority-element/" xr:uid="{15BD9A55-840F-4640-9BBB-E2B3E0CAD085}"/>
+    <hyperlink ref="B87" r:id="rId66" display="https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/" xr:uid="{3C9049F5-5156-48C6-8D4A-D0B86B8330B3}"/>
+    <hyperlink ref="B88" r:id="rId67" display="https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/" xr:uid="{104B6EC9-B168-4A82-860C-D70D23EB546F}"/>
+    <hyperlink ref="B89" r:id="rId68" display="https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/" xr:uid="{E8CA5071-503B-45DD-9AEE-1BCA60C9F193}"/>
+    <hyperlink ref="B90" r:id="rId69" display="https://practice.geeksforgeeks.org/problems/inversion-of-array-1587115620/1" xr:uid="{CC5A40FE-E0D9-4692-864C-7C3935D1FB12}"/>
+    <hyperlink ref="B91" r:id="rId70" display="https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/" xr:uid="{210B4309-EA45-40D6-B4FA-565DB306DA38}"/>
+    <hyperlink ref="B92" r:id="rId71" display="https://www.geeksforgeeks.org/radix-sort/" xr:uid="{35837A9A-3D6C-4B3C-888B-4BDC0536F3CD}"/>
+    <hyperlink ref="B93" r:id="rId72" display="https://www.geeksforgeeks.org/a-product-array-puzzle/" xr:uid="{4B03A578-6405-4C69-B4B3-97327EB3894D}"/>
+    <hyperlink ref="B94" r:id="rId73" display="https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/" xr:uid="{FC476393-0D93-486A-B9E4-EE532FEA290A}"/>
+    <hyperlink ref="B95" r:id="rId74" display="https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/" xr:uid="{FC325AD3-0493-48C1-AD97-651EAEA8BF2D}"/>
+    <hyperlink ref="B96" r:id="rId75" display="https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/" xr:uid="{378D8C38-826D-4F6E-9ED3-34FF788FC5B4}"/>
+    <hyperlink ref="B97" r:id="rId76" display="https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/" xr:uid="{CBD0C288-3AC9-4E23-A6CA-228D2D59C839}"/>
+    <hyperlink ref="B98" r:id="rId77" display="https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/" xr:uid="{B770F119-77CF-4BF6-ABCC-0A82E2433D1D}"/>
+    <hyperlink ref="B99" r:id="rId78" display="https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/" xr:uid="{E9C7BEB3-FAEF-496E-8623-A543C4DC3277}"/>
+    <hyperlink ref="B100" r:id="rId79" display="https://www.spoj.com/problems/AGGRCOW/" xr:uid="{CE2FA856-7DC8-4E88-A14C-345196CAE420}"/>
+    <hyperlink ref="B101" r:id="rId80" display="https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1" xr:uid="{426DE4E4-E6A2-4333-9CE1-603032FB7B0A}"/>
+    <hyperlink ref="B102" r:id="rId81" display="https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/" xr:uid="{BEBD851A-70EC-4501-AF30-D6C5376CEED1}"/>
+    <hyperlink ref="B105" r:id="rId82" display="https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/" xr:uid="{3C5064CE-5524-45B2-B86B-F310AFC043FC}"/>
+    <hyperlink ref="B106" r:id="rId83" display="https://www.geeksforgeeks.org/combinational-sum/" xr:uid="{314ECBCF-A640-44D5-8845-EA3ABDF12C3B}"/>
+    <hyperlink ref="B107" r:id="rId84" display="https://www.hackerrank.com/challenges/crossword-puzzle/problem" xr:uid="{A8C33AEC-D174-4688-83A3-21E8DDF71B84}"/>
+    <hyperlink ref="B108" r:id="rId85" display="https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/" xr:uid="{CB89B281-FE27-42A6-ABE7-D78A86615CEB}"/>
+    <hyperlink ref="B109" r:id="rId86" display="https://www.geeksforgeeks.org/printing-solutions-n-queen-problem/" xr:uid="{86A1357F-BE75-440C-9AFD-C32FA61EF48E}"/>
+    <hyperlink ref="B110" r:id="rId87" display="https://practice.geeksforgeeks.org/problems/solve-the-sudoku-1587115621/1" xr:uid="{BC9F48AA-DDB0-4797-9BA1-B26728278FC6}"/>
+    <hyperlink ref="B111" r:id="rId88" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{7098B477-37B3-4B0A-B84B-6E6208E83D05}"/>
+    <hyperlink ref="B112" r:id="rId89" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{3A0ADF5D-E529-45F3-B0B5-DE1962BAC3C9}"/>
+    <hyperlink ref="B113" r:id="rId90" display="https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/" xr:uid="{F50BCD80-6FAF-472F-BEC2-8CB6DBAE8D8B}"/>
+    <hyperlink ref="B114" r:id="rId91" display="https://www.geeksforgeeks.org/backtracking-set-7-suduku/" xr:uid="{5FD6CA9D-6BB7-4A8A-8738-9BCCABEE1E46}"/>
+    <hyperlink ref="B115" r:id="rId92" display="https://www.geeksforgeeks.org/remove-invalid-parentheses/" xr:uid="{8F431167-9AC6-47B9-B336-127F6414798E}"/>
+    <hyperlink ref="B116" r:id="rId93" display="https://www.geeksforgeeks.org/word-break-problem-using-backtracking/" xr:uid="{D077C4EA-DA66-4C76-AD15-6882936CC60D}"/>
+    <hyperlink ref="B117" r:id="rId94" display="https://www.geeksforgeeks.org/print-palindromic-partitions-string/" xr:uid="{79252414-642A-411A-A14D-7ADA8685D823}"/>
+    <hyperlink ref="B118" r:id="rId95" display="https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/" xr:uid="{51E9BAAC-2F65-4139-A0D1-314FB1CA2CDE}"/>
+    <hyperlink ref="B119" r:id="rId96" display="https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/" xr:uid="{3A523D4C-792A-4A86-B4B5-68CDA1B35B61}"/>
+    <hyperlink ref="B120" r:id="rId97" display="https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/" xr:uid="{E386E76E-6DFA-48A4-AF06-35500F74BF0E}"/>
+    <hyperlink ref="B121" r:id="rId98" display="https://www.geeksforgeeks.org/tug-of-war/" xr:uid="{89841927-CDE1-4484-A6CC-0EB772E00C76}"/>
+    <hyperlink ref="B122" r:id="rId99" display="https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/" xr:uid="{4636176E-33AC-449A-9D94-41071DB0119C}"/>
+    <hyperlink ref="B123" r:id="rId100" display="https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/" xr:uid="{CFD2F4A5-82C2-45C4-A105-6C76D0E8703E}"/>
+    <hyperlink ref="B124" r:id="rId101" display="https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/" xr:uid="{023D34E4-7350-41BE-8AD0-3704039C5AF8}"/>
+    <hyperlink ref="B125" r:id="rId102" display="https://www.hackerrank.com/challenges/arithmetic-expressions/problem" xr:uid="{ACAAA5A5-E607-4B57-AFBB-9B42CB1BAB5A}"/>
+    <hyperlink ref="B128" r:id="rId103" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{E9B7716A-EC8C-47B5-9D1A-4DE4DBEEEA28}"/>
+    <hyperlink ref="B129" r:id="rId104" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{C4CA6F51-3256-4077-B4B0-17DEE6A261F3}"/>
+    <hyperlink ref="B130" r:id="rId105" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{303BE593-DC25-424E-86BE-E5F939586796}"/>
+    <hyperlink ref="B131" r:id="rId106" display="https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/" xr:uid="{49567C02-632D-4738-917F-90FA46802273}"/>
+    <hyperlink ref="B132" r:id="rId107" display="https://www.geeksforgeeks.org/remove-duplicates-from-an-unsorted-linked-list/" xr:uid="{5A533CD1-B6CC-45BB-A793-3E57CC0278C7}"/>
+    <hyperlink ref="B133" r:id="rId108" display="https://www.geeksforgeeks.org/sort-a-linked-list-of-0s-1s-or-2s/" xr:uid="{26FC6BEA-5C85-4E69-BEC7-4B692C66034E}"/>
+    <hyperlink ref="B134" r:id="rId109" display="https://www.geeksforgeeks.org/multiply-two-numbers-represented-linked-lists/" xr:uid="{D567922E-E92B-4D64-8D74-C3877F1962D7}"/>
+    <hyperlink ref="B135" r:id="rId110" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{0F66D9FA-3D56-4153-A97F-081D18A1067D}"/>
+    <hyperlink ref="B136" r:id="rId111" display="https://leetcode.com/problems/reorder-list/" xr:uid="{BD8E8013-42A4-4218-BDBD-BD32CB0CACE7}"/>
+    <hyperlink ref="B137" r:id="rId112" display="https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/" xr:uid="{875E1D0A-7CA2-4032-A409-BA51C252AEEF}"/>
+    <hyperlink ref="B138" r:id="rId113" display="https://www.geeksforgeeks.org/write-a-function-to-get-the-intersection-point-of-two-linked-lists/" xr:uid="{C8A6C397-29E9-4913-B448-6465E9677E60}"/>
+    <hyperlink ref="B139" r:id="rId114" display="https://www.geeksforgeeks.org/flatten-a-linked-list-with-next-and-child-pointers/" xr:uid="{D5207E44-C260-467B-A6BB-E214290D37F8}"/>
+    <hyperlink ref="B140" r:id="rId115" display="https://www.geeksforgeeks.org/linked-list-in-zig-zag-fashion/" xr:uid="{DF551C5D-1B7C-442F-B12B-7C0DE6C864A8}"/>
+    <hyperlink ref="B141" r:id="rId116" display="https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1" xr:uid="{A39DF6A9-03AB-4474-B847-0E9B23840CE8}"/>
+    <hyperlink ref="B142" r:id="rId117" display="https://www.geeksforgeeks.org/delete-nodes-which-have-a-greater-value-on-right-side/" xr:uid="{A64F85A0-93F9-4207-A048-A61627BA8750}"/>
+    <hyperlink ref="B143" r:id="rId118" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{06BAEE8D-76D3-4844-BC4E-43CC5D1AFDE7}"/>
+    <hyperlink ref="B144" r:id="rId119" display="https://www.geeksforgeeks.org/point-to-next-higher-value-node-in-a-linked-list-with-an-arbitrary-pointer/" xr:uid="{072C3A0F-1D80-4DB1-BED9-BB8FB69D76B8}"/>
+    <hyperlink ref="B145" r:id="rId120" display="https://www.geeksforgeeks.org/rearrange-a-given-linked-list-in-place/" xr:uid="{12DFF55D-1D33-4D63-BC37-74EED812F77A}"/>
+    <hyperlink ref="B146" r:id="rId121" display="https://www.geeksforgeeks.org/sort-biotonic-doubly-linked-list/" xr:uid="{EECE0C9F-DB1E-48A4-9272-7941E941787C}"/>
+    <hyperlink ref="B147" r:id="rId122" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{CCB3DF55-9F47-4652-A0D3-01BFBEBBD114}"/>
+    <hyperlink ref="B148" r:id="rId123" display="https://www.geeksforgeeks.org/merge-sort-for-linked-list/" xr:uid="{D5E9EBF0-DFFC-4FB3-A156-483A7AC6BBED}"/>
+    <hyperlink ref="B149" r:id="rId124" display="https://www.geeksforgeeks.org/quicksort-on-singly-linked-list/" xr:uid="{563AD896-CD19-483C-A7F2-722F0570D83F}"/>
+    <hyperlink ref="B150" r:id="rId125" display="https://www.geeksforgeeks.org/sum-of-two-linked-lists/" xr:uid="{133416C5-F9B7-4C9B-A2E5-2904613A44E1}"/>
+    <hyperlink ref="B151" r:id="rId126" display="https://www.geeksforgeeks.org/flattening-a-linked-list/" xr:uid="{42A61AB0-1780-4863-84A2-13D6862DD568}"/>
+    <hyperlink ref="B152" r:id="rId127" display="https://www.geeksforgeeks.org/a-linked-list-with-next-and-arbit-pointer/" xr:uid="{0FF7DBF2-B8CB-45AA-A6FE-2F05B1FB830D}"/>
+    <hyperlink ref="B153" r:id="rId128" display="https://www.geeksforgeeks.org/subtract-two-numbers-represented-as-linked-lists/" xr:uid="{68ED9C0B-E45A-425E-9334-8573AEEF863C}"/>
+    <hyperlink ref="B156" r:id="rId129" display="https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/" xr:uid="{86A92837-522D-40FD-9FB2-E7AE531F2D9B}"/>
+    <hyperlink ref="B157" r:id="rId130" display="https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/" xr:uid="{E5436E2C-6FCF-4C7F-A903-9B1E325918A9}"/>
+    <hyperlink ref="B158" r:id="rId131" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{F79FB06F-2608-47C2-BC19-CC1C0EB814A6}"/>
+    <hyperlink ref="B159" r:id="rId132" display="https://practice.geeksforgeeks.org/problems/queue-reversal/1" xr:uid="{D0991E87-CE2F-4208-B0A5-FE67F81EFED0}"/>
+    <hyperlink ref="B160" r:id="rId133" display="https://www.geeksforgeeks.org/implement-stack-queue-using-deque/" xr:uid="{28BF0377-E35E-40AD-B25A-13C769A134B7}"/>
+    <hyperlink ref="B161" r:id="rId134" display="https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1" xr:uid="{0A119515-F4F3-42F6-B987-AA169E7189A3}"/>
+    <hyperlink ref="B162" r:id="rId135" display="https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/" xr:uid="{627C7B46-5FC7-43A0-A5F4-82151DE4DCE5}"/>
+    <hyperlink ref="B163" r:id="rId136" display="https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/" xr:uid="{EFAD02CC-0C91-4FDD-B82E-9967554DCFFA}"/>
+    <hyperlink ref="B164" r:id="rId137" display="https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/" xr:uid="{D0A958F2-72ED-4457-86C8-1C8FA560F4D5}"/>
+    <hyperlink ref="B165" r:id="rId138" display="https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/" xr:uid="{CFEA05AC-8BB1-4482-86E5-F7C47BEA439F}"/>
+    <hyperlink ref="B166" r:id="rId139" display="https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/" xr:uid="{4E3FF96A-5354-4885-985C-4F416A2A1395}"/>
+    <hyperlink ref="B167" r:id="rId140" display="https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/" xr:uid="{935FECFC-420F-483F-83DB-E42774297C2F}"/>
+    <hyperlink ref="B168" r:id="rId141" display="https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/" xr:uid="{0983B438-6B09-4883-B912-C6B0937102C8}"/>
+    <hyperlink ref="B169" r:id="rId142" display="https://www.geeksforgeeks.org/sort-a-stack-using-recursion/" xr:uid="{F0060024-D8D7-42F1-AC2B-349933BF69E3}"/>
+    <hyperlink ref="B170" r:id="rId143" display="https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/" xr:uid="{CC981A73-142E-436D-8EDD-06034CA16EFC}"/>
+    <hyperlink ref="B171" r:id="rId144" display="https://practice.geeksforgeeks.org/problems/the-celebrity-problem/1" xr:uid="{C9ACE923-CF43-4898-A2BC-57798A187178}"/>
+    <hyperlink ref="B172" r:id="rId145" display="https://practice.geeksforgeeks.org/problems/next-larger-element-1587115620/1" xr:uid="{7FF74613-68C1-4810-A798-EB66306A5B13}"/>
+    <hyperlink ref="B173" r:id="rId146" display="https://practice.geeksforgeeks.org/problems/distance-of-nearest-cell-having-1-1587115620/1" xr:uid="{0EDFC38D-DF16-4E95-81EC-69E94BAD5461}"/>
+    <hyperlink ref="B174" r:id="rId147" display="https://practice.geeksforgeeks.org/problems/rotten-oranges2536/1" xr:uid="{2AA0E1BC-070A-4AFF-BEA9-E365F84BDB02}"/>
+    <hyperlink ref="B175" r:id="rId148" display="https://www.geeksforgeeks.org/next-smaller-element/" xr:uid="{CBE283B3-0BAF-431E-9677-BF2E10847922}"/>
+    <hyperlink ref="B176" r:id="rId149" display="https://practice.geeksforgeeks.org/problems/circular-tour/1" xr:uid="{7C61C98C-3C9D-4C79-AE62-92403450305C}"/>
+    <hyperlink ref="B177" r:id="rId150" display="https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/" xr:uid="{D012EA64-C327-4C38-BFA2-E9D38E202F26}"/>
+    <hyperlink ref="B178" r:id="rId151" display="http://geeksforgeeks.org/the-celebrity-problem/" xr:uid="{EFE704D5-27E9-4514-87DE-007B2642CB88}"/>
+    <hyperlink ref="B179" r:id="rId152" display="https://www.geeksforgeeks.org/iterative-tower-of-hanoi/" xr:uid="{66CCA9E0-6B97-4184-9982-9992C5F400B2}"/>
+    <hyperlink ref="B180" r:id="rId153" display="https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/" xr:uid="{62A3A75E-FC65-4AE3-A002-70D8611933F3}"/>
+    <hyperlink ref="B181" r:id="rId154" display="https://www.geeksforgeeks.org/lru-cache-implementation/" xr:uid="{13B805BB-5050-4DAD-877E-74BCA9FD0C9D}"/>
+    <hyperlink ref="B182" r:id="rId155" display="https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/" xr:uid="{16BB3746-D1D6-4B4F-B652-C6831A9A8718}"/>
+    <hyperlink ref="B185" r:id="rId156" display="https://www.geeksforgeeks.org/activity-selection-problem-greedy-algo-1/" xr:uid="{014879DD-29E8-4724-A29C-B33FCEEB02A7}"/>
+    <hyperlink ref="B186" r:id="rId157" display="https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/" xr:uid="{6DCF2FED-96E0-4252-99A3-657253C2BF7B}"/>
+    <hyperlink ref="B187" r:id="rId158" display="https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/" xr:uid="{02748D7E-93E4-49A6-88ED-98C50E8B3A1A}"/>
+    <hyperlink ref="B188" r:id="rId159" display="https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/" xr:uid="{A5BB834B-E6F2-4A58-B9AA-7E0E279C63E6}"/>
+    <hyperlink ref="B189" r:id="rId160" display="https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/" xr:uid="{F41CBF7F-EAD5-4B78-8F97-C4A0E07998F3}"/>
+    <hyperlink ref="B190" r:id="rId161" display="https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/" xr:uid="{D502C2E0-791A-492E-95BD-9726C97D1E7B}"/>
+    <hyperlink ref="B191" r:id="rId162" display="http://geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/" xr:uid="{463D8B60-1BE4-4375-89E3-4F6B0F3ABC36}"/>
+    <hyperlink ref="B192" r:id="rId163" display="https://www.geeksforgeeks.org/job-sequencing-problem/" xr:uid="{CD429159-5713-45F0-B337-A0CD2807CE36}"/>
+    <hyperlink ref="B193" r:id="rId164" display="https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/" xr:uid="{D13CF838-6511-4517-BFBB-7D5B356647A7}"/>
+    <hyperlink ref="B194" r:id="rId165" display="https://www.geeksforgeeks.org/fractional-knapsack-problem/" xr:uid="{6007E444-ED00-4D79-BFFF-2C1310406CFD}"/>
+    <hyperlink ref="B195" r:id="rId166" display="https://www.geeksforgeeks.org/maximum-length-chain-of-pairs-dp-20/" xr:uid="{CAFC2998-92C3-40A7-A30F-F38692625A89}"/>
+    <hyperlink ref="B196" r:id="rId167" display="https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/" xr:uid="{492C6969-F1B4-4EC8-A2C5-E67C8F91B135}"/>
+    <hyperlink ref="B197" r:id="rId168" display="https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/" xr:uid="{10B29234-3BD5-4B52-A8E7-382DB5F19EC1}"/>
+    <hyperlink ref="B198" r:id="rId169" display="https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/" xr:uid="{9F7CB75A-D667-478B-B143-0ED61A9CF5F6}"/>
+    <hyperlink ref="B199" r:id="rId170" display="http://geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/" xr:uid="{0622D3F1-B379-4AF9-98B1-ED321C9798B0}"/>
+    <hyperlink ref="B200" r:id="rId171" display="https://www.spoj.com/problems/CHOCOLA/" xr:uid="{5082909A-B375-4F18-8222-F74B7B999CAB}"/>
+    <hyperlink ref="B201" r:id="rId172" display="https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/" xr:uid="{FDE216CC-72B3-45AA-8307-255C84F9ACFB}"/>
+    <hyperlink ref="B202" r:id="rId173" display="https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/" xr:uid="{C4A45EF9-181C-4DF0-92EC-F5AF927CB613}"/>
+    <hyperlink ref="B203" r:id="rId174" display="https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/" xr:uid="{06F6F1CE-0ED8-4405-9C2B-2EC9C2E6C2AA}"/>
+    <hyperlink ref="B204" r:id="rId175" display="https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/" xr:uid="{CE37A2C5-2A0D-4C73-859A-B1104F3E1425}"/>
+    <hyperlink ref="B205" r:id="rId176" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{CD1EB722-2757-4144-BBAD-45C0D8CE77F1}"/>
+    <hyperlink ref="B206" r:id="rId177" display="https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/" xr:uid="{59BFBA0A-8DD7-4B01-BCE2-08ECE054E96A}"/>
+    <hyperlink ref="B209" r:id="rId178" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/" xr:uid="{AD38B9B4-BF88-4C5F-9095-50DB362F007F}"/>
+    <hyperlink ref="B210" r:id="rId179" display="https://practice.geeksforgeeks.org/problems/reverse-level-order-traversal/1" xr:uid="{63DD209B-D058-4EA1-AD89-8CA9C20EF6F8}"/>
+    <hyperlink ref="B211" r:id="rId180" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{B92CA23E-DBDD-48FA-B7D4-821DF4453EBB}"/>
+    <hyperlink ref="B212" r:id="rId181" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{6CB56007-03CC-4203-8B4D-D008B72C54F9}"/>
+    <hyperlink ref="B213" r:id="rId182" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{99A715E3-B258-401A-8A79-1E89C1D9FDD6}"/>
+    <hyperlink ref="B214" r:id="rId183" display="https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1" xr:uid="{39E718CA-E21B-4B95-BDE0-5E53FB337B4D}"/>
+    <hyperlink ref="B215" r:id="rId184" display="https://practice.geeksforgeeks.org/problems/right-view-of-binary-tree/1" xr:uid="{D40C39A5-A6ED-4546-B852-6A2ABF803AA9}"/>
+    <hyperlink ref="B216" r:id="rId185" display="https://practice.geeksforgeeks.org/problems/zigzag-tree-traversal/1" xr:uid="{DA847DD5-FAC8-4772-AA8D-E7DC4845CFCD}"/>
+    <hyperlink ref="B217" r:id="rId186" display="https://www.geeksforgeeks.org/create-a-mirror-tree-from-the-given-binary-tree/" xr:uid="{320F3721-E8AE-46D4-B896-2931DCAE239C}"/>
+    <hyperlink ref="B218" r:id="rId187" display="https://practice.geeksforgeeks.org/problems/leaf-at-same-level/1" xr:uid="{CD090FB3-00A3-4787-8C05-B322956C1AA6}"/>
+    <hyperlink ref="B219" r:id="rId188" display="https://practice.geeksforgeeks.org/problems/check-for-balanced-tree/1" xr:uid="{DF59E472-EE82-4A3B-A8FE-92F069D1BC5E}"/>
+    <hyperlink ref="B220" r:id="rId189" display="https://practice.geeksforgeeks.org/problems/transform-to-sum-tree/1" xr:uid="{0DDD9A71-EEA4-4F5E-AF8C-DB4BADB7B6C6}"/>
+    <hyperlink ref="B221" r:id="rId190" display="https://practice.geeksforgeeks.org/problems/check-if-tree-is-isomorphic/1" xr:uid="{776C4D10-7153-423B-86BB-DABC35863D3A}"/>
+    <hyperlink ref="B222" r:id="rId191" display="https://leetcode.com/problems/same-tree/" xr:uid="{0357D8E1-9A98-40BD-A43D-07E2D4D63B93}"/>
+    <hyperlink ref="B223" r:id="rId192" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{5723E86B-BF6B-4BE5-9361-C6D0D5E0D139}"/>
+    <hyperlink ref="B224" r:id="rId193" display="https://practice.geeksforgeeks.org/problems/height-of-binary-tree/1" xr:uid="{28004DCD-474B-4DCF-AD0D-53BD4EB5854C}"/>
+    <hyperlink ref="B225" r:id="rId194" display="https://practice.geeksforgeeks.org/problems/diameter-of-binary-tree/1" xr:uid="{0FCE17F2-8CD6-415F-B4B9-874119B741B8}"/>
+    <hyperlink ref="B226" r:id="rId195" display="https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1" xr:uid="{79E52CAC-9AD3-4313-835F-3DA3C1B23665}"/>
+    <hyperlink ref="B227" r:id="rId196" display="https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1" xr:uid="{B69433D2-AE46-4B83-8E08-F421D393C633}"/>
+    <hyperlink ref="B228" r:id="rId197" display="https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/" xr:uid="{BA5241CA-D6D6-47FD-8A0A-580DCFE3329E}"/>
+    <hyperlink ref="B229" r:id="rId198" display="https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1" xr:uid="{557D3911-CD16-4D1A-B10D-DE278B1E5176}"/>
+    <hyperlink ref="B230" r:id="rId199" display="https://www.geeksforgeeks.org/construct-binary-tree-string-bracket-representation/" xr:uid="{9793E8E7-0506-4423-9073-03D483432976}"/>
+    <hyperlink ref="B231" r:id="rId200" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="https://www.geeksforgeeks.org/minimum-swap-required-convert-binary-tree-binary-search-tree/ - :~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{CA5A75C0-C7D6-4157-A750-2252E85FA351}"/>
+    <hyperlink ref="B232" r:id="rId201" display="https://practice.geeksforgeeks.org/problems/duplicate-subtree-in-binary-tree/1" xr:uid="{62427FE8-024E-43B4-9CD6-EC2E89C2CDC5}"/>
+    <hyperlink ref="B233" r:id="rId202" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="https://www.geeksforgeeks.org/check-given-graph-tree/ - :~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{830CB38A-2464-4959-A0D3-4CBBC28DA347}"/>
+    <hyperlink ref="B234" r:id="rId203" display="https://practice.geeksforgeeks.org/problems/lowest-common-ancestor-in-a-binary-tree/1" xr:uid="{9FAE8082-D639-4C53-8A2E-A85A05245E0A}"/>
+    <hyperlink ref="B235" r:id="rId204" display="https://practice.geeksforgeeks.org/problems/min-distance-between-two-given-nodes-of-a-binary-tree/1" xr:uid="{45CC228B-B276-436A-9E75-AD48BEB10878}"/>
+    <hyperlink ref="B236" r:id="rId205" display="https://practice.geeksforgeeks.org/problems/duplicate-subtrees/1" xr:uid="{14EFE929-ED4A-468F-81CE-8B37E90B9896}"/>
+    <hyperlink ref="B237" r:id="rId206" display="https://www.geeksforgeeks.org/kth-ancestor-node-binary-tree-set-2/" xr:uid="{F519FA07-6651-4C3A-A75C-D1F2E5DB9005}"/>
+    <hyperlink ref="B238" r:id="rId207" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/" xr:uid="{C29FD7BD-C7E5-42A1-B760-C613D0FDD55B}"/>
+    <hyperlink ref="B239" r:id="rId208" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3B6A700B-462A-40BB-8912-569FFDEB7B2C}"/>
+    <hyperlink ref="B240" r:id="rId209" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1" xr:uid="{D924AB89-25CE-4DAD-88E6-B076D456B16F}"/>
+    <hyperlink ref="B241" r:id="rId210" display="https://www.geeksforgeeks.org/print-k-sum-paths-binary-tree/" xr:uid="{B8FCE6A6-158E-4065-833A-E8A83583DF8D}"/>
+    <hyperlink ref="B244" r:id="rId211" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{6CA6BCE4-F170-4F2C-82DF-90C47E945A43}"/>
+    <hyperlink ref="B245" r:id="rId212" display="https://www.geeksforgeeks.org/binary-search-tree-set-1-search-and-insertion/" xr:uid="{0183F0CE-B239-4615-B110-BC44FBBC86EB}"/>
+    <hyperlink ref="B246" r:id="rId213" display="https://practice.geeksforgeeks.org/problems/minimum-element-in-bst/1" xr:uid="{A99A299C-A29C-43B9-AC58-5866022ECE36}"/>
+    <hyperlink ref="B247" r:id="rId214" display="https://practice.geeksforgeeks.org/problems/predecessor-and-successor/1" xr:uid="{B976DCE3-7C3B-49E5-9189-51382CE3EEFD}"/>
+    <hyperlink ref="B248" r:id="rId215" display="https://practice.geeksforgeeks.org/problems/check-whether-bst-contains-dead-end/1" xr:uid="{9DC892E6-60A9-4AB2-9954-ECD67E02AC63}"/>
+    <hyperlink ref="B249" r:id="rId216" display="https://practice.geeksforgeeks.org/problems/binary-tree-to-bst/1" xr:uid="{BCC9C9C8-0F09-491C-9B38-1F11D5BA5D4D}"/>
+    <hyperlink ref="B250" r:id="rId217" display="https://practice.geeksforgeeks.org/problems/kth-largest-element-in-bst/1" xr:uid="{6D292837-628A-43C9-817C-C579A02D58E8}"/>
+    <hyperlink ref="B251" r:id="rId218" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{88C52BF2-3674-4A59-92B9-F7EE5C3F23EC}"/>
+    <hyperlink ref="B252" r:id="rId219" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/" xr:uid="{6BEFBB9B-564C-433C-9AEF-EDFCE49FD3AC}"/>
+    <hyperlink ref="B253" r:id="rId220" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{390D6428-7736-4C83-9764-BF917EF4BF54}"/>
+    <hyperlink ref="B254" r:id="rId221" display="https://www.geeksforgeeks.org/flatten-bst-to-sorted-list-increasing-order/" xr:uid="{0733896D-A63E-4D3B-BE5B-61E4EEA82F24}"/>
+    <hyperlink ref="B255" r:id="rId222" display="https://practice.geeksforgeeks.org/problems/preorder-to-postorder4423/1" xr:uid="{68A6AA45-EF48-4EBF-81A8-8AC013DA66C3}"/>
+    <hyperlink ref="B256" r:id="rId223" display="https://practice.geeksforgeeks.org/problems/count-bst-nodes-that-lie-in-a-given-range/1" xr:uid="{E3A8ACAC-2897-4E00-B2DC-08594FF8B347}"/>
+    <hyperlink ref="B257" r:id="rId224" display="https://practice.geeksforgeeks.org/problems/populate-inorder-successor-for-all-nodes/1" xr:uid="{561742FE-426C-484C-BB1B-FAEF3E4B0215}"/>
+    <hyperlink ref="B258" r:id="rId225" display="https://www.geeksforgeeks.org/convert-normal-bst-balanced-bst/" xr:uid="{5F91FD80-5308-497D-872B-1DFFF240BC53}"/>
+    <hyperlink ref="B259" r:id="rId226" display="https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/" xr:uid="{94986362-5B0F-4454-BAAB-5D58E8C2EC29}"/>
+    <hyperlink ref="B260" r:id="rId227" display="https://www.geeksforgeeks.org/given-n-appointments-find-conflicting-appointments/" xr:uid="{F5B4D9B8-9C1D-4092-9B7E-23F08DC4A6B7}"/>
+    <hyperlink ref="B261" r:id="rId228" display="https://www.geeksforgeeks.org/replace-every-element-with-the-least-greater-element-on-its-right/" xr:uid="{654189D7-CF88-468B-AF67-95BC63AF54FB}"/>
+    <hyperlink ref="B262" r:id="rId229" display="https://www.geeksforgeeks.org/construct-bst-from-given-preorder-traversa/" xr:uid="{D60E4D4D-7344-49A5-B6CA-D3FE8837D513}"/>
+    <hyperlink ref="B263" r:id="rId230" display="https://www.geeksforgeeks.org/find-median-bst-time-o1-space/" xr:uid="{E65BFA52-6C04-4DA2-808B-C66539D616EB}"/>
+    <hyperlink ref="B264" r:id="rId231" display="https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/" xr:uid="{FEF7E8B4-879D-4DC1-B072-0C058281B60E}"/>
+    <hyperlink ref="B267" r:id="rId232" display="https://www.geeksforgeeks.org/k-numbers-difference-maximum-minimum-k-number-minimized/" xr:uid="{1ACDFBF2-AAD6-4CE1-BA67-1DFE8BF5E2EE}"/>
+    <hyperlink ref="B268" r:id="rId233" display="https://www.geeksforgeeks.org/heap-sort/" xr:uid="{E9659E14-424E-403C-998F-15802B837B82}"/>
+    <hyperlink ref="B269" r:id="rId234" display="https://leetcode.com/problems/top-k-frequent-elements/" xr:uid="{A58699C3-FE4A-4BB7-89B3-2F2D6776F7B4}"/>
+    <hyperlink ref="B270" r:id="rId235" display="https://www.geeksforgeeks.org/k-largestor-smallest-elements-in-an-array/" xr:uid="{F177F08A-6F18-414E-A8A8-19224CD63040}"/>
+    <hyperlink ref="B271" r:id="rId236" display="https://www.geeksforgeeks.org/next-greater-element/" xr:uid="{5D56F7B2-E2D6-4BF3-8822-60A9F9A1A89E}"/>
+    <hyperlink ref="B272" r:id="rId237" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/" xr:uid="{C85E2B3C-B113-4630-BE61-A8451738DFDF}"/>
+    <hyperlink ref="B273" r:id="rId238" display="https://www.geeksforgeeks.org/find-the-maximum-repeating-number-in-ok-time/" xr:uid="{2A8358EE-CB91-427B-8DCB-FA05B5D5AC0B}"/>
+    <hyperlink ref="B274" r:id="rId239" display="https://www.geeksforgeeks.org/k-th-smallest-element-removing-integers-natural-numbers/" xr:uid="{DCB912F2-0909-4261-92C0-425D568D6C14}"/>
+    <hyperlink ref="B275" r:id="rId240" display="https://www.geeksforgeeks.org/find-k-closest-elements-given-value/" xr:uid="{80012E70-1D17-42A1-8907-F20C0E26835F}"/>
+    <hyperlink ref="B276" r:id="rId241" display="https://www.geeksforgeeks.org/kth-largest-element-in-a-stream/" xr:uid="{CDBD7697-C54A-4DCE-B47A-5C73DF784D64}"/>
+    <hyperlink ref="B277" r:id="rId242" display="https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/" xr:uid="{9C854B1C-CADE-4B26-B5DE-EC3DAC91DDF5}"/>
+    <hyperlink ref="B278" r:id="rId243" display="https://www.geeksforgeeks.org/cuckoo-hashing/" xr:uid="{9FDFE3CE-4EF3-4103-A54A-E3CC242F5F8E}"/>
+    <hyperlink ref="B279" r:id="rId244" display="https://www.geeksforgeeks.org/find-itinerary-from-a-given-list-of-tickets/" xr:uid="{82E3814C-7C7D-4DEE-B8D4-0BFBB9F72B08}"/>
+    <hyperlink ref="B280" r:id="rId245" display="http://geeksforgeeks.org/find-the-largest-subarray-with-0-sum/" xr:uid="{1E649056-4E8E-459D-BD5C-B76B60555A10}"/>
+    <hyperlink ref="B281" r:id="rId246" display="https://www.geeksforgeeks.org/count-distinct-elements-in-every-window-of-size-k/" xr:uid="{31A4D75B-4D4F-4C52-BBC8-B2AF50CBA1CF}"/>
+    <hyperlink ref="B282" r:id="rId247" display="https://www.geeksforgeeks.org/group-shifted-string/" xr:uid="{E415AFD3-51C8-4FAD-9DA0-3589FA1A77A1}"/>
+    <hyperlink ref="B283" r:id="rId248" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{41CCAF3D-E871-445F-9362-E84B5078CB96}"/>
+    <hyperlink ref="B284" r:id="rId249" display="https://leetcode.com/problems/find-median-from-data-stream/" xr:uid="{851C8A69-F4BF-45A6-8A21-2950DF5B8162}"/>
+    <hyperlink ref="B285" r:id="rId250" display="https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/" xr:uid="{681F4180-0C2F-4286-9243-5621FD4DD7D9}"/>
+    <hyperlink ref="B286" r:id="rId251" display="https://www.geeksforgeeks.org/find-the-smallest-positive-number-missing-from-an-unsorted-array/" xr:uid="{742A6F9E-8B05-477A-B126-5E2F530A31E7}"/>
+    <hyperlink ref="B287" r:id="rId252" display="https://www.geeksforgeeks.org/find-surpasser-count-of-each-element-in-array/" xr:uid="{BBED1C45-2717-47E0-AD7C-D427A7FBA6B7}"/>
+    <hyperlink ref="B288" r:id="rId253" display="https://www.geeksforgeeks.org/tournament-tree-and-binary-heap/" xr:uid="{96051EED-F95A-48E6-9582-4E28E0F33AC7}"/>
+    <hyperlink ref="B289" r:id="rId254" display="https://www.geeksforgeeks.org/online-algorithm-for-checking-palindrome-in-a-stream/" xr:uid="{EDE4321E-A0B0-4B08-9353-ECCC877F1101}"/>
+    <hyperlink ref="B290" r:id="rId255" display="https://www.geeksforgeeks.org/length-largest-subarray-contiguous-elements-set-2/" xr:uid="{3C477D79-14B6-4E02-A353-FD71EF82D549}"/>
+    <hyperlink ref="B291" r:id="rId256" display="https://www.geeksforgeeks.org/palindrome-substring-queries/" xr:uid="{B0F83B08-F3E4-44CB-A9D1-CAF7376B4438}"/>
+    <hyperlink ref="B292" r:id="rId257" display="https://www.geeksforgeeks.org/subarrays-distinct-elements/" xr:uid="{EE62ADA5-C53E-4AF8-9A02-20515605BE35}"/>
+    <hyperlink ref="B293" r:id="rId258" display="https://www.geeksforgeeks.org/find-recurring-sequence-fraction/" xr:uid="{718BC6A1-3B06-4F96-979A-884CA2F08368}"/>
+    <hyperlink ref="B294" r:id="rId259" display="https://www.geeksforgeeks.org/k-maximum-sum-combinations-two-arrays/" xr:uid="{FE69B827-D1D8-4927-9125-0C167A3E7414}"/>
+    <hyperlink ref="B297" r:id="rId260" display="https://practice.geeksforgeeks.org/problems/bfs-traversal-of-graph/1" xr:uid="{ABC8E165-2CAD-48FA-9368-5BE7306273F0}"/>
+    <hyperlink ref="B298" r:id="rId261" display="https://www.geeksforgeeks.org/depth-first-search-or-dfs-for-a-graph/" xr:uid="{2F69369B-FC75-4B2B-AD26-E2ACFC0F033A}"/>
+    <hyperlink ref="B299" r:id="rId262" display="https://leetcode.com/problems/flood-fill/" xr:uid="{741DDDA5-CE9C-43A0-B0FC-0ECEC7432BE7}"/>
+    <hyperlink ref="B300" r:id="rId263" display="https://www.geeksforgeeks.org/number-of-triangles-in-directed-and-undirected-graphs/" xr:uid="{B62641B6-50ED-440E-BF8F-8B551E7CA78B}"/>
+    <hyperlink ref="B301" r:id="rId264" display="https://www.geeksforgeeks.org/detect-cycle-in-a-graph/" xr:uid="{1CCDA6EA-5E4B-4898-8A49-567BDD37D0A3}"/>
+    <hyperlink ref="B302" r:id="rId265" display="https://practice.geeksforgeeks.org/problems/detect-cycle-in-an-undirected-graph/1" xr:uid="{0075683A-3B94-4924-8468-40F63A16EA13}"/>
+    <hyperlink ref="B303" r:id="rId266" display="https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1" xr:uid="{6D2C7B5E-FFB0-4EE0-B47A-7F79525BF5E5}"/>
+    <hyperlink ref="B304" r:id="rId267" display="https://practice.geeksforgeeks.org/problems/steps-by-knight5927/1" xr:uid="{FB017537-B17C-48F5-8B41-02B44D7B4E2D}"/>
+    <hyperlink ref="B305" r:id="rId268" display="https://leetcode.com/problems/clone-graph/" xr:uid="{8B1FC085-07E0-4890-84C7-AB3EF30986D6}"/>
+    <hyperlink ref="B306" r:id="rId269" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected/" xr:uid="{DA75AEB8-2320-4E09-9F8C-174D413AFA02}"/>
+    <hyperlink ref="B307" r:id="rId270" display="https://www.geeksforgeeks.org/dijkstras-shortest-path-algorithm-greedy-algo-7/" xr:uid="{C769ABB5-C00A-4B97-91F9-0784A3108EBE}"/>
+    <hyperlink ref="B308" r:id="rId271" display="https://practice.geeksforgeeks.org/problems/topological-sort/1" xr:uid="{A0B34DD2-3E12-4189-A454-8155976CC47D}"/>
+    <hyperlink ref="B309" r:id="rId272" display="https://www.hackerearth.com/practice/algorithms/graphs/topological-sort/practice-problems/algorithm/oliver-and-the-game-3/" xr:uid="{22D82A22-92F1-4F1D-8935-13F1A26ECB9A}"/>
+    <hyperlink ref="B310" r:id="rId273" display="https://www.geeksforgeeks.org/minimum-time-taken-by-each-job-to-be-completed-given-by-a-directed-acyclic-graph/" xr:uid="{7FD4AAD5-D948-41E5-A7E7-60346300D285}"/>
+    <hyperlink ref="B311" r:id="rId274" display="https://www.geeksforgeeks.org/find-whether-it-is-possible-to-finish-all-tasks-or-not-from-given-dependencies/" xr:uid="{D1795344-71A0-45A4-B6DB-D218C16DB462}"/>
+    <hyperlink ref="B312" r:id="rId275" display="https://practice.geeksforgeeks.org/problems/find-the-number-of-islands/1" xr:uid="{F62A9E0D-9104-4B7F-939D-80A56B97C1E1}"/>
+    <hyperlink ref="B313" r:id="rId276" display="https://www.geeksforgeeks.org/prims-minimum-spanning-tree-mst-greedy-algo-5/" xr:uid="{482B5209-4E70-4E5B-9240-614142224B17}"/>
+    <hyperlink ref="B314" r:id="rId277" display="https://practice.geeksforgeeks.org/problems/negative-weight-cycle3504/1" xr:uid="{AC3D1F14-A972-4241-86FD-99B6C4DD0331}"/>
+    <hyperlink ref="B315" r:id="rId278" display="https://practice.geeksforgeeks.org/problems/implementing-floyd-warshall2042/1" xr:uid="{5AD30927-9325-4ADF-BE09-B135E8F0E9B1}"/>
+    <hyperlink ref="B316" r:id="rId279" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="https://www.geeksforgeeks.org/graph-coloring-applications/ - :~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{BE147614-6015-4D76-908B-15E384125492}"/>
+    <hyperlink ref="B317" r:id="rId280" display="https://leetcode.com/problems/snakes-and-ladders/" xr:uid="{8ACAC68D-9F5F-4AF0-8436-6B2DB1F68807}"/>
+    <hyperlink ref="B318" r:id="rId281" display="https://practice.geeksforgeeks.org/problems/strongly-connected-components-kosarajus-algo/1" xr:uid="{53F6ED3C-8727-4F7A-8F00-CA45EA7A5CFB}"/>
+    <hyperlink ref="B319" r:id="rId282" display="https://www.hackerrank.com/challenges/journey-to-the-moon/problem" xr:uid="{DA782532-A48A-447E-BC2E-CF1AA2D6DA6A}"/>
+    <hyperlink ref="B320" r:id="rId283" display="https://www.geeksforgeeks.org/vertex-cover-problem-set-1-introduction-approximate-algorithm-2/" xr:uid="{234EF5FB-7B73-4284-9BDD-5A1965679D8D}"/>
+    <hyperlink ref="B321" r:id="rId284" display="https://practice.geeksforgeeks.org/problems/m-coloring-problem-1587115620/1" xr:uid="{2AF79C34-C18D-4049-814F-FE7B47178DDF}"/>
+    <hyperlink ref="B322" r:id="rId285" display="https://leetcode.com/problems/cheapest-flights-within-k-stops/description/" xr:uid="{28985ABD-C2BD-4F70-A4FB-B41525A372FD}"/>
+    <hyperlink ref="B323" r:id="rId286" display="https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/" xr:uid="{E28A04D4-C12B-4A73-BAA8-5EF439051250}"/>
+    <hyperlink ref="B324" r:id="rId287" display="https://www.geeksforgeeks.org/detect-negative-cycle-graph-bellman-ford/" xr:uid="{82F9995B-6E99-4646-9821-E5F80ABC5757}"/>
+    <hyperlink ref="B325" r:id="rId288" display="https://www.geeksforgeeks.org/bipartite-graph/" xr:uid="{BEFA54CC-0EA3-40AA-8918-3943A7EAAC37}"/>
+    <hyperlink ref="B326" r:id="rId289" display="https://leetcode.com/problems/word-ladder/" xr:uid="{9C182416-01EE-43DD-8993-A21C2F2276A5}"/>
+    <hyperlink ref="B327" r:id="rId290" display="https://practice.geeksforgeeks.org/problems/alien-dictionary/1" xr:uid="{FB62CE13-EE14-4513-98F3-3B51DDB572DB}"/>
+    <hyperlink ref="B328" r:id="rId291" display="https://www.geeksforgeeks.org/kruskals-minimum-spanning-tree-algorithm-greedy-algo-2/" xr:uid="{F07B48C2-A5AE-4CE0-B328-631EF48A3497}"/>
+    <hyperlink ref="B329" r:id="rId292" display="https://www.geeksforgeeks.org/total-number-spanning-trees-graph/" xr:uid="{BC93496C-0BED-46C6-A86E-CA056DE932FA}"/>
+    <hyperlink ref="B330" r:id="rId293" display="https://www.geeksforgeeks.org/travelling-salesman-problem-set-1/" xr:uid="{EA3DAFC2-BB9F-47D0-A178-7F1314695157}"/>
+    <hyperlink ref="B331" r:id="rId294" display="https://www.geeksforgeeks.org/find-longest-path-directed-acyclic-graph/" xr:uid="{CC2FD058-9CDA-4448-8222-6406C8B74F2F}"/>
+    <hyperlink ref="B332" r:id="rId295" display="https://www.geeksforgeeks.org/two-clique-problem-check-graph-can-divided-two-cliques/" xr:uid="{4089A0C2-8B1B-436F-B566-E27182B4D99A}"/>
+    <hyperlink ref="B333" r:id="rId296" display="https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/" xr:uid="{C526389A-404B-4BB3-98A5-45764D094C2E}"/>
+    <hyperlink ref="B334" r:id="rId297" display="https://www.geeksforgeeks.org/chinese-postman-route-inspection-set-1-introduction/" xr:uid="{EFD9120C-C64F-479F-9E69-3994434C75D6}"/>
+    <hyperlink ref="B335" r:id="rId298" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{CF1A8832-3CCF-4365-AA14-BA084A67C0F3}"/>
+    <hyperlink ref="B336" r:id="rId299" display="https://www.geeksforgeeks.org/water-jug-problem-using-bfs/" xr:uid="{693AFEB2-B472-452D-B6C6-300BEF5EEE3D}"/>
+    <hyperlink ref="B347" r:id="rId300" display="https://practice.geeksforgeeks.org/problems/knapsack-with-duplicate-items4201/1" xr:uid="{8A893FCA-A40A-42C3-8590-8049299B4806}"/>
+    <hyperlink ref="B348" r:id="rId301" display="https://practice.geeksforgeeks.org/problems/bbt-counter4914/1" xr:uid="{E79761BE-F6BB-416A-9AB4-7357E4A4E934}"/>
+    <hyperlink ref="B349" r:id="rId302" display="https://practice.geeksforgeeks.org/problems/reach-a-given-score-1587115621/1" xr:uid="{B4475273-03EF-4F72-8F87-5790DA65C61B}"/>
+    <hyperlink ref="B350" r:id="rId303" display="https://practice.geeksforgeeks.org/problems/maximum-difference-of-zeros-and-ones-in-binary-string4111/1" xr:uid="{93EF7F10-7301-4E25-9EF3-4955F91D45EA}"/>
+    <hyperlink ref="B351" r:id="rId304" display="https://leetcode.com/problems/climbing-stairs/" xr:uid="{B8297DD3-6F14-4A1A-B4F4-FC592A8D742B}"/>
+    <hyperlink ref="B352" r:id="rId305" display="https://www.geeksforgeeks.org/permutation-coefficient/" xr:uid="{A39CD97F-BBE9-49BF-81D7-F3D5D9230810}"/>
+    <hyperlink ref="B353" r:id="rId306" display="https://practice.geeksforgeeks.org/problems/longest-repeating-subsequence2004/1" xr:uid="{3479FA04-B5F8-4C34-ACFD-DC9C07C7A039}"/>
+    <hyperlink ref="B354" r:id="rId307" display="https://practice.geeksforgeeks.org/problems/pairs-with-specific-difference1533/1" xr:uid="{D0D56D2E-DF88-4B34-A732-316D4E8636E6}"/>
+    <hyperlink ref="B355" r:id="rId308" display="https://practice.geeksforgeeks.org/problems/longest-subsequence-such-that-difference-between-adjacents-is-one4724/1" xr:uid="{C2D9FF12-EDF5-4731-B17D-F8654BFD6A9B}"/>
+    <hyperlink ref="B356" r:id="rId309" display="https://leetcode.com/problems/coin-change/" xr:uid="{11C4FDD6-0928-42F5-A838-BE00AA4E601C}"/>
+    <hyperlink ref="B357" r:id="rId310" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{51B2DDB8-4B7C-4E57-8E18-680AB98677F6}"/>
+    <hyperlink ref="B358" r:id="rId311" display="https://leetcode.com/problems/longest-common-subsequence/" xr:uid="{49459001-227F-4A1E-916C-532BFB5B7551}"/>
+    <hyperlink ref="B359" r:id="rId312" display="https://leetcode.com/problems/word-break/" xr:uid="{BEEDE135-12B8-4F86-880F-3C7CEA459977}"/>
+    <hyperlink ref="B360" r:id="rId313" display="https://leetcode.com/problems/combination-sum-iv/" xr:uid="{C35DAD21-3D3B-4DAD-B43D-9AB6EB4C31B8}"/>
+    <hyperlink ref="B361" r:id="rId314" display="https://leetcode.com/problems/house-robber/" xr:uid="{8172B215-A0ED-4833-A5C9-144719180D92}"/>
+    <hyperlink ref="B362" r:id="rId315" display="https://leetcode.com/problems/house-robber-ii/" xr:uid="{D16D749B-2BCA-4B8B-83F6-63605BFCE00E}"/>
+    <hyperlink ref="B363" r:id="rId316" display="https://leetcode.com/problems/decode-ways/" xr:uid="{9DEB70D8-1411-4700-BF41-7EFAB60D2DDC}"/>
+    <hyperlink ref="B364" r:id="rId317" display="https://leetcode.com/problems/unique-paths/" xr:uid="{6DC8F847-BC5F-4F4E-9024-3B3BAD4E7B71}"/>
+    <hyperlink ref="B365" r:id="rId318" display="https://leetcode.com/problems/jump-game/" xr:uid="{36006AED-3098-4C5B-8915-64B52E865D3B}"/>
+    <hyperlink ref="B366" r:id="rId319" display="https://practice.geeksforgeeks.org/problems/0-1-knapsack-problem0945/1" xr:uid="{DD212B1E-89E7-4107-94B4-CC3F41C5C0DB}"/>
+    <hyperlink ref="B367" r:id="rId320" display="https://practice.geeksforgeeks.org/problems/ncr1019/1" xr:uid="{2D1D7511-E837-4AD6-ACBA-01A7DF722170}"/>
+    <hyperlink ref="B368" r:id="rId321" display="https://www.geeksforgeeks.org/program-nth-catalan-number/" xr:uid="{A51E40FE-239F-4B74-9E01-3A5E2B4433F5}"/>
+    <hyperlink ref="B369" r:id="rId322" display="https://practice.geeksforgeeks.org/problems/edit-distance3702/1" xr:uid="{69E86FF8-C63A-499D-B882-1A5E81DC3D55}"/>
+    <hyperlink ref="B370" r:id="rId323" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{A996182D-9759-4302-98A7-6424488966EF}"/>
+    <hyperlink ref="B371" r:id="rId324" display="https://www.geeksforgeeks.org/gold-mine-problem/" xr:uid="{F256E50D-FAAE-4414-A6BE-2CE4AE0A4C47}"/>
+    <hyperlink ref="B372" r:id="rId325" display="https://www.geeksforgeeks.org/assembly-line-scheduling-dp-34/" xr:uid="{EEAF8FAA-4CED-4821-8532-DC76A9145ED8}"/>
+    <hyperlink ref="B373" r:id="rId326" display="https://practice.geeksforgeeks.org/problems/cutted-segments1642/1" xr:uid="{0BF7C422-2910-45A1-B052-405EAE5D597D}"/>
+    <hyperlink ref="B374" r:id="rId327" display="https://practice.geeksforgeeks.org/problems/maximum-sum-increasing-subsequence4749/1" xr:uid="{D30DA670-2542-4011-8820-2FA82E6F5BBA}"/>
+    <hyperlink ref="B375" r:id="rId328" display="https://www.geeksforgeeks.org/count-subsequences-product-less-k/" xr:uid="{5C8203C1-0D80-40B6-8F22-0DFBEE6ACF8C}"/>
+    <hyperlink ref="B376" r:id="rId329" display="https://www.geeksforgeeks.org/maximum-subsequence-sum-such-that-no-three-are-consecutive/" xr:uid="{64A7DB7F-45EA-4DEB-A705-847E7F5F3680}"/>
+    <hyperlink ref="B377" r:id="rId330" display="https://practice.geeksforgeeks.org/problems/egg-dropping-puzzle-1587115620/1" xr:uid="{0F0E9427-70C9-4C93-B6EF-DB2B18247077}"/>
+    <hyperlink ref="B378" r:id="rId331" display="https://practice.geeksforgeeks.org/problems/max-length-chain/1" xr:uid="{DEBAEEBA-22DA-4A50-885A-C63264F06622}"/>
+    <hyperlink ref="B379" r:id="rId332" display="https://practice.geeksforgeeks.org/problems/largest-square-formed-in-a-matrix0806/1" xr:uid="{922699D3-8C68-4F50-80F2-D2826FAC27C9}"/>
+    <hyperlink ref="B380" r:id="rId333" display="https://practice.geeksforgeeks.org/problems/path-in-matrix3805/1" xr:uid="{E74E8FA1-10B4-470E-9670-7CEA26CFE365}"/>
+    <hyperlink ref="B381" r:id="rId334" display="https://practice.geeksforgeeks.org/problems/minimum-number-of-jumps-1587115620/1" xr:uid="{044184E6-8A82-408E-8964-204EB1DDF2EA}"/>
+    <hyperlink ref="B382" r:id="rId335" display="http://geeksforgeeks.org/minimum-removals-array-make-max-min-k/" xr:uid="{3A75ACFF-EA70-4E4E-BA9D-42D3903BEABE}"/>
+    <hyperlink ref="B383" r:id="rId336" display="https://practice.geeksforgeeks.org/problems/longest-common-substring1452/1" xr:uid="{AD2315B5-24BB-41F0-A81D-6FE061E3E642}"/>
+    <hyperlink ref="B384" r:id="rId337" display="https://practice.geeksforgeeks.org/problems/subset-sum-problem2014/1" xr:uid="{6E3E7571-EA27-496B-ABA8-F47EE973AD8C}"/>
+    <hyperlink ref="B385" r:id="rId338" display="https://www.geeksforgeeks.org/longest-palindromic-subsequence-dp-12/" xr:uid="{5A893176-9EF5-4E75-AB1A-FA2425F468F1}"/>
+    <hyperlink ref="B386" r:id="rId339" display="https://practice.geeksforgeeks.org/problems/count-palindromic-subsequences/1" xr:uid="{515D577F-F89A-48F4-94C6-D9EA4CD0D8B8}"/>
+    <hyperlink ref="B387" r:id="rId340" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{873716DD-9D57-4D10-A162-B9F6D54843BF}"/>
+    <hyperlink ref="B388" r:id="rId341" display="https://practice.geeksforgeeks.org/problems/longest-alternating-subsequence5951/1" xr:uid="{19D8AED6-787B-4976-A849-977CE00D6863}"/>
+    <hyperlink ref="B389" r:id="rId342" display="https://www.geeksforgeeks.org/weighted-job-scheduling/" xr:uid="{8536076C-378E-49A8-80C6-6287B27D763D}"/>
+    <hyperlink ref="B390" r:id="rId343" display="https://www.geeksforgeeks.org/coin-game-winner-every-player-three-choices/" xr:uid="{16448EBF-6869-4BCE-9E5C-A56DDD203916}"/>
+    <hyperlink ref="B391" r:id="rId344" display="https://www.geeksforgeeks.org/count-derangements-permutation-such-that-no-element-appears-in-its-original-position/" xr:uid="{725AFF89-D22F-4850-A5C0-42CA830ED664}"/>
+    <hyperlink ref="B392" r:id="rId345" display="https://practice.geeksforgeeks.org/problems/optimal-strategy-for-a-game-1587115620/1" xr:uid="{6BC5912C-2FF4-4E59-A1EF-B44F99EDC871}"/>
+    <hyperlink ref="B393" r:id="rId346" display="https://practice.geeksforgeeks.org/problems/word-wrap1646/1" xr:uid="{62C9FDB3-AC57-48FF-87D2-D00F91F5F117}"/>
+    <hyperlink ref="B394" r:id="rId347" display="https://practice.geeksforgeeks.org/problems/mobile-numeric-keypad5456/1" xr:uid="{111AF162-6104-433C-B1A3-F13852DDED7A}"/>
+    <hyperlink ref="B395" r:id="rId348" display="https://leetcode.com/problems/maximum-length-of-pair-chain/" xr:uid="{52E940A0-1FAE-429A-BB0E-23094D3FBD95}"/>
+    <hyperlink ref="B396" r:id="rId349" display="https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/" xr:uid="{288DF147-214B-4B72-AEF2-A8CB652A02FF}"/>
+    <hyperlink ref="B397" r:id="rId350" display="https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/" xr:uid="{4E68F012-338F-4E9D-80A4-1F7447BB421C}"/>
+    <hyperlink ref="B398" r:id="rId351" display="https://www.geeksforgeeks.org/optimal-binary-search-tree-dp-24/" xr:uid="{AD781ECE-7545-433A-A34B-718C048C26E9}"/>
+    <hyperlink ref="B399" r:id="rId352" display="https://www.geeksforgeeks.org/largest-rectangular-sub-matrix-whose-sum-0/" xr:uid="{3A9FF6BA-7F5B-4771-9F12-0B19AB2A9239}"/>
+    <hyperlink ref="B400" r:id="rId353" display="https://www.geeksforgeeks.org/largest-area-rectangular-sub-matrix-equal-number-1s-0s/" xr:uid="{F5494180-F6C7-4618-B644-FA3248BB0833}"/>
+    <hyperlink ref="B415" r:id="rId354" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{E6F012F3-FC8F-4347-97B8-DD0FCD7F6243}"/>
+    <hyperlink ref="B416" r:id="rId355" display="https://cp-algorithms.com/sequences/rmq.html" xr:uid="{E3EDA13A-0062-4A3F-A0EC-61D76EA5AA95}"/>
+    <hyperlink ref="B417" r:id="rId356" display="https://leetcode.com/problems/range-sum-query-mutable/" xr:uid="{9DFD2134-0B69-4BFB-80F5-AFC463D7444B}"/>
+    <hyperlink ref="B418" r:id="rId357" display="https://leetcode.com/problems/create-sorted-array-through-instructions/" xr:uid="{45D6BA72-A309-4A99-932F-11A525796EA9}"/>
+    <hyperlink ref="B419" r:id="rId358" display="https://leetcode.com/problems/count-of-range-sum/" xr:uid="{1747861A-8BF6-4335-9960-1FA4B50A1907}"/>
+    <hyperlink ref="B420" r:id="rId359" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{152D2E39-F5D4-4F68-A71A-72D0E2D3523A}"/>
+    <hyperlink ref="B74" r:id="rId360" xr:uid="{90890F2C-00F0-4CAA-9763-1F80E182C083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId361"/>
